--- a/statistics_files/2022/2022.yy.unique borrowers thing.xlsx
+++ b/statistics_files/2022/2022.yy.unique borrowers thing.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20387"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\GitHub\next_statistics\statistics_files\2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A40F3A-8F5E-44DE-BB99-8516BEF952AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8676" tabRatio="668"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8670" tabRatio="668" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="January" sheetId="1" r:id="rId1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="88">
   <si>
     <t>branchname</t>
   </si>
@@ -288,11 +289,23 @@
   <si>
     <t>2022-03 (March)</t>
   </si>
+  <si>
+    <t>2022-07 (July)</t>
+  </si>
+  <si>
+    <t>2022-06 (June)</t>
+  </si>
+  <si>
+    <t>2022-05 (May)</t>
+  </si>
+  <si>
+    <t>2022-04 (April)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -616,24 +629,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.77734375" customWidth="1"/>
-    <col min="2" max="13" width="13.77734375" customWidth="1"/>
-    <col min="14" max="14" width="15.77734375" customWidth="1"/>
+    <col min="1" max="1" width="42.7109375" customWidth="1"/>
+    <col min="2" max="13" width="13.7109375" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -677,7 +690,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -721,7 +734,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>28</v>
       </c>
@@ -765,7 +778,7 @@
         <v>1582</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -809,7 +822,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>30</v>
       </c>
@@ -853,7 +866,7 @@
         <v>2341</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -897,7 +910,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>32</v>
       </c>
@@ -941,7 +954,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -985,7 +998,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>34</v>
       </c>
@@ -1029,7 +1042,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -1073,7 +1086,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>36</v>
       </c>
@@ -1117,7 +1130,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -1128,7 +1141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>38</v>
       </c>
@@ -1172,7 +1185,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -1216,7 +1229,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>40</v>
       </c>
@@ -1260,7 +1273,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -1304,7 +1317,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>42</v>
       </c>
@@ -1348,7 +1361,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -1392,7 +1405,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>44</v>
       </c>
@@ -1436,7 +1449,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -1480,7 +1493,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>46</v>
       </c>
@@ -1524,7 +1537,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>47</v>
       </c>
@@ -1568,7 +1581,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>48</v>
       </c>
@@ -1612,7 +1625,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>49</v>
       </c>
@@ -1656,7 +1669,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>50</v>
       </c>
@@ -1700,7 +1713,7 @@
         <v>2945</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>51</v>
       </c>
@@ -1744,7 +1757,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>52</v>
       </c>
@@ -1762,7 +1775,7 @@
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>53</v>
       </c>
@@ -1806,7 +1819,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>54</v>
       </c>
@@ -1850,7 +1863,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>55</v>
       </c>
@@ -1894,7 +1907,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>56</v>
       </c>
@@ -1938,7 +1951,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>57</v>
       </c>
@@ -1982,7 +1995,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>58</v>
       </c>
@@ -2026,7 +2039,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>59</v>
       </c>
@@ -2070,7 +2083,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>60</v>
       </c>
@@ -2114,7 +2127,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>61</v>
       </c>
@@ -2158,7 +2171,7 @@
         <v>2240</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>62</v>
       </c>
@@ -2202,7 +2215,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>63</v>
       </c>
@@ -2246,7 +2259,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>64</v>
       </c>
@@ -2290,7 +2303,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>65</v>
       </c>
@@ -2334,7 +2347,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>66</v>
       </c>
@@ -2374,7 +2387,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>67</v>
       </c>
@@ -2412,7 +2425,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>68</v>
       </c>
@@ -2452,7 +2465,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>69</v>
       </c>
@@ -2490,7 +2503,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>70</v>
       </c>
@@ -2530,7 +2543,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>71</v>
       </c>
@@ -2574,7 +2587,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>72</v>
       </c>
@@ -2618,7 +2631,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>73</v>
       </c>
@@ -2662,7 +2675,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>74</v>
       </c>
@@ -2706,7 +2719,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>75</v>
       </c>
@@ -2750,7 +2763,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>76</v>
       </c>
@@ -2794,7 +2807,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>77</v>
       </c>
@@ -2838,7 +2851,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>78</v>
       </c>
@@ -2882,7 +2895,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>79</v>
       </c>
@@ -2926,7 +2939,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>80</v>
       </c>
@@ -2970,7 +2983,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>81</v>
       </c>
@@ -3020,7 +3033,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:N56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3030,14 +3043,14 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.77734375" customWidth="1"/>
-    <col min="2" max="13" width="13.77734375" customWidth="1"/>
-    <col min="14" max="14" width="15.77734375" customWidth="1"/>
+    <col min="1" max="1" width="42.7109375" customWidth="1"/>
+    <col min="2" max="13" width="13.7109375" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3081,7 +3094,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -3099,7 +3112,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>28</v>
       </c>
@@ -3117,12 +3130,12 @@
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>30</v>
       </c>
@@ -3140,12 +3153,12 @@
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>32</v>
       </c>
@@ -3163,12 +3176,12 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>34</v>
       </c>
@@ -3186,12 +3199,12 @@
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>36</v>
       </c>
@@ -3209,12 +3222,12 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>38</v>
       </c>
@@ -3232,12 +3245,12 @@
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>40</v>
       </c>
@@ -3255,12 +3268,12 @@
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>42</v>
       </c>
@@ -3278,12 +3291,12 @@
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>44</v>
       </c>
@@ -3301,12 +3314,12 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>46</v>
       </c>
@@ -3324,12 +3337,12 @@
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>48</v>
       </c>
@@ -3347,12 +3360,12 @@
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>50</v>
       </c>
@@ -3370,12 +3383,12 @@
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>52</v>
       </c>
@@ -3393,12 +3406,12 @@
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>54</v>
       </c>
@@ -3416,12 +3429,12 @@
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>56</v>
       </c>
@@ -3439,12 +3452,12 @@
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>58</v>
       </c>
@@ -3462,12 +3475,12 @@
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>60</v>
       </c>
@@ -3485,12 +3498,12 @@
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>62</v>
       </c>
@@ -3508,12 +3521,12 @@
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>64</v>
       </c>
@@ -3531,12 +3544,12 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>66</v>
       </c>
@@ -3554,12 +3567,12 @@
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>68</v>
       </c>
@@ -3577,12 +3590,12 @@
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>70</v>
       </c>
@@ -3600,12 +3613,12 @@
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>72</v>
       </c>
@@ -3623,12 +3636,12 @@
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>74</v>
       </c>
@@ -3646,12 +3659,12 @@
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>76</v>
       </c>
@@ -3669,12 +3682,12 @@
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>78</v>
       </c>
@@ -3692,12 +3705,12 @@
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>80</v>
       </c>
@@ -3715,7 +3728,7 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>81</v>
       </c>
@@ -3726,7 +3739,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:N56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3736,14 +3749,14 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.77734375" customWidth="1"/>
-    <col min="2" max="13" width="13.77734375" customWidth="1"/>
-    <col min="14" max="14" width="15.77734375" customWidth="1"/>
+    <col min="1" max="1" width="42.7109375" customWidth="1"/>
+    <col min="2" max="13" width="13.7109375" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3787,7 +3800,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -3805,7 +3818,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>28</v>
       </c>
@@ -3823,12 +3836,12 @@
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>30</v>
       </c>
@@ -3846,12 +3859,12 @@
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>32</v>
       </c>
@@ -3869,12 +3882,12 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>34</v>
       </c>
@@ -3892,12 +3905,12 @@
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>36</v>
       </c>
@@ -3915,12 +3928,12 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>38</v>
       </c>
@@ -3938,12 +3951,12 @@
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>40</v>
       </c>
@@ -3961,12 +3974,12 @@
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>42</v>
       </c>
@@ -3984,12 +3997,12 @@
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>44</v>
       </c>
@@ -4007,12 +4020,12 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>46</v>
       </c>
@@ -4030,12 +4043,12 @@
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>48</v>
       </c>
@@ -4053,12 +4066,12 @@
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>50</v>
       </c>
@@ -4076,12 +4089,12 @@
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>52</v>
       </c>
@@ -4099,12 +4112,12 @@
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>54</v>
       </c>
@@ -4122,12 +4135,12 @@
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>56</v>
       </c>
@@ -4145,12 +4158,12 @@
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>58</v>
       </c>
@@ -4168,12 +4181,12 @@
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>60</v>
       </c>
@@ -4191,12 +4204,12 @@
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>62</v>
       </c>
@@ -4214,12 +4227,12 @@
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>64</v>
       </c>
@@ -4237,12 +4250,12 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>66</v>
       </c>
@@ -4260,12 +4273,12 @@
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>68</v>
       </c>
@@ -4283,12 +4296,12 @@
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>70</v>
       </c>
@@ -4306,12 +4319,12 @@
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>72</v>
       </c>
@@ -4329,12 +4342,12 @@
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>74</v>
       </c>
@@ -4352,12 +4365,12 @@
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>76</v>
       </c>
@@ -4375,12 +4388,12 @@
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>78</v>
       </c>
@@ -4398,12 +4411,12 @@
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>80</v>
       </c>
@@ -4421,7 +4434,7 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>81</v>
       </c>
@@ -4432,19 +4445,19 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:N56"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.77734375" customWidth="1"/>
-    <col min="2" max="13" width="13.77734375" customWidth="1"/>
-    <col min="14" max="14" width="15.77734375" customWidth="1"/>
+    <col min="1" max="1" width="42.7109375" customWidth="1"/>
+    <col min="2" max="13" width="13.7109375" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4488,7 +4501,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -4506,7 +4519,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>28</v>
       </c>
@@ -4524,12 +4537,12 @@
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>30</v>
       </c>
@@ -4547,12 +4560,12 @@
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>32</v>
       </c>
@@ -4570,12 +4583,12 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>34</v>
       </c>
@@ -4593,12 +4606,12 @@
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>36</v>
       </c>
@@ -4616,12 +4629,12 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>38</v>
       </c>
@@ -4639,12 +4652,12 @@
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>40</v>
       </c>
@@ -4662,12 +4675,12 @@
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>42</v>
       </c>
@@ -4685,12 +4698,12 @@
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>44</v>
       </c>
@@ -4708,12 +4721,12 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>46</v>
       </c>
@@ -4731,12 +4744,12 @@
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>48</v>
       </c>
@@ -4754,12 +4767,12 @@
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>50</v>
       </c>
@@ -4777,12 +4790,12 @@
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>52</v>
       </c>
@@ -4800,12 +4813,12 @@
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>54</v>
       </c>
@@ -4823,12 +4836,12 @@
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>56</v>
       </c>
@@ -4846,12 +4859,12 @@
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>58</v>
       </c>
@@ -4869,12 +4882,12 @@
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>60</v>
       </c>
@@ -4892,12 +4905,12 @@
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>62</v>
       </c>
@@ -4915,12 +4928,12 @@
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>64</v>
       </c>
@@ -4938,12 +4951,12 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>66</v>
       </c>
@@ -4961,12 +4974,12 @@
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>68</v>
       </c>
@@ -4984,12 +4997,12 @@
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>70</v>
       </c>
@@ -5007,12 +5020,12 @@
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>72</v>
       </c>
@@ -5030,12 +5043,12 @@
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>74</v>
       </c>
@@ -5053,12 +5066,12 @@
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>76</v>
       </c>
@@ -5076,12 +5089,12 @@
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>78</v>
       </c>
@@ -5099,12 +5112,12 @@
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>80</v>
       </c>
@@ -5122,7 +5135,7 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>81</v>
       </c>
@@ -5133,7 +5146,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5143,14 +5156,14 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.77734375" customWidth="1"/>
-    <col min="2" max="13" width="13.77734375" customWidth="1"/>
-    <col min="14" max="14" width="15.77734375" customWidth="1"/>
+    <col min="1" max="1" width="42.7109375" customWidth="1"/>
+    <col min="2" max="13" width="13.7109375" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5194,7 +5207,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -5238,7 +5251,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>28</v>
       </c>
@@ -5282,7 +5295,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -5326,7 +5339,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>30</v>
       </c>
@@ -5370,7 +5383,7 @@
         <v>2361</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -5414,7 +5427,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>32</v>
       </c>
@@ -5458,7 +5471,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -5502,7 +5515,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>34</v>
       </c>
@@ -5546,7 +5559,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -5590,7 +5603,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>36</v>
       </c>
@@ -5634,7 +5647,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -5645,7 +5658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>38</v>
       </c>
@@ -5689,7 +5702,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -5733,7 +5746,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>40</v>
       </c>
@@ -5777,7 +5790,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -5821,7 +5834,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>42</v>
       </c>
@@ -5865,7 +5878,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -5909,7 +5922,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>44</v>
       </c>
@@ -5953,7 +5966,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -5997,7 +6010,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>46</v>
       </c>
@@ -6041,7 +6054,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>47</v>
       </c>
@@ -6085,7 +6098,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>48</v>
       </c>
@@ -6129,7 +6142,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>49</v>
       </c>
@@ -6173,7 +6186,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>50</v>
       </c>
@@ -6217,7 +6230,7 @@
         <v>3042</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>51</v>
       </c>
@@ -6261,7 +6274,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>52</v>
       </c>
@@ -6279,7 +6292,7 @@
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>53</v>
       </c>
@@ -6323,7 +6336,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>54</v>
       </c>
@@ -6367,7 +6380,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>55</v>
       </c>
@@ -6411,7 +6424,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>56</v>
       </c>
@@ -6455,7 +6468,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>57</v>
       </c>
@@ -6499,7 +6512,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>58</v>
       </c>
@@ -6543,7 +6556,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>59</v>
       </c>
@@ -6587,7 +6600,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>60</v>
       </c>
@@ -6631,7 +6644,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>61</v>
       </c>
@@ -6675,7 +6688,7 @@
         <v>2248</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>62</v>
       </c>
@@ -6719,7 +6732,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>63</v>
       </c>
@@ -6763,7 +6776,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>64</v>
       </c>
@@ -6807,7 +6820,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>65</v>
       </c>
@@ -6851,7 +6864,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>66</v>
       </c>
@@ -6891,7 +6904,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>67</v>
       </c>
@@ -6929,7 +6942,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>68</v>
       </c>
@@ -6969,7 +6982,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>69</v>
       </c>
@@ -7007,7 +7020,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>70</v>
       </c>
@@ -7047,7 +7060,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>71</v>
       </c>
@@ -7091,7 +7104,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>72</v>
       </c>
@@ -7135,7 +7148,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>73</v>
       </c>
@@ -7179,7 +7192,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>74</v>
       </c>
@@ -7223,7 +7236,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>75</v>
       </c>
@@ -7267,7 +7280,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>76</v>
       </c>
@@ -7311,7 +7324,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>77</v>
       </c>
@@ -7355,7 +7368,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>78</v>
       </c>
@@ -7399,7 +7412,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>79</v>
       </c>
@@ -7443,7 +7456,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>80</v>
       </c>
@@ -7487,7 +7500,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>81</v>
       </c>
@@ -7537,7 +7550,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7547,14 +7560,14 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.77734375" customWidth="1"/>
-    <col min="2" max="13" width="13.77734375" customWidth="1"/>
-    <col min="14" max="14" width="15.77734375" customWidth="1"/>
+    <col min="1" max="1" width="42.7109375" customWidth="1"/>
+    <col min="2" max="13" width="13.7109375" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7598,7 +7611,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -7642,7 +7655,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>28</v>
       </c>
@@ -7686,7 +7699,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -7730,7 +7743,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>30</v>
       </c>
@@ -7774,7 +7787,7 @@
         <v>2446</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -7818,7 +7831,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>32</v>
       </c>
@@ -7862,7 +7875,7 @@
         <v>2055</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -7906,7 +7919,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>34</v>
       </c>
@@ -7950,7 +7963,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -7994,7 +8007,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>36</v>
       </c>
@@ -8038,7 +8051,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -8049,7 +8062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>38</v>
       </c>
@@ -8093,7 +8106,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -8137,7 +8150,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>40</v>
       </c>
@@ -8181,7 +8194,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -8225,7 +8238,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>42</v>
       </c>
@@ -8269,7 +8282,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -8313,7 +8326,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>44</v>
       </c>
@@ -8357,7 +8370,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -8401,7 +8414,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>46</v>
       </c>
@@ -8445,7 +8458,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>47</v>
       </c>
@@ -8489,7 +8502,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>48</v>
       </c>
@@ -8533,7 +8546,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>49</v>
       </c>
@@ -8577,7 +8590,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>50</v>
       </c>
@@ -8621,7 +8634,7 @@
         <v>3146</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>51</v>
       </c>
@@ -8665,7 +8678,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>52</v>
       </c>
@@ -8683,7 +8696,7 @@
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>53</v>
       </c>
@@ -8727,7 +8740,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>54</v>
       </c>
@@ -8771,7 +8784,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>55</v>
       </c>
@@ -8815,7 +8828,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>56</v>
       </c>
@@ -8859,7 +8872,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>57</v>
       </c>
@@ -8903,7 +8916,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>58</v>
       </c>
@@ -8947,7 +8960,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>59</v>
       </c>
@@ -8991,7 +9004,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>60</v>
       </c>
@@ -9035,7 +9048,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>61</v>
       </c>
@@ -9079,7 +9092,7 @@
         <v>2260</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>62</v>
       </c>
@@ -9123,7 +9136,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>63</v>
       </c>
@@ -9167,7 +9180,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>64</v>
       </c>
@@ -9211,7 +9224,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>65</v>
       </c>
@@ -9255,7 +9268,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>66</v>
       </c>
@@ -9295,7 +9308,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>67</v>
       </c>
@@ -9333,7 +9346,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>68</v>
       </c>
@@ -9373,7 +9386,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>69</v>
       </c>
@@ -9411,7 +9424,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>70</v>
       </c>
@@ -9451,7 +9464,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>71</v>
       </c>
@@ -9495,7 +9508,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>72</v>
       </c>
@@ -9539,7 +9552,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>73</v>
       </c>
@@ -9583,7 +9596,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>74</v>
       </c>
@@ -9627,7 +9640,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>75</v>
       </c>
@@ -9671,7 +9684,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>76</v>
       </c>
@@ -9715,7 +9728,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>77</v>
       </c>
@@ -9759,7 +9772,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>78</v>
       </c>
@@ -9803,7 +9816,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>79</v>
       </c>
@@ -9847,7 +9860,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>80</v>
       </c>
@@ -9891,7 +9904,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>81</v>
       </c>
@@ -9941,7 +9954,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9951,14 +9964,14 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.77734375" customWidth="1"/>
-    <col min="2" max="13" width="13.77734375" customWidth="1"/>
-    <col min="14" max="14" width="15.77734375" customWidth="1"/>
+    <col min="1" max="1" width="42.7109375" customWidth="1"/>
+    <col min="2" max="13" width="13.7109375" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10002,7 +10015,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -10020,7 +10033,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>28</v>
       </c>
@@ -10038,12 +10051,12 @@
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>30</v>
       </c>
@@ -10061,12 +10074,12 @@
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>32</v>
       </c>
@@ -10084,12 +10097,12 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>34</v>
       </c>
@@ -10107,12 +10120,12 @@
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>36</v>
       </c>
@@ -10130,12 +10143,12 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>38</v>
       </c>
@@ -10153,12 +10166,12 @@
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>40</v>
       </c>
@@ -10176,12 +10189,12 @@
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>42</v>
       </c>
@@ -10199,12 +10212,12 @@
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>44</v>
       </c>
@@ -10222,12 +10235,12 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>46</v>
       </c>
@@ -10245,12 +10258,12 @@
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>48</v>
       </c>
@@ -10268,12 +10281,12 @@
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>50</v>
       </c>
@@ -10291,12 +10304,12 @@
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>52</v>
       </c>
@@ -10314,12 +10327,12 @@
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>54</v>
       </c>
@@ -10337,12 +10350,12 @@
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>56</v>
       </c>
@@ -10360,12 +10373,12 @@
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>58</v>
       </c>
@@ -10383,12 +10396,12 @@
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>60</v>
       </c>
@@ -10406,12 +10419,12 @@
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>62</v>
       </c>
@@ -10429,12 +10442,12 @@
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>64</v>
       </c>
@@ -10452,12 +10465,12 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>66</v>
       </c>
@@ -10475,12 +10488,12 @@
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>68</v>
       </c>
@@ -10498,12 +10511,12 @@
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>70</v>
       </c>
@@ -10521,12 +10534,12 @@
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>72</v>
       </c>
@@ -10544,12 +10557,12 @@
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>74</v>
       </c>
@@ -10567,12 +10580,12 @@
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>76</v>
       </c>
@@ -10590,12 +10603,12 @@
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>78</v>
       </c>
@@ -10613,12 +10626,12 @@
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>80</v>
       </c>
@@ -10636,7 +10649,7 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>81</v>
       </c>
@@ -10647,7 +10660,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:N56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10657,14 +10670,14 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.77734375" customWidth="1"/>
-    <col min="2" max="13" width="13.77734375" customWidth="1"/>
-    <col min="14" max="14" width="15.77734375" customWidth="1"/>
+    <col min="1" max="1" width="42.7109375" customWidth="1"/>
+    <col min="2" max="13" width="13.7109375" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10708,7 +10721,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -10726,7 +10739,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>28</v>
       </c>
@@ -10744,12 +10757,12 @@
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>30</v>
       </c>
@@ -10767,12 +10780,12 @@
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>32</v>
       </c>
@@ -10790,12 +10803,12 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>34</v>
       </c>
@@ -10813,12 +10826,12 @@
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>36</v>
       </c>
@@ -10836,12 +10849,12 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>38</v>
       </c>
@@ -10859,12 +10872,12 @@
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>40</v>
       </c>
@@ -10882,12 +10895,12 @@
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>42</v>
       </c>
@@ -10905,12 +10918,12 @@
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>44</v>
       </c>
@@ -10928,12 +10941,12 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>46</v>
       </c>
@@ -10951,12 +10964,12 @@
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>48</v>
       </c>
@@ -10974,12 +10987,12 @@
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>50</v>
       </c>
@@ -10997,12 +11010,12 @@
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>52</v>
       </c>
@@ -11020,12 +11033,12 @@
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>54</v>
       </c>
@@ -11043,12 +11056,12 @@
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>56</v>
       </c>
@@ -11066,12 +11079,12 @@
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>58</v>
       </c>
@@ -11089,12 +11102,12 @@
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>60</v>
       </c>
@@ -11112,12 +11125,12 @@
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>62</v>
       </c>
@@ -11135,12 +11148,12 @@
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>64</v>
       </c>
@@ -11158,12 +11171,12 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>66</v>
       </c>
@@ -11181,12 +11194,12 @@
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>68</v>
       </c>
@@ -11204,12 +11217,12 @@
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>70</v>
       </c>
@@ -11227,12 +11240,12 @@
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>72</v>
       </c>
@@ -11250,12 +11263,12 @@
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>74</v>
       </c>
@@ -11273,12 +11286,12 @@
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>76</v>
       </c>
@@ -11296,12 +11309,12 @@
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>78</v>
       </c>
@@ -11319,12 +11332,12 @@
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>80</v>
       </c>
@@ -11342,7 +11355,7 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>81</v>
       </c>
@@ -11353,7 +11366,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:N56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11363,14 +11376,14 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.77734375" customWidth="1"/>
-    <col min="2" max="13" width="13.77734375" customWidth="1"/>
-    <col min="14" max="14" width="15.77734375" customWidth="1"/>
+    <col min="1" max="1" width="42.7109375" customWidth="1"/>
+    <col min="2" max="13" width="13.7109375" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11414,7 +11427,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -11432,7 +11445,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>28</v>
       </c>
@@ -11450,12 +11463,12 @@
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>30</v>
       </c>
@@ -11473,12 +11486,12 @@
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>32</v>
       </c>
@@ -11496,12 +11509,12 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>34</v>
       </c>
@@ -11519,12 +11532,12 @@
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>36</v>
       </c>
@@ -11542,12 +11555,12 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>38</v>
       </c>
@@ -11565,12 +11578,12 @@
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>40</v>
       </c>
@@ -11588,12 +11601,12 @@
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>42</v>
       </c>
@@ -11611,12 +11624,12 @@
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>44</v>
       </c>
@@ -11634,12 +11647,12 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>46</v>
       </c>
@@ -11657,12 +11670,12 @@
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>48</v>
       </c>
@@ -11680,12 +11693,12 @@
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>50</v>
       </c>
@@ -11703,12 +11716,12 @@
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>52</v>
       </c>
@@ -11726,12 +11739,12 @@
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>54</v>
       </c>
@@ -11749,12 +11762,12 @@
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>56</v>
       </c>
@@ -11772,12 +11785,12 @@
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>58</v>
       </c>
@@ -11795,12 +11808,12 @@
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>60</v>
       </c>
@@ -11818,12 +11831,12 @@
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>62</v>
       </c>
@@ -11841,12 +11854,12 @@
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>64</v>
       </c>
@@ -11864,12 +11877,12 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>66</v>
       </c>
@@ -11887,12 +11900,12 @@
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>68</v>
       </c>
@@ -11910,12 +11923,12 @@
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>70</v>
       </c>
@@ -11933,12 +11946,12 @@
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>72</v>
       </c>
@@ -11956,12 +11969,12 @@
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>74</v>
       </c>
@@ -11979,12 +11992,12 @@
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>76</v>
       </c>
@@ -12002,12 +12015,12 @@
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>78</v>
       </c>
@@ -12025,12 +12038,12 @@
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>80</v>
       </c>
@@ -12048,7 +12061,7 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>81</v>
       </c>
@@ -12059,7 +12072,2413 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:N56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="42.7109375" customWidth="1"/>
+    <col min="2" max="13" width="13.7109375" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="3">
+        <v>669</v>
+      </c>
+      <c r="C3" s="3">
+        <v>749</v>
+      </c>
+      <c r="D3" s="3">
+        <v>605</v>
+      </c>
+      <c r="E3" s="3">
+        <v>568</v>
+      </c>
+      <c r="F3" s="3">
+        <v>579</v>
+      </c>
+      <c r="G3" s="3">
+        <v>509</v>
+      </c>
+      <c r="H3" s="3">
+        <v>537</v>
+      </c>
+      <c r="I3" s="3">
+        <v>535</v>
+      </c>
+      <c r="J3" s="3">
+        <v>552</v>
+      </c>
+      <c r="K3" s="3">
+        <v>522</v>
+      </c>
+      <c r="L3" s="3">
+        <v>516</v>
+      </c>
+      <c r="M3" s="3">
+        <v>585</v>
+      </c>
+      <c r="N3" s="3">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4">
+        <v>372</v>
+      </c>
+      <c r="C4">
+        <v>409</v>
+      </c>
+      <c r="D4">
+        <v>327</v>
+      </c>
+      <c r="E4">
+        <v>305</v>
+      </c>
+      <c r="F4">
+        <v>313</v>
+      </c>
+      <c r="G4">
+        <v>265</v>
+      </c>
+      <c r="H4">
+        <v>258</v>
+      </c>
+      <c r="I4">
+        <v>254</v>
+      </c>
+      <c r="J4">
+        <v>276</v>
+      </c>
+      <c r="K4">
+        <v>277</v>
+      </c>
+      <c r="L4">
+        <v>261</v>
+      </c>
+      <c r="M4">
+        <v>277</v>
+      </c>
+      <c r="N4">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1072</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1119</v>
+      </c>
+      <c r="D5" s="3">
+        <v>899</v>
+      </c>
+      <c r="E5" s="3">
+        <v>831</v>
+      </c>
+      <c r="F5" s="3">
+        <v>885</v>
+      </c>
+      <c r="G5" s="3">
+        <v>806</v>
+      </c>
+      <c r="H5" s="3">
+        <v>827</v>
+      </c>
+      <c r="I5" s="3">
+        <v>750</v>
+      </c>
+      <c r="J5" s="3">
+        <v>828</v>
+      </c>
+      <c r="K5" s="3">
+        <v>857</v>
+      </c>
+      <c r="L5" s="3">
+        <v>828</v>
+      </c>
+      <c r="M5" s="3">
+        <v>889</v>
+      </c>
+      <c r="N5" s="3">
+        <v>2680</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6">
+        <v>29</v>
+      </c>
+      <c r="C6">
+        <v>32</v>
+      </c>
+      <c r="D6">
+        <v>17</v>
+      </c>
+      <c r="E6">
+        <v>22</v>
+      </c>
+      <c r="F6">
+        <v>19</v>
+      </c>
+      <c r="G6">
+        <v>12</v>
+      </c>
+      <c r="H6">
+        <v>15</v>
+      </c>
+      <c r="I6">
+        <v>21</v>
+      </c>
+      <c r="J6">
+        <v>21</v>
+      </c>
+      <c r="K6">
+        <v>24</v>
+      </c>
+      <c r="L6">
+        <v>21</v>
+      </c>
+      <c r="M6">
+        <v>22</v>
+      </c>
+      <c r="N6">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="3">
+        <v>800</v>
+      </c>
+      <c r="C7" s="3">
+        <v>806</v>
+      </c>
+      <c r="D7" s="3">
+        <v>605</v>
+      </c>
+      <c r="E7" s="3">
+        <v>561</v>
+      </c>
+      <c r="F7" s="3">
+        <v>617</v>
+      </c>
+      <c r="G7" s="3">
+        <v>561</v>
+      </c>
+      <c r="H7" s="3">
+        <v>583</v>
+      </c>
+      <c r="I7" s="3">
+        <v>564</v>
+      </c>
+      <c r="J7" s="3">
+        <v>563</v>
+      </c>
+      <c r="K7" s="3">
+        <v>603</v>
+      </c>
+      <c r="L7" s="3">
+        <v>581</v>
+      </c>
+      <c r="M7" s="3">
+        <v>665</v>
+      </c>
+      <c r="N7" s="3">
+        <v>2214</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8">
+        <v>85</v>
+      </c>
+      <c r="C8">
+        <v>79</v>
+      </c>
+      <c r="D8">
+        <v>64</v>
+      </c>
+      <c r="E8">
+        <v>69</v>
+      </c>
+      <c r="F8">
+        <v>73</v>
+      </c>
+      <c r="G8">
+        <v>66</v>
+      </c>
+      <c r="H8">
+        <v>72</v>
+      </c>
+      <c r="I8">
+        <v>78</v>
+      </c>
+      <c r="J8">
+        <v>70</v>
+      </c>
+      <c r="K8">
+        <v>64</v>
+      </c>
+      <c r="L8">
+        <v>73</v>
+      </c>
+      <c r="M8">
+        <v>72</v>
+      </c>
+      <c r="N8">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="3">
+        <v>120</v>
+      </c>
+      <c r="C9" s="3">
+        <v>126</v>
+      </c>
+      <c r="D9" s="3">
+        <v>108</v>
+      </c>
+      <c r="E9" s="3">
+        <v>103</v>
+      </c>
+      <c r="F9" s="3">
+        <v>124</v>
+      </c>
+      <c r="G9" s="3">
+        <v>93</v>
+      </c>
+      <c r="H9" s="3">
+        <v>104</v>
+      </c>
+      <c r="I9" s="3">
+        <v>99</v>
+      </c>
+      <c r="J9" s="3">
+        <v>99</v>
+      </c>
+      <c r="K9" s="3">
+        <v>105</v>
+      </c>
+      <c r="L9" s="3">
+        <v>96</v>
+      </c>
+      <c r="M9" s="3">
+        <v>42</v>
+      </c>
+      <c r="N9" s="3">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10">
+        <v>48</v>
+      </c>
+      <c r="C10">
+        <v>67</v>
+      </c>
+      <c r="D10">
+        <v>40</v>
+      </c>
+      <c r="E10">
+        <v>40</v>
+      </c>
+      <c r="F10">
+        <v>44</v>
+      </c>
+      <c r="G10">
+        <v>35</v>
+      </c>
+      <c r="H10">
+        <v>33</v>
+      </c>
+      <c r="I10">
+        <v>35</v>
+      </c>
+      <c r="J10">
+        <v>31</v>
+      </c>
+      <c r="K10">
+        <v>42</v>
+      </c>
+      <c r="L10">
+        <v>43</v>
+      </c>
+      <c r="M10">
+        <v>39</v>
+      </c>
+      <c r="N10">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="3">
+        <v>13</v>
+      </c>
+      <c r="C11" s="3">
+        <v>42</v>
+      </c>
+      <c r="D11" s="3">
+        <v>4</v>
+      </c>
+      <c r="E11" s="3">
+        <v>9</v>
+      </c>
+      <c r="F11" s="3">
+        <v>3</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
+      <c r="H11" s="3">
+        <v>6</v>
+      </c>
+      <c r="I11" s="3">
+        <v>4</v>
+      </c>
+      <c r="J11" s="3">
+        <v>6</v>
+      </c>
+      <c r="K11" s="3">
+        <v>8</v>
+      </c>
+      <c r="L11" s="3">
+        <v>3</v>
+      </c>
+      <c r="M11" s="3">
+        <v>5</v>
+      </c>
+      <c r="N11" s="3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="3">
+        <v>26</v>
+      </c>
+      <c r="C13" s="3">
+        <v>26</v>
+      </c>
+      <c r="D13" s="3">
+        <v>27</v>
+      </c>
+      <c r="E13" s="3">
+        <v>17</v>
+      </c>
+      <c r="F13" s="3">
+        <v>26</v>
+      </c>
+      <c r="G13" s="3">
+        <v>16</v>
+      </c>
+      <c r="H13" s="3">
+        <v>20</v>
+      </c>
+      <c r="I13" s="3">
+        <v>23</v>
+      </c>
+      <c r="J13" s="3">
+        <v>25</v>
+      </c>
+      <c r="K13" s="3">
+        <v>22</v>
+      </c>
+      <c r="L13" s="3">
+        <v>21</v>
+      </c>
+      <c r="M13" s="3">
+        <v>27</v>
+      </c>
+      <c r="N13" s="3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14">
+        <v>62</v>
+      </c>
+      <c r="C14">
+        <v>68</v>
+      </c>
+      <c r="D14">
+        <v>61</v>
+      </c>
+      <c r="E14">
+        <v>50</v>
+      </c>
+      <c r="F14">
+        <v>45</v>
+      </c>
+      <c r="G14">
+        <v>46</v>
+      </c>
+      <c r="H14">
+        <v>41</v>
+      </c>
+      <c r="I14">
+        <v>44</v>
+      </c>
+      <c r="J14">
+        <v>55</v>
+      </c>
+      <c r="K14">
+        <v>55</v>
+      </c>
+      <c r="L14">
+        <v>57</v>
+      </c>
+      <c r="M14">
+        <v>61</v>
+      </c>
+      <c r="N14">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="3">
+        <v>160</v>
+      </c>
+      <c r="C15" s="3">
+        <v>146</v>
+      </c>
+      <c r="D15" s="3">
+        <v>116</v>
+      </c>
+      <c r="E15" s="3">
+        <v>115</v>
+      </c>
+      <c r="F15" s="3">
+        <v>117</v>
+      </c>
+      <c r="G15" s="3">
+        <v>96</v>
+      </c>
+      <c r="H15" s="3">
+        <v>96</v>
+      </c>
+      <c r="I15" s="3">
+        <v>93</v>
+      </c>
+      <c r="J15" s="3">
+        <v>108</v>
+      </c>
+      <c r="K15" s="3">
+        <v>115</v>
+      </c>
+      <c r="L15" s="3">
+        <v>124</v>
+      </c>
+      <c r="M15" s="3">
+        <v>132</v>
+      </c>
+      <c r="N15" s="3">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16">
+        <v>66</v>
+      </c>
+      <c r="C16">
+        <v>84</v>
+      </c>
+      <c r="D16">
+        <v>65</v>
+      </c>
+      <c r="E16">
+        <v>65</v>
+      </c>
+      <c r="F16">
+        <v>64</v>
+      </c>
+      <c r="G16">
+        <v>53</v>
+      </c>
+      <c r="H16">
+        <v>63</v>
+      </c>
+      <c r="I16">
+        <v>43</v>
+      </c>
+      <c r="J16">
+        <v>62</v>
+      </c>
+      <c r="K16">
+        <v>61</v>
+      </c>
+      <c r="L16">
+        <v>60</v>
+      </c>
+      <c r="M16">
+        <v>68</v>
+      </c>
+      <c r="N16">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="3">
+        <v>46</v>
+      </c>
+      <c r="C17" s="3">
+        <v>46</v>
+      </c>
+      <c r="D17" s="3">
+        <v>28</v>
+      </c>
+      <c r="E17" s="3">
+        <v>28</v>
+      </c>
+      <c r="F17" s="3">
+        <v>27</v>
+      </c>
+      <c r="G17" s="3">
+        <v>23</v>
+      </c>
+      <c r="H17" s="3">
+        <v>29</v>
+      </c>
+      <c r="I17" s="3">
+        <v>30</v>
+      </c>
+      <c r="J17" s="3">
+        <v>27</v>
+      </c>
+      <c r="K17" s="3">
+        <v>26</v>
+      </c>
+      <c r="L17" s="3">
+        <v>27</v>
+      </c>
+      <c r="M17" s="3">
+        <v>30</v>
+      </c>
+      <c r="N17" s="3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18">
+        <v>257</v>
+      </c>
+      <c r="C18">
+        <v>247</v>
+      </c>
+      <c r="D18">
+        <v>237</v>
+      </c>
+      <c r="E18">
+        <v>183</v>
+      </c>
+      <c r="F18">
+        <v>189</v>
+      </c>
+      <c r="G18">
+        <v>177</v>
+      </c>
+      <c r="H18">
+        <v>186</v>
+      </c>
+      <c r="I18">
+        <v>180</v>
+      </c>
+      <c r="J18">
+        <v>175</v>
+      </c>
+      <c r="K18">
+        <v>203</v>
+      </c>
+      <c r="L18">
+        <v>192</v>
+      </c>
+      <c r="M18">
+        <v>204</v>
+      </c>
+      <c r="N18">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="3">
+        <v>19</v>
+      </c>
+      <c r="C19" s="3">
+        <v>22</v>
+      </c>
+      <c r="D19" s="3">
+        <v>22</v>
+      </c>
+      <c r="E19" s="3">
+        <v>22</v>
+      </c>
+      <c r="F19" s="3">
+        <v>22</v>
+      </c>
+      <c r="G19" s="3">
+        <v>23</v>
+      </c>
+      <c r="H19" s="3">
+        <v>22</v>
+      </c>
+      <c r="I19" s="3">
+        <v>22</v>
+      </c>
+      <c r="J19" s="3">
+        <v>21</v>
+      </c>
+      <c r="K19" s="3">
+        <v>25</v>
+      </c>
+      <c r="L19" s="3">
+        <v>20</v>
+      </c>
+      <c r="M19" s="3">
+        <v>20</v>
+      </c>
+      <c r="N19" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20">
+        <v>359</v>
+      </c>
+      <c r="C20">
+        <v>363</v>
+      </c>
+      <c r="D20">
+        <v>332</v>
+      </c>
+      <c r="E20">
+        <v>297</v>
+      </c>
+      <c r="F20">
+        <v>333</v>
+      </c>
+      <c r="G20">
+        <v>279</v>
+      </c>
+      <c r="H20">
+        <v>274</v>
+      </c>
+      <c r="I20">
+        <v>281</v>
+      </c>
+      <c r="J20">
+        <v>288</v>
+      </c>
+      <c r="K20">
+        <v>342</v>
+      </c>
+      <c r="L20">
+        <v>341</v>
+      </c>
+      <c r="M20">
+        <v>366</v>
+      </c>
+      <c r="N20">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="3">
+        <v>4</v>
+      </c>
+      <c r="C21" s="3">
+        <v>7</v>
+      </c>
+      <c r="D21" s="3">
+        <v>14</v>
+      </c>
+      <c r="E21" s="3">
+        <v>13</v>
+      </c>
+      <c r="F21" s="3">
+        <v>20</v>
+      </c>
+      <c r="G21" s="3">
+        <v>13</v>
+      </c>
+      <c r="H21" s="3">
+        <v>9</v>
+      </c>
+      <c r="I21" s="3">
+        <v>13</v>
+      </c>
+      <c r="J21" s="3">
+        <v>27</v>
+      </c>
+      <c r="K21" s="3">
+        <v>39</v>
+      </c>
+      <c r="L21" s="3">
+        <v>29</v>
+      </c>
+      <c r="M21" s="3">
+        <v>16</v>
+      </c>
+      <c r="N21" s="3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22">
+        <v>364</v>
+      </c>
+      <c r="C22">
+        <v>419</v>
+      </c>
+      <c r="D22">
+        <v>365</v>
+      </c>
+      <c r="E22">
+        <v>354</v>
+      </c>
+      <c r="F22">
+        <v>371</v>
+      </c>
+      <c r="G22">
+        <v>338</v>
+      </c>
+      <c r="H22">
+        <v>353</v>
+      </c>
+      <c r="I22">
+        <v>330</v>
+      </c>
+      <c r="J22">
+        <v>336</v>
+      </c>
+      <c r="K22">
+        <v>326</v>
+      </c>
+      <c r="L22">
+        <v>329</v>
+      </c>
+      <c r="M22">
+        <v>330</v>
+      </c>
+      <c r="N22">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="3">
+        <v>43</v>
+      </c>
+      <c r="C23" s="3">
+        <v>39</v>
+      </c>
+      <c r="D23" s="3">
+        <v>26</v>
+      </c>
+      <c r="E23" s="3">
+        <v>22</v>
+      </c>
+      <c r="F23" s="3">
+        <v>23</v>
+      </c>
+      <c r="G23" s="3">
+        <v>28</v>
+      </c>
+      <c r="H23" s="3">
+        <v>24</v>
+      </c>
+      <c r="I23" s="3">
+        <v>27</v>
+      </c>
+      <c r="J23" s="3">
+        <v>37</v>
+      </c>
+      <c r="K23" s="3">
+        <v>38</v>
+      </c>
+      <c r="L23" s="3">
+        <v>38</v>
+      </c>
+      <c r="M23" s="3">
+        <v>44</v>
+      </c>
+      <c r="N23" s="3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24">
+        <v>430</v>
+      </c>
+      <c r="C24">
+        <v>443</v>
+      </c>
+      <c r="D24">
+        <v>337</v>
+      </c>
+      <c r="E24">
+        <v>309</v>
+      </c>
+      <c r="F24">
+        <v>321</v>
+      </c>
+      <c r="G24">
+        <v>205</v>
+      </c>
+      <c r="H24">
+        <v>322</v>
+      </c>
+      <c r="I24">
+        <v>281</v>
+      </c>
+      <c r="J24">
+        <v>307</v>
+      </c>
+      <c r="K24">
+        <v>297</v>
+      </c>
+      <c r="L24">
+        <v>296</v>
+      </c>
+      <c r="M24">
+        <v>360</v>
+      </c>
+      <c r="N24">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1148</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1084</v>
+      </c>
+      <c r="D25" s="3">
+        <v>940</v>
+      </c>
+      <c r="E25" s="3">
+        <v>940</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1015</v>
+      </c>
+      <c r="G25" s="3">
+        <v>888</v>
+      </c>
+      <c r="H25" s="3">
+        <v>842</v>
+      </c>
+      <c r="I25" s="3">
+        <v>904</v>
+      </c>
+      <c r="J25" s="3">
+        <v>930</v>
+      </c>
+      <c r="K25" s="3">
+        <v>975</v>
+      </c>
+      <c r="L25" s="3">
+        <v>952</v>
+      </c>
+      <c r="M25" s="3">
+        <v>1009</v>
+      </c>
+      <c r="N25" s="3">
+        <v>3385</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26">
+        <v>93</v>
+      </c>
+      <c r="C26">
+        <v>103</v>
+      </c>
+      <c r="D26">
+        <v>97</v>
+      </c>
+      <c r="E26">
+        <v>84</v>
+      </c>
+      <c r="F26">
+        <v>81</v>
+      </c>
+      <c r="G26">
+        <v>66</v>
+      </c>
+      <c r="H26">
+        <v>62</v>
+      </c>
+      <c r="I26">
+        <v>85</v>
+      </c>
+      <c r="J26">
+        <v>95</v>
+      </c>
+      <c r="K26">
+        <v>92</v>
+      </c>
+      <c r="L26">
+        <v>91</v>
+      </c>
+      <c r="M26">
+        <v>96</v>
+      </c>
+      <c r="N26">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28">
+        <v>114</v>
+      </c>
+      <c r="C28">
+        <v>127</v>
+      </c>
+      <c r="D28">
+        <v>112</v>
+      </c>
+      <c r="E28">
+        <v>104</v>
+      </c>
+      <c r="F28">
+        <v>102</v>
+      </c>
+      <c r="G28">
+        <v>90</v>
+      </c>
+      <c r="H28">
+        <v>94</v>
+      </c>
+      <c r="I28">
+        <v>106</v>
+      </c>
+      <c r="J28">
+        <v>103</v>
+      </c>
+      <c r="K28">
+        <v>102</v>
+      </c>
+      <c r="L28">
+        <v>107</v>
+      </c>
+      <c r="M28">
+        <v>108</v>
+      </c>
+      <c r="N28">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="3">
+        <v>42</v>
+      </c>
+      <c r="C29" s="3">
+        <v>59</v>
+      </c>
+      <c r="D29" s="3">
+        <v>43</v>
+      </c>
+      <c r="E29" s="3">
+        <v>41</v>
+      </c>
+      <c r="F29" s="3">
+        <v>43</v>
+      </c>
+      <c r="G29" s="3">
+        <v>40</v>
+      </c>
+      <c r="H29" s="3">
+        <v>36</v>
+      </c>
+      <c r="I29" s="3">
+        <v>46</v>
+      </c>
+      <c r="J29" s="3">
+        <v>46</v>
+      </c>
+      <c r="K29" s="3">
+        <v>46</v>
+      </c>
+      <c r="L29" s="3">
+        <v>47</v>
+      </c>
+      <c r="M29" s="3">
+        <v>52</v>
+      </c>
+      <c r="N29" s="3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30">
+        <v>222</v>
+      </c>
+      <c r="C30">
+        <v>285</v>
+      </c>
+      <c r="D30">
+        <v>231</v>
+      </c>
+      <c r="E30">
+        <v>192</v>
+      </c>
+      <c r="F30">
+        <v>196</v>
+      </c>
+      <c r="G30">
+        <v>184</v>
+      </c>
+      <c r="H30">
+        <v>192</v>
+      </c>
+      <c r="I30">
+        <v>190</v>
+      </c>
+      <c r="J30">
+        <v>189</v>
+      </c>
+      <c r="K30">
+        <v>190</v>
+      </c>
+      <c r="L30">
+        <v>223</v>
+      </c>
+      <c r="M30">
+        <v>243</v>
+      </c>
+      <c r="N30">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="3">
+        <v>35</v>
+      </c>
+      <c r="C31" s="3">
+        <v>14</v>
+      </c>
+      <c r="D31" s="3">
+        <v>10</v>
+      </c>
+      <c r="E31" s="3">
+        <v>11</v>
+      </c>
+      <c r="F31" s="3">
+        <v>9</v>
+      </c>
+      <c r="G31" s="3">
+        <v>14</v>
+      </c>
+      <c r="H31" s="3">
+        <v>10</v>
+      </c>
+      <c r="I31" s="3">
+        <v>11</v>
+      </c>
+      <c r="J31" s="3">
+        <v>17</v>
+      </c>
+      <c r="K31" s="3">
+        <v>7</v>
+      </c>
+      <c r="L31" s="3">
+        <v>13</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
+      </c>
+      <c r="N31" s="3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32">
+        <v>54</v>
+      </c>
+      <c r="C32">
+        <v>69</v>
+      </c>
+      <c r="D32">
+        <v>49</v>
+      </c>
+      <c r="E32">
+        <v>34</v>
+      </c>
+      <c r="F32">
+        <v>42</v>
+      </c>
+      <c r="G32">
+        <v>38</v>
+      </c>
+      <c r="H32">
+        <v>31</v>
+      </c>
+      <c r="I32">
+        <v>38</v>
+      </c>
+      <c r="J32">
+        <v>49</v>
+      </c>
+      <c r="K32">
+        <v>43</v>
+      </c>
+      <c r="L32">
+        <v>37</v>
+      </c>
+      <c r="M32">
+        <v>51</v>
+      </c>
+      <c r="N32">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="3">
+        <v>319</v>
+      </c>
+      <c r="C33" s="3">
+        <v>344</v>
+      </c>
+      <c r="D33" s="3">
+        <v>312</v>
+      </c>
+      <c r="E33" s="3">
+        <v>287</v>
+      </c>
+      <c r="F33" s="3">
+        <v>298</v>
+      </c>
+      <c r="G33" s="3">
+        <v>272</v>
+      </c>
+      <c r="H33" s="3">
+        <v>268</v>
+      </c>
+      <c r="I33" s="3">
+        <v>272</v>
+      </c>
+      <c r="J33" s="3">
+        <v>271</v>
+      </c>
+      <c r="K33" s="3">
+        <v>298</v>
+      </c>
+      <c r="L33" s="3">
+        <v>266</v>
+      </c>
+      <c r="M33" s="3">
+        <v>321</v>
+      </c>
+      <c r="N33" s="3">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34">
+        <v>258</v>
+      </c>
+      <c r="C34">
+        <v>268</v>
+      </c>
+      <c r="D34">
+        <v>222</v>
+      </c>
+      <c r="E34">
+        <v>239</v>
+      </c>
+      <c r="F34">
+        <v>228</v>
+      </c>
+      <c r="G34">
+        <v>262</v>
+      </c>
+      <c r="H34">
+        <v>291</v>
+      </c>
+      <c r="I34">
+        <v>244</v>
+      </c>
+      <c r="J34">
+        <v>252</v>
+      </c>
+      <c r="K34">
+        <v>285</v>
+      </c>
+      <c r="L34">
+        <v>234</v>
+      </c>
+      <c r="M34">
+        <v>210</v>
+      </c>
+      <c r="N34">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" s="3">
+        <v>165</v>
+      </c>
+      <c r="C35" s="3">
+        <v>174</v>
+      </c>
+      <c r="D35" s="3">
+        <v>146</v>
+      </c>
+      <c r="E35" s="3">
+        <v>147</v>
+      </c>
+      <c r="F35" s="3">
+        <v>142</v>
+      </c>
+      <c r="G35" s="3">
+        <v>130</v>
+      </c>
+      <c r="H35" s="3">
+        <v>143</v>
+      </c>
+      <c r="I35" s="3">
+        <v>145</v>
+      </c>
+      <c r="J35" s="3">
+        <v>144</v>
+      </c>
+      <c r="K35" s="3">
+        <v>141</v>
+      </c>
+      <c r="L35" s="3">
+        <v>136</v>
+      </c>
+      <c r="M35" s="3">
+        <v>142</v>
+      </c>
+      <c r="N35" s="3">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36">
+        <v>943</v>
+      </c>
+      <c r="C36">
+        <v>984</v>
+      </c>
+      <c r="D36">
+        <v>788</v>
+      </c>
+      <c r="E36">
+        <v>665</v>
+      </c>
+      <c r="F36">
+        <v>751</v>
+      </c>
+      <c r="G36">
+        <v>647</v>
+      </c>
+      <c r="H36">
+        <v>640</v>
+      </c>
+      <c r="I36">
+        <v>615</v>
+      </c>
+      <c r="J36">
+        <v>681</v>
+      </c>
+      <c r="K36">
+        <v>690</v>
+      </c>
+      <c r="L36">
+        <v>694</v>
+      </c>
+      <c r="M36">
+        <v>749</v>
+      </c>
+      <c r="N36">
+        <v>2441</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37" s="3">
+        <v>180</v>
+      </c>
+      <c r="C37" s="3">
+        <v>181</v>
+      </c>
+      <c r="D37" s="3">
+        <v>155</v>
+      </c>
+      <c r="E37" s="3">
+        <v>136</v>
+      </c>
+      <c r="F37" s="3">
+        <v>150</v>
+      </c>
+      <c r="G37" s="3">
+        <v>144</v>
+      </c>
+      <c r="H37" s="3">
+        <v>139</v>
+      </c>
+      <c r="I37" s="3">
+        <v>139</v>
+      </c>
+      <c r="J37" s="3">
+        <v>129</v>
+      </c>
+      <c r="K37" s="3">
+        <v>141</v>
+      </c>
+      <c r="L37" s="3">
+        <v>129</v>
+      </c>
+      <c r="M37" s="3">
+        <v>136</v>
+      </c>
+      <c r="N37" s="3">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38">
+        <v>609</v>
+      </c>
+      <c r="C38">
+        <v>590</v>
+      </c>
+      <c r="D38">
+        <v>483</v>
+      </c>
+      <c r="E38">
+        <v>403</v>
+      </c>
+      <c r="F38">
+        <v>415</v>
+      </c>
+      <c r="G38">
+        <v>373</v>
+      </c>
+      <c r="H38">
+        <v>383</v>
+      </c>
+      <c r="I38">
+        <v>360</v>
+      </c>
+      <c r="J38">
+        <v>413</v>
+      </c>
+      <c r="K38">
+        <v>432</v>
+      </c>
+      <c r="L38">
+        <v>385</v>
+      </c>
+      <c r="M38">
+        <v>430</v>
+      </c>
+      <c r="N38">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39" s="3">
+        <v>48</v>
+      </c>
+      <c r="C39" s="3">
+        <v>63</v>
+      </c>
+      <c r="D39" s="3">
+        <v>28</v>
+      </c>
+      <c r="E39" s="3">
+        <v>19</v>
+      </c>
+      <c r="F39" s="3">
+        <v>18</v>
+      </c>
+      <c r="G39" s="3">
+        <v>18</v>
+      </c>
+      <c r="H39" s="3">
+        <v>19</v>
+      </c>
+      <c r="I39" s="3">
+        <v>13</v>
+      </c>
+      <c r="J39" s="3">
+        <v>18</v>
+      </c>
+      <c r="K39" s="3">
+        <v>18</v>
+      </c>
+      <c r="L39" s="3">
+        <v>18</v>
+      </c>
+      <c r="M39" s="3">
+        <v>17</v>
+      </c>
+      <c r="N39" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40">
+        <v>30</v>
+      </c>
+      <c r="C40">
+        <v>32</v>
+      </c>
+      <c r="D40">
+        <v>22</v>
+      </c>
+      <c r="E40">
+        <v>26</v>
+      </c>
+      <c r="F40">
+        <v>37</v>
+      </c>
+      <c r="G40">
+        <v>27</v>
+      </c>
+      <c r="H40">
+        <v>28</v>
+      </c>
+      <c r="I40">
+        <v>24</v>
+      </c>
+      <c r="J40">
+        <v>25</v>
+      </c>
+      <c r="K40">
+        <v>46</v>
+      </c>
+      <c r="L40">
+        <v>35</v>
+      </c>
+      <c r="M40">
+        <v>23</v>
+      </c>
+      <c r="N40">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3">
+        <v>1</v>
+      </c>
+      <c r="D41" s="3">
+        <v>51</v>
+      </c>
+      <c r="E41" s="3">
+        <v>99</v>
+      </c>
+      <c r="F41" s="3">
+        <v>96</v>
+      </c>
+      <c r="G41" s="3">
+        <v>88</v>
+      </c>
+      <c r="H41" s="3">
+        <v>132</v>
+      </c>
+      <c r="I41" s="3">
+        <v>87</v>
+      </c>
+      <c r="J41" s="3">
+        <v>104</v>
+      </c>
+      <c r="K41" s="3">
+        <v>122</v>
+      </c>
+      <c r="L41" s="3">
+        <v>128</v>
+      </c>
+      <c r="M41" s="3">
+        <v>143</v>
+      </c>
+      <c r="N41" s="3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>67</v>
+      </c>
+      <c r="D42">
+        <v>6</v>
+      </c>
+      <c r="E42">
+        <v>328</v>
+      </c>
+      <c r="F42">
+        <v>333</v>
+      </c>
+      <c r="G42">
+        <v>356</v>
+      </c>
+      <c r="H42">
+        <v>362</v>
+      </c>
+      <c r="I42">
+        <v>342</v>
+      </c>
+      <c r="J42">
+        <v>366</v>
+      </c>
+      <c r="K42">
+        <v>373</v>
+      </c>
+      <c r="L42">
+        <v>373</v>
+      </c>
+      <c r="M42">
+        <v>359</v>
+      </c>
+      <c r="N42">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3">
+        <v>4</v>
+      </c>
+      <c r="E43" s="3">
+        <v>14</v>
+      </c>
+      <c r="F43" s="3">
+        <v>25</v>
+      </c>
+      <c r="G43" s="3">
+        <v>71</v>
+      </c>
+      <c r="H43" s="3">
+        <v>48</v>
+      </c>
+      <c r="I43" s="3">
+        <v>10</v>
+      </c>
+      <c r="J43" s="3">
+        <v>14</v>
+      </c>
+      <c r="K43" s="3">
+        <v>40</v>
+      </c>
+      <c r="L43" s="3">
+        <v>75</v>
+      </c>
+      <c r="M43" s="3">
+        <v>11</v>
+      </c>
+      <c r="N43" s="3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>69</v>
+      </c>
+      <c r="D44">
+        <v>19</v>
+      </c>
+      <c r="E44">
+        <v>84</v>
+      </c>
+      <c r="F44">
+        <v>68</v>
+      </c>
+      <c r="G44">
+        <v>59</v>
+      </c>
+      <c r="H44">
+        <v>98</v>
+      </c>
+      <c r="I44">
+        <v>53</v>
+      </c>
+      <c r="J44">
+        <v>117</v>
+      </c>
+      <c r="K44">
+        <v>111</v>
+      </c>
+      <c r="L44">
+        <v>101</v>
+      </c>
+      <c r="M44">
+        <v>136</v>
+      </c>
+      <c r="N44">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3">
+        <v>8</v>
+      </c>
+      <c r="E45" s="3">
+        <v>86</v>
+      </c>
+      <c r="F45" s="3">
+        <v>86</v>
+      </c>
+      <c r="G45" s="3">
+        <v>93</v>
+      </c>
+      <c r="H45" s="3">
+        <v>89</v>
+      </c>
+      <c r="I45" s="3">
+        <v>70</v>
+      </c>
+      <c r="J45" s="3">
+        <v>73</v>
+      </c>
+      <c r="K45" s="3">
+        <v>68</v>
+      </c>
+      <c r="L45" s="3">
+        <v>69</v>
+      </c>
+      <c r="M45" s="3">
+        <v>73</v>
+      </c>
+      <c r="N45" s="3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>71</v>
+      </c>
+      <c r="B46">
+        <v>41</v>
+      </c>
+      <c r="C46">
+        <v>51</v>
+      </c>
+      <c r="D46">
+        <v>40</v>
+      </c>
+      <c r="E46">
+        <v>48</v>
+      </c>
+      <c r="F46">
+        <v>43</v>
+      </c>
+      <c r="G46">
+        <v>40</v>
+      </c>
+      <c r="H46">
+        <v>37</v>
+      </c>
+      <c r="I46">
+        <v>39</v>
+      </c>
+      <c r="J46">
+        <v>33</v>
+      </c>
+      <c r="K46">
+        <v>24</v>
+      </c>
+      <c r="L46">
+        <v>36</v>
+      </c>
+      <c r="M46">
+        <v>31</v>
+      </c>
+      <c r="N46">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B47" s="3">
+        <v>229</v>
+      </c>
+      <c r="C47" s="3">
+        <v>238</v>
+      </c>
+      <c r="D47" s="3">
+        <v>234</v>
+      </c>
+      <c r="E47" s="3">
+        <v>212</v>
+      </c>
+      <c r="F47" s="3">
+        <v>207</v>
+      </c>
+      <c r="G47" s="3">
+        <v>187</v>
+      </c>
+      <c r="H47" s="3">
+        <v>193</v>
+      </c>
+      <c r="I47" s="3">
+        <v>184</v>
+      </c>
+      <c r="J47" s="3">
+        <v>196</v>
+      </c>
+      <c r="K47" s="3">
+        <v>203</v>
+      </c>
+      <c r="L47" s="3">
+        <v>201</v>
+      </c>
+      <c r="M47" s="3">
+        <v>227</v>
+      </c>
+      <c r="N47" s="3">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>73</v>
+      </c>
+      <c r="B48">
+        <v>309</v>
+      </c>
+      <c r="C48">
+        <v>340</v>
+      </c>
+      <c r="D48">
+        <v>309</v>
+      </c>
+      <c r="E48">
+        <v>274</v>
+      </c>
+      <c r="F48">
+        <v>295</v>
+      </c>
+      <c r="G48">
+        <v>279</v>
+      </c>
+      <c r="H48">
+        <v>271</v>
+      </c>
+      <c r="I48">
+        <v>255</v>
+      </c>
+      <c r="J48">
+        <v>270</v>
+      </c>
+      <c r="K48">
+        <v>284</v>
+      </c>
+      <c r="L48">
+        <v>286</v>
+      </c>
+      <c r="M48">
+        <v>300</v>
+      </c>
+      <c r="N48">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B49" s="3">
+        <v>343</v>
+      </c>
+      <c r="C49" s="3">
+        <v>368</v>
+      </c>
+      <c r="D49" s="3">
+        <v>331</v>
+      </c>
+      <c r="E49" s="3">
+        <v>253</v>
+      </c>
+      <c r="F49" s="3">
+        <v>274</v>
+      </c>
+      <c r="G49" s="3">
+        <v>250</v>
+      </c>
+      <c r="H49" s="3">
+        <v>234</v>
+      </c>
+      <c r="I49" s="3">
+        <v>216</v>
+      </c>
+      <c r="J49" s="3">
+        <v>226</v>
+      </c>
+      <c r="K49" s="3">
+        <v>239</v>
+      </c>
+      <c r="L49" s="3">
+        <v>232</v>
+      </c>
+      <c r="M49" s="3">
+        <v>285</v>
+      </c>
+      <c r="N49" s="3">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>75</v>
+      </c>
+      <c r="B50">
+        <v>209</v>
+      </c>
+      <c r="C50">
+        <v>212</v>
+      </c>
+      <c r="D50">
+        <v>201</v>
+      </c>
+      <c r="E50">
+        <v>180</v>
+      </c>
+      <c r="F50">
+        <v>181</v>
+      </c>
+      <c r="G50">
+        <v>167</v>
+      </c>
+      <c r="H50">
+        <v>174</v>
+      </c>
+      <c r="I50">
+        <v>171</v>
+      </c>
+      <c r="J50">
+        <v>171</v>
+      </c>
+      <c r="K50">
+        <v>184</v>
+      </c>
+      <c r="L50">
+        <v>174</v>
+      </c>
+      <c r="M50">
+        <v>175</v>
+      </c>
+      <c r="N50">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B51" s="3">
+        <v>628</v>
+      </c>
+      <c r="C51" s="3">
+        <v>645</v>
+      </c>
+      <c r="D51" s="3">
+        <v>556</v>
+      </c>
+      <c r="E51" s="3">
+        <v>472</v>
+      </c>
+      <c r="F51" s="3">
+        <v>486</v>
+      </c>
+      <c r="G51" s="3">
+        <v>406</v>
+      </c>
+      <c r="H51" s="3">
+        <v>409</v>
+      </c>
+      <c r="I51" s="3">
+        <v>407</v>
+      </c>
+      <c r="J51" s="3">
+        <v>419</v>
+      </c>
+      <c r="K51" s="3">
+        <v>413</v>
+      </c>
+      <c r="L51" s="3">
+        <v>380</v>
+      </c>
+      <c r="M51" s="3">
+        <v>395</v>
+      </c>
+      <c r="N51" s="3">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>77</v>
+      </c>
+      <c r="B52">
+        <v>74</v>
+      </c>
+      <c r="C52">
+        <v>79</v>
+      </c>
+      <c r="D52">
+        <v>72</v>
+      </c>
+      <c r="E52">
+        <v>70</v>
+      </c>
+      <c r="F52">
+        <v>69</v>
+      </c>
+      <c r="G52">
+        <v>56</v>
+      </c>
+      <c r="H52">
+        <v>63</v>
+      </c>
+      <c r="I52">
+        <v>67</v>
+      </c>
+      <c r="J52">
+        <v>56</v>
+      </c>
+      <c r="K52">
+        <v>64</v>
+      </c>
+      <c r="L52">
+        <v>70</v>
+      </c>
+      <c r="M52">
+        <v>65</v>
+      </c>
+      <c r="N52">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B53" s="3">
+        <v>198</v>
+      </c>
+      <c r="C53" s="3">
+        <v>217</v>
+      </c>
+      <c r="D53" s="3">
+        <v>224</v>
+      </c>
+      <c r="E53" s="3">
+        <v>150</v>
+      </c>
+      <c r="F53" s="3">
+        <v>168</v>
+      </c>
+      <c r="G53" s="3">
+        <v>150</v>
+      </c>
+      <c r="H53" s="3">
+        <v>137</v>
+      </c>
+      <c r="I53" s="3">
+        <v>143</v>
+      </c>
+      <c r="J53" s="3">
+        <v>166</v>
+      </c>
+      <c r="K53" s="3">
+        <v>145</v>
+      </c>
+      <c r="L53" s="3">
+        <v>144</v>
+      </c>
+      <c r="M53" s="3">
+        <v>162</v>
+      </c>
+      <c r="N53" s="3">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>79</v>
+      </c>
+      <c r="B54">
+        <v>30</v>
+      </c>
+      <c r="C54">
+        <v>42</v>
+      </c>
+      <c r="D54">
+        <v>50</v>
+      </c>
+      <c r="E54">
+        <v>25</v>
+      </c>
+      <c r="F54">
+        <v>31</v>
+      </c>
+      <c r="G54">
+        <v>23</v>
+      </c>
+      <c r="H54">
+        <v>22</v>
+      </c>
+      <c r="I54">
+        <v>28</v>
+      </c>
+      <c r="J54">
+        <v>25</v>
+      </c>
+      <c r="K54">
+        <v>22</v>
+      </c>
+      <c r="L54">
+        <v>32</v>
+      </c>
+      <c r="M54">
+        <v>20</v>
+      </c>
+      <c r="N54">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B55" s="3">
+        <v>43</v>
+      </c>
+      <c r="C55" s="3">
+        <v>49</v>
+      </c>
+      <c r="D55" s="3">
+        <v>33</v>
+      </c>
+      <c r="E55" s="3">
+        <v>38</v>
+      </c>
+      <c r="F55" s="3">
+        <v>38</v>
+      </c>
+      <c r="G55" s="3">
+        <v>26</v>
+      </c>
+      <c r="H55" s="3">
+        <v>30</v>
+      </c>
+      <c r="I55" s="3">
+        <v>29</v>
+      </c>
+      <c r="J55" s="3">
+        <v>31</v>
+      </c>
+      <c r="K55" s="3">
+        <v>36</v>
+      </c>
+      <c r="L55" s="3">
+        <v>40</v>
+      </c>
+      <c r="M55" s="3">
+        <v>36</v>
+      </c>
+      <c r="N55" s="3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>81</v>
+      </c>
+      <c r="B56">
+        <v>62</v>
+      </c>
+      <c r="C56">
+        <v>73</v>
+      </c>
+      <c r="D56">
+        <v>71</v>
+      </c>
+      <c r="E56">
+        <v>63</v>
+      </c>
+      <c r="F56">
+        <v>67</v>
+      </c>
+      <c r="G56">
+        <v>63</v>
+      </c>
+      <c r="H56">
+        <v>65</v>
+      </c>
+      <c r="I56">
+        <v>56</v>
+      </c>
+      <c r="J56">
+        <v>46</v>
+      </c>
+      <c r="K56">
+        <v>48</v>
+      </c>
+      <c r="L56">
+        <v>50</v>
+      </c>
+      <c r="M56">
+        <v>58</v>
+      </c>
+      <c r="N56">
+        <v>223</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:N56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12069,14 +14488,14 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.77734375" customWidth="1"/>
-    <col min="2" max="13" width="13.77734375" customWidth="1"/>
-    <col min="14" max="14" width="15.77734375" customWidth="1"/>
+    <col min="1" max="1" width="42.7109375" customWidth="1"/>
+    <col min="2" max="13" width="13.7109375" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12120,7 +14539,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -12138,7 +14557,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>28</v>
       </c>
@@ -12156,12 +14575,12 @@
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>30</v>
       </c>
@@ -12179,12 +14598,12 @@
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>32</v>
       </c>
@@ -12202,12 +14621,12 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>34</v>
       </c>
@@ -12225,12 +14644,12 @@
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>36</v>
       </c>
@@ -12248,12 +14667,12 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>38</v>
       </c>
@@ -12271,12 +14690,12 @@
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>40</v>
       </c>
@@ -12294,12 +14713,12 @@
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>42</v>
       </c>
@@ -12317,12 +14736,12 @@
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>44</v>
       </c>
@@ -12340,12 +14759,12 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>46</v>
       </c>
@@ -12363,12 +14782,12 @@
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>48</v>
       </c>
@@ -12386,12 +14805,12 @@
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>50</v>
       </c>
@@ -12409,12 +14828,12 @@
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>52</v>
       </c>
@@ -12432,12 +14851,12 @@
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>54</v>
       </c>
@@ -12455,12 +14874,12 @@
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>56</v>
       </c>
@@ -12478,12 +14897,12 @@
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>58</v>
       </c>
@@ -12501,12 +14920,12 @@
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>60</v>
       </c>
@@ -12524,12 +14943,12 @@
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>62</v>
       </c>
@@ -12547,12 +14966,12 @@
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>64</v>
       </c>
@@ -12570,12 +14989,12 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>66</v>
       </c>
@@ -12593,12 +15012,12 @@
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>68</v>
       </c>
@@ -12616,12 +15035,12 @@
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>70</v>
       </c>
@@ -12639,12 +15058,12 @@
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>72</v>
       </c>
@@ -12662,12 +15081,12 @@
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>74</v>
       </c>
@@ -12685,12 +15104,12 @@
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>76</v>
       </c>
@@ -12708,12 +15127,12 @@
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>78</v>
       </c>
@@ -12731,12 +15150,12 @@
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>80</v>
       </c>
@@ -12754,7 +15173,7 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>81</v>
       </c>
@@ -12764,8 +15183,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:N56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12775,14 +15194,14 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.77734375" customWidth="1"/>
-    <col min="2" max="13" width="13.77734375" customWidth="1"/>
-    <col min="14" max="14" width="15.77734375" customWidth="1"/>
+    <col min="1" max="1" width="42.7109375" customWidth="1"/>
+    <col min="2" max="13" width="13.7109375" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12826,7 +15245,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -12844,7 +15263,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>28</v>
       </c>
@@ -12862,12 +15281,12 @@
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>30</v>
       </c>
@@ -12885,12 +15304,12 @@
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>32</v>
       </c>
@@ -12908,12 +15327,12 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>34</v>
       </c>
@@ -12931,12 +15350,12 @@
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>36</v>
       </c>
@@ -12954,12 +15373,12 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>38</v>
       </c>
@@ -12977,12 +15396,12 @@
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>40</v>
       </c>
@@ -13000,12 +15419,12 @@
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>42</v>
       </c>
@@ -13023,12 +15442,12 @@
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>44</v>
       </c>
@@ -13046,12 +15465,12 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>46</v>
       </c>
@@ -13069,12 +15488,12 @@
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>48</v>
       </c>
@@ -13092,12 +15511,12 @@
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>50</v>
       </c>
@@ -13115,12 +15534,12 @@
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>52</v>
       </c>
@@ -13138,12 +15557,12 @@
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>54</v>
       </c>
@@ -13161,12 +15580,12 @@
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>56</v>
       </c>
@@ -13184,12 +15603,12 @@
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>58</v>
       </c>
@@ -13207,12 +15626,12 @@
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>60</v>
       </c>
@@ -13230,12 +15649,12 @@
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>62</v>
       </c>
@@ -13253,12 +15672,12 @@
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>64</v>
       </c>
@@ -13276,12 +15695,12 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>66</v>
       </c>
@@ -13299,12 +15718,12 @@
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>68</v>
       </c>
@@ -13322,12 +15741,12 @@
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>70</v>
       </c>
@@ -13345,12 +15764,12 @@
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>72</v>
       </c>
@@ -13368,12 +15787,12 @@
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>74</v>
       </c>
@@ -13391,12 +15810,12 @@
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>76</v>
       </c>
@@ -13414,12 +15833,12 @@
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>78</v>
       </c>
@@ -13437,12 +15856,12 @@
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>80</v>
       </c>
@@ -13460,713 +15879,7 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>81</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N56"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="42.77734375" customWidth="1"/>
-    <col min="2" max="13" width="13.77734375" customWidth="1"/>
-    <col min="14" max="14" width="15.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="3"/>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A47" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3"/>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A51" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="3"/>
-      <c r="M51" s="3"/>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A53" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
-      <c r="M53" s="3"/>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
-      <c r="M55" s="3"/>
-      <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>81</v>
       </c>

--- a/statistics_files/2022/2022.yy.unique borrowers thing.xlsx
+++ b/statistics_files/2022/2022.yy.unique borrowers thing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20387"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20390"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\GitHub\next_statistics\statistics_files\2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A40F3A-8F5E-44DE-BB99-8516BEF952AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1704C2AD-621F-49E4-ACE9-E15419DECC40}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8670" tabRatio="668" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8670" tabRatio="668" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="January" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="90">
   <si>
     <t>branchname</t>
   </si>
@@ -300,6 +300,12 @@
   </si>
   <si>
     <t>2022-04 (April)</t>
+  </si>
+  <si>
+    <t>2022-08 (August)</t>
+  </si>
+  <si>
+    <t>2022-09 (September)</t>
   </si>
 </sst>
 </file>
@@ -12075,6 +12081,4818 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:N56"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="42.7109375" customWidth="1"/>
+    <col min="2" max="13" width="13.7109375" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="3">
+        <v>669</v>
+      </c>
+      <c r="C3" s="3">
+        <v>749</v>
+      </c>
+      <c r="D3" s="3">
+        <v>605</v>
+      </c>
+      <c r="E3" s="3">
+        <v>568</v>
+      </c>
+      <c r="F3" s="3">
+        <v>579</v>
+      </c>
+      <c r="G3" s="3">
+        <v>509</v>
+      </c>
+      <c r="H3" s="3">
+        <v>537</v>
+      </c>
+      <c r="I3" s="3">
+        <v>535</v>
+      </c>
+      <c r="J3" s="3">
+        <v>552</v>
+      </c>
+      <c r="K3" s="3">
+        <v>522</v>
+      </c>
+      <c r="L3" s="3">
+        <v>516</v>
+      </c>
+      <c r="M3" s="3">
+        <v>585</v>
+      </c>
+      <c r="N3" s="3">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4">
+        <v>372</v>
+      </c>
+      <c r="C4">
+        <v>409</v>
+      </c>
+      <c r="D4">
+        <v>327</v>
+      </c>
+      <c r="E4">
+        <v>305</v>
+      </c>
+      <c r="F4">
+        <v>313</v>
+      </c>
+      <c r="G4">
+        <v>265</v>
+      </c>
+      <c r="H4">
+        <v>258</v>
+      </c>
+      <c r="I4">
+        <v>254</v>
+      </c>
+      <c r="J4">
+        <v>276</v>
+      </c>
+      <c r="K4">
+        <v>277</v>
+      </c>
+      <c r="L4">
+        <v>261</v>
+      </c>
+      <c r="M4">
+        <v>277</v>
+      </c>
+      <c r="N4">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1072</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1119</v>
+      </c>
+      <c r="D5" s="3">
+        <v>899</v>
+      </c>
+      <c r="E5" s="3">
+        <v>831</v>
+      </c>
+      <c r="F5" s="3">
+        <v>885</v>
+      </c>
+      <c r="G5" s="3">
+        <v>806</v>
+      </c>
+      <c r="H5" s="3">
+        <v>827</v>
+      </c>
+      <c r="I5" s="3">
+        <v>750</v>
+      </c>
+      <c r="J5" s="3">
+        <v>828</v>
+      </c>
+      <c r="K5" s="3">
+        <v>857</v>
+      </c>
+      <c r="L5" s="3">
+        <v>828</v>
+      </c>
+      <c r="M5" s="3">
+        <v>889</v>
+      </c>
+      <c r="N5" s="3">
+        <v>2680</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6">
+        <v>29</v>
+      </c>
+      <c r="C6">
+        <v>32</v>
+      </c>
+      <c r="D6">
+        <v>17</v>
+      </c>
+      <c r="E6">
+        <v>22</v>
+      </c>
+      <c r="F6">
+        <v>19</v>
+      </c>
+      <c r="G6">
+        <v>12</v>
+      </c>
+      <c r="H6">
+        <v>15</v>
+      </c>
+      <c r="I6">
+        <v>21</v>
+      </c>
+      <c r="J6">
+        <v>21</v>
+      </c>
+      <c r="K6">
+        <v>24</v>
+      </c>
+      <c r="L6">
+        <v>21</v>
+      </c>
+      <c r="M6">
+        <v>22</v>
+      </c>
+      <c r="N6">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="3">
+        <v>800</v>
+      </c>
+      <c r="C7" s="3">
+        <v>806</v>
+      </c>
+      <c r="D7" s="3">
+        <v>605</v>
+      </c>
+      <c r="E7" s="3">
+        <v>561</v>
+      </c>
+      <c r="F7" s="3">
+        <v>617</v>
+      </c>
+      <c r="G7" s="3">
+        <v>561</v>
+      </c>
+      <c r="H7" s="3">
+        <v>583</v>
+      </c>
+      <c r="I7" s="3">
+        <v>564</v>
+      </c>
+      <c r="J7" s="3">
+        <v>563</v>
+      </c>
+      <c r="K7" s="3">
+        <v>603</v>
+      </c>
+      <c r="L7" s="3">
+        <v>581</v>
+      </c>
+      <c r="M7" s="3">
+        <v>665</v>
+      </c>
+      <c r="N7" s="3">
+        <v>2214</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8">
+        <v>85</v>
+      </c>
+      <c r="C8">
+        <v>79</v>
+      </c>
+      <c r="D8">
+        <v>64</v>
+      </c>
+      <c r="E8">
+        <v>69</v>
+      </c>
+      <c r="F8">
+        <v>73</v>
+      </c>
+      <c r="G8">
+        <v>66</v>
+      </c>
+      <c r="H8">
+        <v>72</v>
+      </c>
+      <c r="I8">
+        <v>78</v>
+      </c>
+      <c r="J8">
+        <v>70</v>
+      </c>
+      <c r="K8">
+        <v>64</v>
+      </c>
+      <c r="L8">
+        <v>73</v>
+      </c>
+      <c r="M8">
+        <v>72</v>
+      </c>
+      <c r="N8">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="3">
+        <v>120</v>
+      </c>
+      <c r="C9" s="3">
+        <v>126</v>
+      </c>
+      <c r="D9" s="3">
+        <v>108</v>
+      </c>
+      <c r="E9" s="3">
+        <v>103</v>
+      </c>
+      <c r="F9" s="3">
+        <v>124</v>
+      </c>
+      <c r="G9" s="3">
+        <v>93</v>
+      </c>
+      <c r="H9" s="3">
+        <v>104</v>
+      </c>
+      <c r="I9" s="3">
+        <v>99</v>
+      </c>
+      <c r="J9" s="3">
+        <v>99</v>
+      </c>
+      <c r="K9" s="3">
+        <v>105</v>
+      </c>
+      <c r="L9" s="3">
+        <v>96</v>
+      </c>
+      <c r="M9" s="3">
+        <v>42</v>
+      </c>
+      <c r="N9" s="3">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10">
+        <v>48</v>
+      </c>
+      <c r="C10">
+        <v>67</v>
+      </c>
+      <c r="D10">
+        <v>40</v>
+      </c>
+      <c r="E10">
+        <v>40</v>
+      </c>
+      <c r="F10">
+        <v>44</v>
+      </c>
+      <c r="G10">
+        <v>35</v>
+      </c>
+      <c r="H10">
+        <v>33</v>
+      </c>
+      <c r="I10">
+        <v>35</v>
+      </c>
+      <c r="J10">
+        <v>31</v>
+      </c>
+      <c r="K10">
+        <v>42</v>
+      </c>
+      <c r="L10">
+        <v>43</v>
+      </c>
+      <c r="M10">
+        <v>39</v>
+      </c>
+      <c r="N10">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="3">
+        <v>13</v>
+      </c>
+      <c r="C11" s="3">
+        <v>42</v>
+      </c>
+      <c r="D11" s="3">
+        <v>4</v>
+      </c>
+      <c r="E11" s="3">
+        <v>9</v>
+      </c>
+      <c r="F11" s="3">
+        <v>3</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
+      <c r="H11" s="3">
+        <v>6</v>
+      </c>
+      <c r="I11" s="3">
+        <v>4</v>
+      </c>
+      <c r="J11" s="3">
+        <v>6</v>
+      </c>
+      <c r="K11" s="3">
+        <v>8</v>
+      </c>
+      <c r="L11" s="3">
+        <v>3</v>
+      </c>
+      <c r="M11" s="3">
+        <v>5</v>
+      </c>
+      <c r="N11" s="3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="3">
+        <v>26</v>
+      </c>
+      <c r="C13" s="3">
+        <v>26</v>
+      </c>
+      <c r="D13" s="3">
+        <v>27</v>
+      </c>
+      <c r="E13" s="3">
+        <v>17</v>
+      </c>
+      <c r="F13" s="3">
+        <v>26</v>
+      </c>
+      <c r="G13" s="3">
+        <v>16</v>
+      </c>
+      <c r="H13" s="3">
+        <v>20</v>
+      </c>
+      <c r="I13" s="3">
+        <v>23</v>
+      </c>
+      <c r="J13" s="3">
+        <v>25</v>
+      </c>
+      <c r="K13" s="3">
+        <v>22</v>
+      </c>
+      <c r="L13" s="3">
+        <v>21</v>
+      </c>
+      <c r="M13" s="3">
+        <v>27</v>
+      </c>
+      <c r="N13" s="3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14">
+        <v>62</v>
+      </c>
+      <c r="C14">
+        <v>68</v>
+      </c>
+      <c r="D14">
+        <v>61</v>
+      </c>
+      <c r="E14">
+        <v>50</v>
+      </c>
+      <c r="F14">
+        <v>45</v>
+      </c>
+      <c r="G14">
+        <v>46</v>
+      </c>
+      <c r="H14">
+        <v>41</v>
+      </c>
+      <c r="I14">
+        <v>44</v>
+      </c>
+      <c r="J14">
+        <v>55</v>
+      </c>
+      <c r="K14">
+        <v>55</v>
+      </c>
+      <c r="L14">
+        <v>57</v>
+      </c>
+      <c r="M14">
+        <v>61</v>
+      </c>
+      <c r="N14">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="3">
+        <v>160</v>
+      </c>
+      <c r="C15" s="3">
+        <v>146</v>
+      </c>
+      <c r="D15" s="3">
+        <v>116</v>
+      </c>
+      <c r="E15" s="3">
+        <v>115</v>
+      </c>
+      <c r="F15" s="3">
+        <v>117</v>
+      </c>
+      <c r="G15" s="3">
+        <v>96</v>
+      </c>
+      <c r="H15" s="3">
+        <v>96</v>
+      </c>
+      <c r="I15" s="3">
+        <v>93</v>
+      </c>
+      <c r="J15" s="3">
+        <v>108</v>
+      </c>
+      <c r="K15" s="3">
+        <v>115</v>
+      </c>
+      <c r="L15" s="3">
+        <v>124</v>
+      </c>
+      <c r="M15" s="3">
+        <v>132</v>
+      </c>
+      <c r="N15" s="3">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16">
+        <v>66</v>
+      </c>
+      <c r="C16">
+        <v>84</v>
+      </c>
+      <c r="D16">
+        <v>65</v>
+      </c>
+      <c r="E16">
+        <v>65</v>
+      </c>
+      <c r="F16">
+        <v>64</v>
+      </c>
+      <c r="G16">
+        <v>53</v>
+      </c>
+      <c r="H16">
+        <v>63</v>
+      </c>
+      <c r="I16">
+        <v>43</v>
+      </c>
+      <c r="J16">
+        <v>62</v>
+      </c>
+      <c r="K16">
+        <v>61</v>
+      </c>
+      <c r="L16">
+        <v>60</v>
+      </c>
+      <c r="M16">
+        <v>68</v>
+      </c>
+      <c r="N16">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="3">
+        <v>46</v>
+      </c>
+      <c r="C17" s="3">
+        <v>46</v>
+      </c>
+      <c r="D17" s="3">
+        <v>28</v>
+      </c>
+      <c r="E17" s="3">
+        <v>28</v>
+      </c>
+      <c r="F17" s="3">
+        <v>27</v>
+      </c>
+      <c r="G17" s="3">
+        <v>23</v>
+      </c>
+      <c r="H17" s="3">
+        <v>29</v>
+      </c>
+      <c r="I17" s="3">
+        <v>30</v>
+      </c>
+      <c r="J17" s="3">
+        <v>27</v>
+      </c>
+      <c r="K17" s="3">
+        <v>26</v>
+      </c>
+      <c r="L17" s="3">
+        <v>27</v>
+      </c>
+      <c r="M17" s="3">
+        <v>30</v>
+      </c>
+      <c r="N17" s="3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18">
+        <v>257</v>
+      </c>
+      <c r="C18">
+        <v>247</v>
+      </c>
+      <c r="D18">
+        <v>237</v>
+      </c>
+      <c r="E18">
+        <v>183</v>
+      </c>
+      <c r="F18">
+        <v>189</v>
+      </c>
+      <c r="G18">
+        <v>177</v>
+      </c>
+      <c r="H18">
+        <v>186</v>
+      </c>
+      <c r="I18">
+        <v>180</v>
+      </c>
+      <c r="J18">
+        <v>175</v>
+      </c>
+      <c r="K18">
+        <v>203</v>
+      </c>
+      <c r="L18">
+        <v>192</v>
+      </c>
+      <c r="M18">
+        <v>204</v>
+      </c>
+      <c r="N18">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="3">
+        <v>19</v>
+      </c>
+      <c r="C19" s="3">
+        <v>22</v>
+      </c>
+      <c r="D19" s="3">
+        <v>22</v>
+      </c>
+      <c r="E19" s="3">
+        <v>22</v>
+      </c>
+      <c r="F19" s="3">
+        <v>22</v>
+      </c>
+      <c r="G19" s="3">
+        <v>23</v>
+      </c>
+      <c r="H19" s="3">
+        <v>22</v>
+      </c>
+      <c r="I19" s="3">
+        <v>22</v>
+      </c>
+      <c r="J19" s="3">
+        <v>21</v>
+      </c>
+      <c r="K19" s="3">
+        <v>25</v>
+      </c>
+      <c r="L19" s="3">
+        <v>20</v>
+      </c>
+      <c r="M19" s="3">
+        <v>20</v>
+      </c>
+      <c r="N19" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20">
+        <v>359</v>
+      </c>
+      <c r="C20">
+        <v>363</v>
+      </c>
+      <c r="D20">
+        <v>332</v>
+      </c>
+      <c r="E20">
+        <v>297</v>
+      </c>
+      <c r="F20">
+        <v>333</v>
+      </c>
+      <c r="G20">
+        <v>279</v>
+      </c>
+      <c r="H20">
+        <v>274</v>
+      </c>
+      <c r="I20">
+        <v>281</v>
+      </c>
+      <c r="J20">
+        <v>288</v>
+      </c>
+      <c r="K20">
+        <v>342</v>
+      </c>
+      <c r="L20">
+        <v>341</v>
+      </c>
+      <c r="M20">
+        <v>366</v>
+      </c>
+      <c r="N20">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="3">
+        <v>4</v>
+      </c>
+      <c r="C21" s="3">
+        <v>7</v>
+      </c>
+      <c r="D21" s="3">
+        <v>14</v>
+      </c>
+      <c r="E21" s="3">
+        <v>13</v>
+      </c>
+      <c r="F21" s="3">
+        <v>20</v>
+      </c>
+      <c r="G21" s="3">
+        <v>13</v>
+      </c>
+      <c r="H21" s="3">
+        <v>9</v>
+      </c>
+      <c r="I21" s="3">
+        <v>13</v>
+      </c>
+      <c r="J21" s="3">
+        <v>27</v>
+      </c>
+      <c r="K21" s="3">
+        <v>39</v>
+      </c>
+      <c r="L21" s="3">
+        <v>29</v>
+      </c>
+      <c r="M21" s="3">
+        <v>16</v>
+      </c>
+      <c r="N21" s="3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22">
+        <v>364</v>
+      </c>
+      <c r="C22">
+        <v>419</v>
+      </c>
+      <c r="D22">
+        <v>365</v>
+      </c>
+      <c r="E22">
+        <v>354</v>
+      </c>
+      <c r="F22">
+        <v>371</v>
+      </c>
+      <c r="G22">
+        <v>338</v>
+      </c>
+      <c r="H22">
+        <v>353</v>
+      </c>
+      <c r="I22">
+        <v>330</v>
+      </c>
+      <c r="J22">
+        <v>336</v>
+      </c>
+      <c r="K22">
+        <v>326</v>
+      </c>
+      <c r="L22">
+        <v>329</v>
+      </c>
+      <c r="M22">
+        <v>330</v>
+      </c>
+      <c r="N22">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="3">
+        <v>43</v>
+      </c>
+      <c r="C23" s="3">
+        <v>39</v>
+      </c>
+      <c r="D23" s="3">
+        <v>26</v>
+      </c>
+      <c r="E23" s="3">
+        <v>22</v>
+      </c>
+      <c r="F23" s="3">
+        <v>23</v>
+      </c>
+      <c r="G23" s="3">
+        <v>28</v>
+      </c>
+      <c r="H23" s="3">
+        <v>24</v>
+      </c>
+      <c r="I23" s="3">
+        <v>27</v>
+      </c>
+      <c r="J23" s="3">
+        <v>37</v>
+      </c>
+      <c r="K23" s="3">
+        <v>38</v>
+      </c>
+      <c r="L23" s="3">
+        <v>38</v>
+      </c>
+      <c r="M23" s="3">
+        <v>44</v>
+      </c>
+      <c r="N23" s="3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24">
+        <v>430</v>
+      </c>
+      <c r="C24">
+        <v>443</v>
+      </c>
+      <c r="D24">
+        <v>337</v>
+      </c>
+      <c r="E24">
+        <v>309</v>
+      </c>
+      <c r="F24">
+        <v>321</v>
+      </c>
+      <c r="G24">
+        <v>205</v>
+      </c>
+      <c r="H24">
+        <v>322</v>
+      </c>
+      <c r="I24">
+        <v>281</v>
+      </c>
+      <c r="J24">
+        <v>307</v>
+      </c>
+      <c r="K24">
+        <v>297</v>
+      </c>
+      <c r="L24">
+        <v>296</v>
+      </c>
+      <c r="M24">
+        <v>360</v>
+      </c>
+      <c r="N24">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1148</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1084</v>
+      </c>
+      <c r="D25" s="3">
+        <v>940</v>
+      </c>
+      <c r="E25" s="3">
+        <v>940</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1015</v>
+      </c>
+      <c r="G25" s="3">
+        <v>888</v>
+      </c>
+      <c r="H25" s="3">
+        <v>842</v>
+      </c>
+      <c r="I25" s="3">
+        <v>904</v>
+      </c>
+      <c r="J25" s="3">
+        <v>930</v>
+      </c>
+      <c r="K25" s="3">
+        <v>975</v>
+      </c>
+      <c r="L25" s="3">
+        <v>952</v>
+      </c>
+      <c r="M25" s="3">
+        <v>1009</v>
+      </c>
+      <c r="N25" s="3">
+        <v>3385</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26">
+        <v>93</v>
+      </c>
+      <c r="C26">
+        <v>103</v>
+      </c>
+      <c r="D26">
+        <v>97</v>
+      </c>
+      <c r="E26">
+        <v>84</v>
+      </c>
+      <c r="F26">
+        <v>81</v>
+      </c>
+      <c r="G26">
+        <v>66</v>
+      </c>
+      <c r="H26">
+        <v>62</v>
+      </c>
+      <c r="I26">
+        <v>85</v>
+      </c>
+      <c r="J26">
+        <v>95</v>
+      </c>
+      <c r="K26">
+        <v>92</v>
+      </c>
+      <c r="L26">
+        <v>91</v>
+      </c>
+      <c r="M26">
+        <v>96</v>
+      </c>
+      <c r="N26">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28">
+        <v>114</v>
+      </c>
+      <c r="C28">
+        <v>127</v>
+      </c>
+      <c r="D28">
+        <v>112</v>
+      </c>
+      <c r="E28">
+        <v>104</v>
+      </c>
+      <c r="F28">
+        <v>102</v>
+      </c>
+      <c r="G28">
+        <v>90</v>
+      </c>
+      <c r="H28">
+        <v>94</v>
+      </c>
+      <c r="I28">
+        <v>106</v>
+      </c>
+      <c r="J28">
+        <v>103</v>
+      </c>
+      <c r="K28">
+        <v>102</v>
+      </c>
+      <c r="L28">
+        <v>107</v>
+      </c>
+      <c r="M28">
+        <v>108</v>
+      </c>
+      <c r="N28">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="3">
+        <v>42</v>
+      </c>
+      <c r="C29" s="3">
+        <v>59</v>
+      </c>
+      <c r="D29" s="3">
+        <v>43</v>
+      </c>
+      <c r="E29" s="3">
+        <v>41</v>
+      </c>
+      <c r="F29" s="3">
+        <v>43</v>
+      </c>
+      <c r="G29" s="3">
+        <v>40</v>
+      </c>
+      <c r="H29" s="3">
+        <v>36</v>
+      </c>
+      <c r="I29" s="3">
+        <v>46</v>
+      </c>
+      <c r="J29" s="3">
+        <v>46</v>
+      </c>
+      <c r="K29" s="3">
+        <v>46</v>
+      </c>
+      <c r="L29" s="3">
+        <v>47</v>
+      </c>
+      <c r="M29" s="3">
+        <v>52</v>
+      </c>
+      <c r="N29" s="3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30">
+        <v>222</v>
+      </c>
+      <c r="C30">
+        <v>285</v>
+      </c>
+      <c r="D30">
+        <v>231</v>
+      </c>
+      <c r="E30">
+        <v>192</v>
+      </c>
+      <c r="F30">
+        <v>196</v>
+      </c>
+      <c r="G30">
+        <v>184</v>
+      </c>
+      <c r="H30">
+        <v>192</v>
+      </c>
+      <c r="I30">
+        <v>190</v>
+      </c>
+      <c r="J30">
+        <v>189</v>
+      </c>
+      <c r="K30">
+        <v>190</v>
+      </c>
+      <c r="L30">
+        <v>223</v>
+      </c>
+      <c r="M30">
+        <v>243</v>
+      </c>
+      <c r="N30">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="3">
+        <v>35</v>
+      </c>
+      <c r="C31" s="3">
+        <v>14</v>
+      </c>
+      <c r="D31" s="3">
+        <v>10</v>
+      </c>
+      <c r="E31" s="3">
+        <v>11</v>
+      </c>
+      <c r="F31" s="3">
+        <v>9</v>
+      </c>
+      <c r="G31" s="3">
+        <v>14</v>
+      </c>
+      <c r="H31" s="3">
+        <v>10</v>
+      </c>
+      <c r="I31" s="3">
+        <v>11</v>
+      </c>
+      <c r="J31" s="3">
+        <v>17</v>
+      </c>
+      <c r="K31" s="3">
+        <v>7</v>
+      </c>
+      <c r="L31" s="3">
+        <v>13</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
+      </c>
+      <c r="N31" s="3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32">
+        <v>54</v>
+      </c>
+      <c r="C32">
+        <v>69</v>
+      </c>
+      <c r="D32">
+        <v>49</v>
+      </c>
+      <c r="E32">
+        <v>34</v>
+      </c>
+      <c r="F32">
+        <v>42</v>
+      </c>
+      <c r="G32">
+        <v>38</v>
+      </c>
+      <c r="H32">
+        <v>31</v>
+      </c>
+      <c r="I32">
+        <v>38</v>
+      </c>
+      <c r="J32">
+        <v>49</v>
+      </c>
+      <c r="K32">
+        <v>43</v>
+      </c>
+      <c r="L32">
+        <v>37</v>
+      </c>
+      <c r="M32">
+        <v>51</v>
+      </c>
+      <c r="N32">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="3">
+        <v>319</v>
+      </c>
+      <c r="C33" s="3">
+        <v>344</v>
+      </c>
+      <c r="D33" s="3">
+        <v>312</v>
+      </c>
+      <c r="E33" s="3">
+        <v>287</v>
+      </c>
+      <c r="F33" s="3">
+        <v>298</v>
+      </c>
+      <c r="G33" s="3">
+        <v>272</v>
+      </c>
+      <c r="H33" s="3">
+        <v>268</v>
+      </c>
+      <c r="I33" s="3">
+        <v>272</v>
+      </c>
+      <c r="J33" s="3">
+        <v>271</v>
+      </c>
+      <c r="K33" s="3">
+        <v>298</v>
+      </c>
+      <c r="L33" s="3">
+        <v>266</v>
+      </c>
+      <c r="M33" s="3">
+        <v>321</v>
+      </c>
+      <c r="N33" s="3">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34">
+        <v>258</v>
+      </c>
+      <c r="C34">
+        <v>268</v>
+      </c>
+      <c r="D34">
+        <v>222</v>
+      </c>
+      <c r="E34">
+        <v>239</v>
+      </c>
+      <c r="F34">
+        <v>228</v>
+      </c>
+      <c r="G34">
+        <v>262</v>
+      </c>
+      <c r="H34">
+        <v>291</v>
+      </c>
+      <c r="I34">
+        <v>244</v>
+      </c>
+      <c r="J34">
+        <v>252</v>
+      </c>
+      <c r="K34">
+        <v>285</v>
+      </c>
+      <c r="L34">
+        <v>234</v>
+      </c>
+      <c r="M34">
+        <v>210</v>
+      </c>
+      <c r="N34">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" s="3">
+        <v>165</v>
+      </c>
+      <c r="C35" s="3">
+        <v>174</v>
+      </c>
+      <c r="D35" s="3">
+        <v>146</v>
+      </c>
+      <c r="E35" s="3">
+        <v>147</v>
+      </c>
+      <c r="F35" s="3">
+        <v>142</v>
+      </c>
+      <c r="G35" s="3">
+        <v>130</v>
+      </c>
+      <c r="H35" s="3">
+        <v>143</v>
+      </c>
+      <c r="I35" s="3">
+        <v>145</v>
+      </c>
+      <c r="J35" s="3">
+        <v>144</v>
+      </c>
+      <c r="K35" s="3">
+        <v>141</v>
+      </c>
+      <c r="L35" s="3">
+        <v>136</v>
+      </c>
+      <c r="M35" s="3">
+        <v>142</v>
+      </c>
+      <c r="N35" s="3">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36">
+        <v>943</v>
+      </c>
+      <c r="C36">
+        <v>984</v>
+      </c>
+      <c r="D36">
+        <v>788</v>
+      </c>
+      <c r="E36">
+        <v>665</v>
+      </c>
+      <c r="F36">
+        <v>751</v>
+      </c>
+      <c r="G36">
+        <v>647</v>
+      </c>
+      <c r="H36">
+        <v>640</v>
+      </c>
+      <c r="I36">
+        <v>615</v>
+      </c>
+      <c r="J36">
+        <v>681</v>
+      </c>
+      <c r="K36">
+        <v>690</v>
+      </c>
+      <c r="L36">
+        <v>694</v>
+      </c>
+      <c r="M36">
+        <v>749</v>
+      </c>
+      <c r="N36">
+        <v>2441</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37" s="3">
+        <v>180</v>
+      </c>
+      <c r="C37" s="3">
+        <v>181</v>
+      </c>
+      <c r="D37" s="3">
+        <v>155</v>
+      </c>
+      <c r="E37" s="3">
+        <v>136</v>
+      </c>
+      <c r="F37" s="3">
+        <v>150</v>
+      </c>
+      <c r="G37" s="3">
+        <v>144</v>
+      </c>
+      <c r="H37" s="3">
+        <v>139</v>
+      </c>
+      <c r="I37" s="3">
+        <v>139</v>
+      </c>
+      <c r="J37" s="3">
+        <v>129</v>
+      </c>
+      <c r="K37" s="3">
+        <v>141</v>
+      </c>
+      <c r="L37" s="3">
+        <v>129</v>
+      </c>
+      <c r="M37" s="3">
+        <v>136</v>
+      </c>
+      <c r="N37" s="3">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38">
+        <v>609</v>
+      </c>
+      <c r="C38">
+        <v>590</v>
+      </c>
+      <c r="D38">
+        <v>483</v>
+      </c>
+      <c r="E38">
+        <v>403</v>
+      </c>
+      <c r="F38">
+        <v>415</v>
+      </c>
+      <c r="G38">
+        <v>373</v>
+      </c>
+      <c r="H38">
+        <v>383</v>
+      </c>
+      <c r="I38">
+        <v>360</v>
+      </c>
+      <c r="J38">
+        <v>413</v>
+      </c>
+      <c r="K38">
+        <v>432</v>
+      </c>
+      <c r="L38">
+        <v>385</v>
+      </c>
+      <c r="M38">
+        <v>430</v>
+      </c>
+      <c r="N38">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39" s="3">
+        <v>48</v>
+      </c>
+      <c r="C39" s="3">
+        <v>63</v>
+      </c>
+      <c r="D39" s="3">
+        <v>28</v>
+      </c>
+      <c r="E39" s="3">
+        <v>19</v>
+      </c>
+      <c r="F39" s="3">
+        <v>18</v>
+      </c>
+      <c r="G39" s="3">
+        <v>18</v>
+      </c>
+      <c r="H39" s="3">
+        <v>19</v>
+      </c>
+      <c r="I39" s="3">
+        <v>13</v>
+      </c>
+      <c r="J39" s="3">
+        <v>18</v>
+      </c>
+      <c r="K39" s="3">
+        <v>18</v>
+      </c>
+      <c r="L39" s="3">
+        <v>18</v>
+      </c>
+      <c r="M39" s="3">
+        <v>17</v>
+      </c>
+      <c r="N39" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40">
+        <v>30</v>
+      </c>
+      <c r="C40">
+        <v>32</v>
+      </c>
+      <c r="D40">
+        <v>22</v>
+      </c>
+      <c r="E40">
+        <v>26</v>
+      </c>
+      <c r="F40">
+        <v>37</v>
+      </c>
+      <c r="G40">
+        <v>27</v>
+      </c>
+      <c r="H40">
+        <v>28</v>
+      </c>
+      <c r="I40">
+        <v>24</v>
+      </c>
+      <c r="J40">
+        <v>25</v>
+      </c>
+      <c r="K40">
+        <v>46</v>
+      </c>
+      <c r="L40">
+        <v>35</v>
+      </c>
+      <c r="M40">
+        <v>23</v>
+      </c>
+      <c r="N40">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3">
+        <v>1</v>
+      </c>
+      <c r="D41" s="3">
+        <v>51</v>
+      </c>
+      <c r="E41" s="3">
+        <v>99</v>
+      </c>
+      <c r="F41" s="3">
+        <v>96</v>
+      </c>
+      <c r="G41" s="3">
+        <v>88</v>
+      </c>
+      <c r="H41" s="3">
+        <v>132</v>
+      </c>
+      <c r="I41" s="3">
+        <v>87</v>
+      </c>
+      <c r="J41" s="3">
+        <v>104</v>
+      </c>
+      <c r="K41" s="3">
+        <v>122</v>
+      </c>
+      <c r="L41" s="3">
+        <v>128</v>
+      </c>
+      <c r="M41" s="3">
+        <v>143</v>
+      </c>
+      <c r="N41" s="3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>67</v>
+      </c>
+      <c r="D42">
+        <v>6</v>
+      </c>
+      <c r="E42">
+        <v>328</v>
+      </c>
+      <c r="F42">
+        <v>333</v>
+      </c>
+      <c r="G42">
+        <v>356</v>
+      </c>
+      <c r="H42">
+        <v>362</v>
+      </c>
+      <c r="I42">
+        <v>342</v>
+      </c>
+      <c r="J42">
+        <v>366</v>
+      </c>
+      <c r="K42">
+        <v>373</v>
+      </c>
+      <c r="L42">
+        <v>373</v>
+      </c>
+      <c r="M42">
+        <v>359</v>
+      </c>
+      <c r="N42">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3">
+        <v>4</v>
+      </c>
+      <c r="E43" s="3">
+        <v>14</v>
+      </c>
+      <c r="F43" s="3">
+        <v>25</v>
+      </c>
+      <c r="G43" s="3">
+        <v>71</v>
+      </c>
+      <c r="H43" s="3">
+        <v>48</v>
+      </c>
+      <c r="I43" s="3">
+        <v>10</v>
+      </c>
+      <c r="J43" s="3">
+        <v>14</v>
+      </c>
+      <c r="K43" s="3">
+        <v>40</v>
+      </c>
+      <c r="L43" s="3">
+        <v>75</v>
+      </c>
+      <c r="M43" s="3">
+        <v>11</v>
+      </c>
+      <c r="N43" s="3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>69</v>
+      </c>
+      <c r="D44">
+        <v>19</v>
+      </c>
+      <c r="E44">
+        <v>84</v>
+      </c>
+      <c r="F44">
+        <v>68</v>
+      </c>
+      <c r="G44">
+        <v>59</v>
+      </c>
+      <c r="H44">
+        <v>98</v>
+      </c>
+      <c r="I44">
+        <v>53</v>
+      </c>
+      <c r="J44">
+        <v>117</v>
+      </c>
+      <c r="K44">
+        <v>111</v>
+      </c>
+      <c r="L44">
+        <v>101</v>
+      </c>
+      <c r="M44">
+        <v>136</v>
+      </c>
+      <c r="N44">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3">
+        <v>8</v>
+      </c>
+      <c r="E45" s="3">
+        <v>86</v>
+      </c>
+      <c r="F45" s="3">
+        <v>86</v>
+      </c>
+      <c r="G45" s="3">
+        <v>93</v>
+      </c>
+      <c r="H45" s="3">
+        <v>89</v>
+      </c>
+      <c r="I45" s="3">
+        <v>70</v>
+      </c>
+      <c r="J45" s="3">
+        <v>73</v>
+      </c>
+      <c r="K45" s="3">
+        <v>68</v>
+      </c>
+      <c r="L45" s="3">
+        <v>69</v>
+      </c>
+      <c r="M45" s="3">
+        <v>73</v>
+      </c>
+      <c r="N45" s="3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>71</v>
+      </c>
+      <c r="B46">
+        <v>41</v>
+      </c>
+      <c r="C46">
+        <v>51</v>
+      </c>
+      <c r="D46">
+        <v>40</v>
+      </c>
+      <c r="E46">
+        <v>48</v>
+      </c>
+      <c r="F46">
+        <v>43</v>
+      </c>
+      <c r="G46">
+        <v>40</v>
+      </c>
+      <c r="H46">
+        <v>37</v>
+      </c>
+      <c r="I46">
+        <v>39</v>
+      </c>
+      <c r="J46">
+        <v>33</v>
+      </c>
+      <c r="K46">
+        <v>24</v>
+      </c>
+      <c r="L46">
+        <v>36</v>
+      </c>
+      <c r="M46">
+        <v>31</v>
+      </c>
+      <c r="N46">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B47" s="3">
+        <v>229</v>
+      </c>
+      <c r="C47" s="3">
+        <v>238</v>
+      </c>
+      <c r="D47" s="3">
+        <v>234</v>
+      </c>
+      <c r="E47" s="3">
+        <v>212</v>
+      </c>
+      <c r="F47" s="3">
+        <v>207</v>
+      </c>
+      <c r="G47" s="3">
+        <v>187</v>
+      </c>
+      <c r="H47" s="3">
+        <v>193</v>
+      </c>
+      <c r="I47" s="3">
+        <v>184</v>
+      </c>
+      <c r="J47" s="3">
+        <v>196</v>
+      </c>
+      <c r="K47" s="3">
+        <v>203</v>
+      </c>
+      <c r="L47" s="3">
+        <v>201</v>
+      </c>
+      <c r="M47" s="3">
+        <v>227</v>
+      </c>
+      <c r="N47" s="3">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>73</v>
+      </c>
+      <c r="B48">
+        <v>309</v>
+      </c>
+      <c r="C48">
+        <v>340</v>
+      </c>
+      <c r="D48">
+        <v>309</v>
+      </c>
+      <c r="E48">
+        <v>274</v>
+      </c>
+      <c r="F48">
+        <v>295</v>
+      </c>
+      <c r="G48">
+        <v>279</v>
+      </c>
+      <c r="H48">
+        <v>271</v>
+      </c>
+      <c r="I48">
+        <v>255</v>
+      </c>
+      <c r="J48">
+        <v>270</v>
+      </c>
+      <c r="K48">
+        <v>284</v>
+      </c>
+      <c r="L48">
+        <v>286</v>
+      </c>
+      <c r="M48">
+        <v>300</v>
+      </c>
+      <c r="N48">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B49" s="3">
+        <v>343</v>
+      </c>
+      <c r="C49" s="3">
+        <v>368</v>
+      </c>
+      <c r="D49" s="3">
+        <v>331</v>
+      </c>
+      <c r="E49" s="3">
+        <v>253</v>
+      </c>
+      <c r="F49" s="3">
+        <v>274</v>
+      </c>
+      <c r="G49" s="3">
+        <v>250</v>
+      </c>
+      <c r="H49" s="3">
+        <v>234</v>
+      </c>
+      <c r="I49" s="3">
+        <v>216</v>
+      </c>
+      <c r="J49" s="3">
+        <v>226</v>
+      </c>
+      <c r="K49" s="3">
+        <v>239</v>
+      </c>
+      <c r="L49" s="3">
+        <v>232</v>
+      </c>
+      <c r="M49" s="3">
+        <v>285</v>
+      </c>
+      <c r="N49" s="3">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>75</v>
+      </c>
+      <c r="B50">
+        <v>209</v>
+      </c>
+      <c r="C50">
+        <v>212</v>
+      </c>
+      <c r="D50">
+        <v>201</v>
+      </c>
+      <c r="E50">
+        <v>180</v>
+      </c>
+      <c r="F50">
+        <v>181</v>
+      </c>
+      <c r="G50">
+        <v>167</v>
+      </c>
+      <c r="H50">
+        <v>174</v>
+      </c>
+      <c r="I50">
+        <v>171</v>
+      </c>
+      <c r="J50">
+        <v>171</v>
+      </c>
+      <c r="K50">
+        <v>184</v>
+      </c>
+      <c r="L50">
+        <v>174</v>
+      </c>
+      <c r="M50">
+        <v>175</v>
+      </c>
+      <c r="N50">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B51" s="3">
+        <v>628</v>
+      </c>
+      <c r="C51" s="3">
+        <v>645</v>
+      </c>
+      <c r="D51" s="3">
+        <v>556</v>
+      </c>
+      <c r="E51" s="3">
+        <v>472</v>
+      </c>
+      <c r="F51" s="3">
+        <v>486</v>
+      </c>
+      <c r="G51" s="3">
+        <v>406</v>
+      </c>
+      <c r="H51" s="3">
+        <v>409</v>
+      </c>
+      <c r="I51" s="3">
+        <v>407</v>
+      </c>
+      <c r="J51" s="3">
+        <v>419</v>
+      </c>
+      <c r="K51" s="3">
+        <v>413</v>
+      </c>
+      <c r="L51" s="3">
+        <v>380</v>
+      </c>
+      <c r="M51" s="3">
+        <v>395</v>
+      </c>
+      <c r="N51" s="3">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>77</v>
+      </c>
+      <c r="B52">
+        <v>74</v>
+      </c>
+      <c r="C52">
+        <v>79</v>
+      </c>
+      <c r="D52">
+        <v>72</v>
+      </c>
+      <c r="E52">
+        <v>70</v>
+      </c>
+      <c r="F52">
+        <v>69</v>
+      </c>
+      <c r="G52">
+        <v>56</v>
+      </c>
+      <c r="H52">
+        <v>63</v>
+      </c>
+      <c r="I52">
+        <v>67</v>
+      </c>
+      <c r="J52">
+        <v>56</v>
+      </c>
+      <c r="K52">
+        <v>64</v>
+      </c>
+      <c r="L52">
+        <v>70</v>
+      </c>
+      <c r="M52">
+        <v>65</v>
+      </c>
+      <c r="N52">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B53" s="3">
+        <v>198</v>
+      </c>
+      <c r="C53" s="3">
+        <v>217</v>
+      </c>
+      <c r="D53" s="3">
+        <v>224</v>
+      </c>
+      <c r="E53" s="3">
+        <v>150</v>
+      </c>
+      <c r="F53" s="3">
+        <v>168</v>
+      </c>
+      <c r="G53" s="3">
+        <v>150</v>
+      </c>
+      <c r="H53" s="3">
+        <v>137</v>
+      </c>
+      <c r="I53" s="3">
+        <v>143</v>
+      </c>
+      <c r="J53" s="3">
+        <v>166</v>
+      </c>
+      <c r="K53" s="3">
+        <v>145</v>
+      </c>
+      <c r="L53" s="3">
+        <v>144</v>
+      </c>
+      <c r="M53" s="3">
+        <v>162</v>
+      </c>
+      <c r="N53" s="3">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>79</v>
+      </c>
+      <c r="B54">
+        <v>30</v>
+      </c>
+      <c r="C54">
+        <v>42</v>
+      </c>
+      <c r="D54">
+        <v>50</v>
+      </c>
+      <c r="E54">
+        <v>25</v>
+      </c>
+      <c r="F54">
+        <v>31</v>
+      </c>
+      <c r="G54">
+        <v>23</v>
+      </c>
+      <c r="H54">
+        <v>22</v>
+      </c>
+      <c r="I54">
+        <v>28</v>
+      </c>
+      <c r="J54">
+        <v>25</v>
+      </c>
+      <c r="K54">
+        <v>22</v>
+      </c>
+      <c r="L54">
+        <v>32</v>
+      </c>
+      <c r="M54">
+        <v>20</v>
+      </c>
+      <c r="N54">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B55" s="3">
+        <v>43</v>
+      </c>
+      <c r="C55" s="3">
+        <v>49</v>
+      </c>
+      <c r="D55" s="3">
+        <v>33</v>
+      </c>
+      <c r="E55" s="3">
+        <v>38</v>
+      </c>
+      <c r="F55" s="3">
+        <v>38</v>
+      </c>
+      <c r="G55" s="3">
+        <v>26</v>
+      </c>
+      <c r="H55" s="3">
+        <v>30</v>
+      </c>
+      <c r="I55" s="3">
+        <v>29</v>
+      </c>
+      <c r="J55" s="3">
+        <v>31</v>
+      </c>
+      <c r="K55" s="3">
+        <v>36</v>
+      </c>
+      <c r="L55" s="3">
+        <v>40</v>
+      </c>
+      <c r="M55" s="3">
+        <v>36</v>
+      </c>
+      <c r="N55" s="3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>81</v>
+      </c>
+      <c r="B56">
+        <v>62</v>
+      </c>
+      <c r="C56">
+        <v>73</v>
+      </c>
+      <c r="D56">
+        <v>71</v>
+      </c>
+      <c r="E56">
+        <v>63</v>
+      </c>
+      <c r="F56">
+        <v>67</v>
+      </c>
+      <c r="G56">
+        <v>63</v>
+      </c>
+      <c r="H56">
+        <v>65</v>
+      </c>
+      <c r="I56">
+        <v>56</v>
+      </c>
+      <c r="J56">
+        <v>46</v>
+      </c>
+      <c r="K56">
+        <v>48</v>
+      </c>
+      <c r="L56">
+        <v>50</v>
+      </c>
+      <c r="M56">
+        <v>58</v>
+      </c>
+      <c r="N56">
+        <v>223</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:N56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="42.7109375" customWidth="1"/>
+    <col min="2" max="13" width="13.7109375" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="3">
+        <v>648</v>
+      </c>
+      <c r="C3" s="3">
+        <v>669</v>
+      </c>
+      <c r="D3" s="3">
+        <v>749</v>
+      </c>
+      <c r="E3" s="3">
+        <v>605</v>
+      </c>
+      <c r="F3" s="3">
+        <v>568</v>
+      </c>
+      <c r="G3" s="3">
+        <v>579</v>
+      </c>
+      <c r="H3" s="3">
+        <v>509</v>
+      </c>
+      <c r="I3" s="3">
+        <v>537</v>
+      </c>
+      <c r="J3" s="3">
+        <v>535</v>
+      </c>
+      <c r="K3" s="3">
+        <v>552</v>
+      </c>
+      <c r="L3" s="3">
+        <v>522</v>
+      </c>
+      <c r="M3" s="3">
+        <v>516</v>
+      </c>
+      <c r="N3" s="3">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4">
+        <v>351</v>
+      </c>
+      <c r="C4">
+        <v>372</v>
+      </c>
+      <c r="D4">
+        <v>409</v>
+      </c>
+      <c r="E4">
+        <v>327</v>
+      </c>
+      <c r="F4">
+        <v>305</v>
+      </c>
+      <c r="G4">
+        <v>313</v>
+      </c>
+      <c r="H4">
+        <v>265</v>
+      </c>
+      <c r="I4">
+        <v>258</v>
+      </c>
+      <c r="J4">
+        <v>254</v>
+      </c>
+      <c r="K4">
+        <v>276</v>
+      </c>
+      <c r="L4">
+        <v>277</v>
+      </c>
+      <c r="M4">
+        <v>261</v>
+      </c>
+      <c r="N4">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1034</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1072</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1119</v>
+      </c>
+      <c r="E5" s="3">
+        <v>899</v>
+      </c>
+      <c r="F5" s="3">
+        <v>831</v>
+      </c>
+      <c r="G5" s="3">
+        <v>885</v>
+      </c>
+      <c r="H5" s="3">
+        <v>806</v>
+      </c>
+      <c r="I5" s="3">
+        <v>827</v>
+      </c>
+      <c r="J5" s="3">
+        <v>750</v>
+      </c>
+      <c r="K5" s="3">
+        <v>828</v>
+      </c>
+      <c r="L5" s="3">
+        <v>857</v>
+      </c>
+      <c r="M5" s="3">
+        <v>828</v>
+      </c>
+      <c r="N5" s="3">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6">
+        <v>33</v>
+      </c>
+      <c r="C6">
+        <v>29</v>
+      </c>
+      <c r="D6">
+        <v>32</v>
+      </c>
+      <c r="E6">
+        <v>17</v>
+      </c>
+      <c r="F6">
+        <v>22</v>
+      </c>
+      <c r="G6">
+        <v>19</v>
+      </c>
+      <c r="H6">
+        <v>12</v>
+      </c>
+      <c r="I6">
+        <v>15</v>
+      </c>
+      <c r="J6">
+        <v>21</v>
+      </c>
+      <c r="K6">
+        <v>21</v>
+      </c>
+      <c r="L6">
+        <v>24</v>
+      </c>
+      <c r="M6">
+        <v>21</v>
+      </c>
+      <c r="N6">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="3">
+        <v>721</v>
+      </c>
+      <c r="C7" s="3">
+        <v>800</v>
+      </c>
+      <c r="D7" s="3">
+        <v>806</v>
+      </c>
+      <c r="E7" s="3">
+        <v>605</v>
+      </c>
+      <c r="F7" s="3">
+        <v>561</v>
+      </c>
+      <c r="G7" s="3">
+        <v>617</v>
+      </c>
+      <c r="H7" s="3">
+        <v>561</v>
+      </c>
+      <c r="I7" s="3">
+        <v>583</v>
+      </c>
+      <c r="J7" s="3">
+        <v>564</v>
+      </c>
+      <c r="K7" s="3">
+        <v>563</v>
+      </c>
+      <c r="L7" s="3">
+        <v>603</v>
+      </c>
+      <c r="M7" s="3">
+        <v>581</v>
+      </c>
+      <c r="N7" s="3">
+        <v>2203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8">
+        <v>105</v>
+      </c>
+      <c r="C8">
+        <v>85</v>
+      </c>
+      <c r="D8">
+        <v>79</v>
+      </c>
+      <c r="E8">
+        <v>64</v>
+      </c>
+      <c r="F8">
+        <v>69</v>
+      </c>
+      <c r="G8">
+        <v>73</v>
+      </c>
+      <c r="H8">
+        <v>66</v>
+      </c>
+      <c r="I8">
+        <v>72</v>
+      </c>
+      <c r="J8">
+        <v>78</v>
+      </c>
+      <c r="K8">
+        <v>70</v>
+      </c>
+      <c r="L8">
+        <v>64</v>
+      </c>
+      <c r="M8">
+        <v>73</v>
+      </c>
+      <c r="N8">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="3">
+        <v>123</v>
+      </c>
+      <c r="C9" s="3">
+        <v>120</v>
+      </c>
+      <c r="D9" s="3">
+        <v>126</v>
+      </c>
+      <c r="E9" s="3">
+        <v>108</v>
+      </c>
+      <c r="F9" s="3">
+        <v>103</v>
+      </c>
+      <c r="G9" s="3">
+        <v>124</v>
+      </c>
+      <c r="H9" s="3">
+        <v>93</v>
+      </c>
+      <c r="I9" s="3">
+        <v>104</v>
+      </c>
+      <c r="J9" s="3">
+        <v>99</v>
+      </c>
+      <c r="K9" s="3">
+        <v>99</v>
+      </c>
+      <c r="L9" s="3">
+        <v>105</v>
+      </c>
+      <c r="M9" s="3">
+        <v>96</v>
+      </c>
+      <c r="N9" s="3">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10">
+        <v>45</v>
+      </c>
+      <c r="C10">
+        <v>48</v>
+      </c>
+      <c r="D10">
+        <v>67</v>
+      </c>
+      <c r="E10">
+        <v>40</v>
+      </c>
+      <c r="F10">
+        <v>40</v>
+      </c>
+      <c r="G10">
+        <v>44</v>
+      </c>
+      <c r="H10">
+        <v>35</v>
+      </c>
+      <c r="I10">
+        <v>33</v>
+      </c>
+      <c r="J10">
+        <v>35</v>
+      </c>
+      <c r="K10">
+        <v>31</v>
+      </c>
+      <c r="L10">
+        <v>42</v>
+      </c>
+      <c r="M10">
+        <v>43</v>
+      </c>
+      <c r="N10">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="3">
+        <v>7</v>
+      </c>
+      <c r="C11" s="3">
+        <v>13</v>
+      </c>
+      <c r="D11" s="3">
+        <v>42</v>
+      </c>
+      <c r="E11" s="3">
+        <v>4</v>
+      </c>
+      <c r="F11" s="3">
+        <v>9</v>
+      </c>
+      <c r="G11" s="3">
+        <v>3</v>
+      </c>
+      <c r="H11" s="3">
+        <v>1</v>
+      </c>
+      <c r="I11" s="3">
+        <v>6</v>
+      </c>
+      <c r="J11" s="3">
+        <v>4</v>
+      </c>
+      <c r="K11" s="3">
+        <v>6</v>
+      </c>
+      <c r="L11" s="3">
+        <v>8</v>
+      </c>
+      <c r="M11" s="3">
+        <v>3</v>
+      </c>
+      <c r="N11" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="3">
+        <v>31</v>
+      </c>
+      <c r="C13" s="3">
+        <v>26</v>
+      </c>
+      <c r="D13" s="3">
+        <v>26</v>
+      </c>
+      <c r="E13" s="3">
+        <v>27</v>
+      </c>
+      <c r="F13" s="3">
+        <v>17</v>
+      </c>
+      <c r="G13" s="3">
+        <v>26</v>
+      </c>
+      <c r="H13" s="3">
+        <v>16</v>
+      </c>
+      <c r="I13" s="3">
+        <v>20</v>
+      </c>
+      <c r="J13" s="3">
+        <v>23</v>
+      </c>
+      <c r="K13" s="3">
+        <v>25</v>
+      </c>
+      <c r="L13" s="3">
+        <v>22</v>
+      </c>
+      <c r="M13" s="3">
+        <v>21</v>
+      </c>
+      <c r="N13" s="3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14">
+        <v>69</v>
+      </c>
+      <c r="C14">
+        <v>62</v>
+      </c>
+      <c r="D14">
+        <v>68</v>
+      </c>
+      <c r="E14">
+        <v>61</v>
+      </c>
+      <c r="F14">
+        <v>50</v>
+      </c>
+      <c r="G14">
+        <v>45</v>
+      </c>
+      <c r="H14">
+        <v>46</v>
+      </c>
+      <c r="I14">
+        <v>41</v>
+      </c>
+      <c r="J14">
+        <v>44</v>
+      </c>
+      <c r="K14">
+        <v>55</v>
+      </c>
+      <c r="L14">
+        <v>55</v>
+      </c>
+      <c r="M14">
+        <v>57</v>
+      </c>
+      <c r="N14">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="3">
+        <v>154</v>
+      </c>
+      <c r="C15" s="3">
+        <v>160</v>
+      </c>
+      <c r="D15" s="3">
+        <v>146</v>
+      </c>
+      <c r="E15" s="3">
+        <v>116</v>
+      </c>
+      <c r="F15" s="3">
+        <v>115</v>
+      </c>
+      <c r="G15" s="3">
+        <v>117</v>
+      </c>
+      <c r="H15" s="3">
+        <v>96</v>
+      </c>
+      <c r="I15" s="3">
+        <v>96</v>
+      </c>
+      <c r="J15" s="3">
+        <v>93</v>
+      </c>
+      <c r="K15" s="3">
+        <v>108</v>
+      </c>
+      <c r="L15" s="3">
+        <v>115</v>
+      </c>
+      <c r="M15" s="3">
+        <v>124</v>
+      </c>
+      <c r="N15" s="3">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16">
+        <v>63</v>
+      </c>
+      <c r="C16">
+        <v>66</v>
+      </c>
+      <c r="D16">
+        <v>84</v>
+      </c>
+      <c r="E16">
+        <v>65</v>
+      </c>
+      <c r="F16">
+        <v>65</v>
+      </c>
+      <c r="G16">
+        <v>64</v>
+      </c>
+      <c r="H16">
+        <v>53</v>
+      </c>
+      <c r="I16">
+        <v>63</v>
+      </c>
+      <c r="J16">
+        <v>43</v>
+      </c>
+      <c r="K16">
+        <v>62</v>
+      </c>
+      <c r="L16">
+        <v>61</v>
+      </c>
+      <c r="M16">
+        <v>60</v>
+      </c>
+      <c r="N16">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="3">
+        <v>41</v>
+      </c>
+      <c r="C17" s="3">
+        <v>46</v>
+      </c>
+      <c r="D17" s="3">
+        <v>46</v>
+      </c>
+      <c r="E17" s="3">
+        <v>28</v>
+      </c>
+      <c r="F17" s="3">
+        <v>28</v>
+      </c>
+      <c r="G17" s="3">
+        <v>27</v>
+      </c>
+      <c r="H17" s="3">
+        <v>23</v>
+      </c>
+      <c r="I17" s="3">
+        <v>29</v>
+      </c>
+      <c r="J17" s="3">
+        <v>30</v>
+      </c>
+      <c r="K17" s="3">
+        <v>27</v>
+      </c>
+      <c r="L17" s="3">
+        <v>26</v>
+      </c>
+      <c r="M17" s="3">
+        <v>27</v>
+      </c>
+      <c r="N17" s="3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18">
+        <v>239</v>
+      </c>
+      <c r="C18">
+        <v>257</v>
+      </c>
+      <c r="D18">
+        <v>247</v>
+      </c>
+      <c r="E18">
+        <v>237</v>
+      </c>
+      <c r="F18">
+        <v>183</v>
+      </c>
+      <c r="G18">
+        <v>189</v>
+      </c>
+      <c r="H18">
+        <v>177</v>
+      </c>
+      <c r="I18">
+        <v>186</v>
+      </c>
+      <c r="J18">
+        <v>180</v>
+      </c>
+      <c r="K18">
+        <v>175</v>
+      </c>
+      <c r="L18">
+        <v>203</v>
+      </c>
+      <c r="M18">
+        <v>192</v>
+      </c>
+      <c r="N18">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="3">
+        <v>19</v>
+      </c>
+      <c r="C19" s="3">
+        <v>19</v>
+      </c>
+      <c r="D19" s="3">
+        <v>22</v>
+      </c>
+      <c r="E19" s="3">
+        <v>22</v>
+      </c>
+      <c r="F19" s="3">
+        <v>22</v>
+      </c>
+      <c r="G19" s="3">
+        <v>22</v>
+      </c>
+      <c r="H19" s="3">
+        <v>23</v>
+      </c>
+      <c r="I19" s="3">
+        <v>22</v>
+      </c>
+      <c r="J19" s="3">
+        <v>22</v>
+      </c>
+      <c r="K19" s="3">
+        <v>21</v>
+      </c>
+      <c r="L19" s="3">
+        <v>25</v>
+      </c>
+      <c r="M19" s="3">
+        <v>20</v>
+      </c>
+      <c r="N19" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20">
+        <v>354</v>
+      </c>
+      <c r="C20">
+        <v>359</v>
+      </c>
+      <c r="D20">
+        <v>363</v>
+      </c>
+      <c r="E20">
+        <v>332</v>
+      </c>
+      <c r="F20">
+        <v>297</v>
+      </c>
+      <c r="G20">
+        <v>333</v>
+      </c>
+      <c r="H20">
+        <v>279</v>
+      </c>
+      <c r="I20">
+        <v>274</v>
+      </c>
+      <c r="J20">
+        <v>281</v>
+      </c>
+      <c r="K20">
+        <v>288</v>
+      </c>
+      <c r="L20">
+        <v>342</v>
+      </c>
+      <c r="M20">
+        <v>341</v>
+      </c>
+      <c r="N20">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="3">
+        <v>27</v>
+      </c>
+      <c r="C21" s="3">
+        <v>4</v>
+      </c>
+      <c r="D21" s="3">
+        <v>7</v>
+      </c>
+      <c r="E21" s="3">
+        <v>14</v>
+      </c>
+      <c r="F21" s="3">
+        <v>13</v>
+      </c>
+      <c r="G21" s="3">
+        <v>20</v>
+      </c>
+      <c r="H21" s="3">
+        <v>13</v>
+      </c>
+      <c r="I21" s="3">
+        <v>9</v>
+      </c>
+      <c r="J21" s="3">
+        <v>13</v>
+      </c>
+      <c r="K21" s="3">
+        <v>27</v>
+      </c>
+      <c r="L21" s="3">
+        <v>39</v>
+      </c>
+      <c r="M21" s="3">
+        <v>29</v>
+      </c>
+      <c r="N21" s="3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22">
+        <v>408</v>
+      </c>
+      <c r="C22">
+        <v>364</v>
+      </c>
+      <c r="D22">
+        <v>419</v>
+      </c>
+      <c r="E22">
+        <v>365</v>
+      </c>
+      <c r="F22">
+        <v>354</v>
+      </c>
+      <c r="G22">
+        <v>371</v>
+      </c>
+      <c r="H22">
+        <v>338</v>
+      </c>
+      <c r="I22">
+        <v>353</v>
+      </c>
+      <c r="J22">
+        <v>330</v>
+      </c>
+      <c r="K22">
+        <v>336</v>
+      </c>
+      <c r="L22">
+        <v>326</v>
+      </c>
+      <c r="M22">
+        <v>329</v>
+      </c>
+      <c r="N22">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="3">
+        <v>54</v>
+      </c>
+      <c r="C23" s="3">
+        <v>43</v>
+      </c>
+      <c r="D23" s="3">
+        <v>39</v>
+      </c>
+      <c r="E23" s="3">
+        <v>26</v>
+      </c>
+      <c r="F23" s="3">
+        <v>22</v>
+      </c>
+      <c r="G23" s="3">
+        <v>23</v>
+      </c>
+      <c r="H23" s="3">
+        <v>28</v>
+      </c>
+      <c r="I23" s="3">
+        <v>24</v>
+      </c>
+      <c r="J23" s="3">
+        <v>27</v>
+      </c>
+      <c r="K23" s="3">
+        <v>37</v>
+      </c>
+      <c r="L23" s="3">
+        <v>38</v>
+      </c>
+      <c r="M23" s="3">
+        <v>38</v>
+      </c>
+      <c r="N23" s="3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24">
+        <v>419</v>
+      </c>
+      <c r="C24">
+        <v>430</v>
+      </c>
+      <c r="D24">
+        <v>443</v>
+      </c>
+      <c r="E24">
+        <v>337</v>
+      </c>
+      <c r="F24">
+        <v>309</v>
+      </c>
+      <c r="G24">
+        <v>321</v>
+      </c>
+      <c r="H24">
+        <v>205</v>
+      </c>
+      <c r="I24">
+        <v>322</v>
+      </c>
+      <c r="J24">
+        <v>281</v>
+      </c>
+      <c r="K24">
+        <v>307</v>
+      </c>
+      <c r="L24">
+        <v>297</v>
+      </c>
+      <c r="M24">
+        <v>296</v>
+      </c>
+      <c r="N24">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1181</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1148</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1084</v>
+      </c>
+      <c r="E25" s="3">
+        <v>940</v>
+      </c>
+      <c r="F25" s="3">
+        <v>940</v>
+      </c>
+      <c r="G25" s="3">
+        <v>1015</v>
+      </c>
+      <c r="H25" s="3">
+        <v>888</v>
+      </c>
+      <c r="I25" s="3">
+        <v>842</v>
+      </c>
+      <c r="J25" s="3">
+        <v>904</v>
+      </c>
+      <c r="K25" s="3">
+        <v>930</v>
+      </c>
+      <c r="L25" s="3">
+        <v>975</v>
+      </c>
+      <c r="M25" s="3">
+        <v>952</v>
+      </c>
+      <c r="N25" s="3">
+        <v>3418</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26">
+        <v>78</v>
+      </c>
+      <c r="C26">
+        <v>93</v>
+      </c>
+      <c r="D26">
+        <v>103</v>
+      </c>
+      <c r="E26">
+        <v>97</v>
+      </c>
+      <c r="F26">
+        <v>84</v>
+      </c>
+      <c r="G26">
+        <v>81</v>
+      </c>
+      <c r="H26">
+        <v>66</v>
+      </c>
+      <c r="I26">
+        <v>62</v>
+      </c>
+      <c r="J26">
+        <v>85</v>
+      </c>
+      <c r="K26">
+        <v>95</v>
+      </c>
+      <c r="L26">
+        <v>92</v>
+      </c>
+      <c r="M26">
+        <v>91</v>
+      </c>
+      <c r="N26">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28">
+        <v>120</v>
+      </c>
+      <c r="C28">
+        <v>114</v>
+      </c>
+      <c r="D28">
+        <v>127</v>
+      </c>
+      <c r="E28">
+        <v>112</v>
+      </c>
+      <c r="F28">
+        <v>104</v>
+      </c>
+      <c r="G28">
+        <v>102</v>
+      </c>
+      <c r="H28">
+        <v>90</v>
+      </c>
+      <c r="I28">
+        <v>94</v>
+      </c>
+      <c r="J28">
+        <v>106</v>
+      </c>
+      <c r="K28">
+        <v>103</v>
+      </c>
+      <c r="L28">
+        <v>102</v>
+      </c>
+      <c r="M28">
+        <v>107</v>
+      </c>
+      <c r="N28">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="3">
+        <v>38</v>
+      </c>
+      <c r="C29" s="3">
+        <v>42</v>
+      </c>
+      <c r="D29" s="3">
+        <v>59</v>
+      </c>
+      <c r="E29" s="3">
+        <v>43</v>
+      </c>
+      <c r="F29" s="3">
+        <v>41</v>
+      </c>
+      <c r="G29" s="3">
+        <v>43</v>
+      </c>
+      <c r="H29" s="3">
+        <v>40</v>
+      </c>
+      <c r="I29" s="3">
+        <v>36</v>
+      </c>
+      <c r="J29" s="3">
+        <v>46</v>
+      </c>
+      <c r="K29" s="3">
+        <v>46</v>
+      </c>
+      <c r="L29" s="3">
+        <v>46</v>
+      </c>
+      <c r="M29" s="3">
+        <v>47</v>
+      </c>
+      <c r="N29" s="3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30">
+        <v>213</v>
+      </c>
+      <c r="C30">
+        <v>222</v>
+      </c>
+      <c r="D30">
+        <v>285</v>
+      </c>
+      <c r="E30">
+        <v>231</v>
+      </c>
+      <c r="F30">
+        <v>192</v>
+      </c>
+      <c r="G30">
+        <v>196</v>
+      </c>
+      <c r="H30">
+        <v>184</v>
+      </c>
+      <c r="I30">
+        <v>192</v>
+      </c>
+      <c r="J30">
+        <v>190</v>
+      </c>
+      <c r="K30">
+        <v>189</v>
+      </c>
+      <c r="L30">
+        <v>190</v>
+      </c>
+      <c r="M30">
+        <v>223</v>
+      </c>
+      <c r="N30">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="3">
+        <v>21</v>
+      </c>
+      <c r="C31" s="3">
+        <v>35</v>
+      </c>
+      <c r="D31" s="3">
+        <v>14</v>
+      </c>
+      <c r="E31" s="3">
+        <v>10</v>
+      </c>
+      <c r="F31" s="3">
+        <v>11</v>
+      </c>
+      <c r="G31" s="3">
+        <v>9</v>
+      </c>
+      <c r="H31" s="3">
+        <v>14</v>
+      </c>
+      <c r="I31" s="3">
+        <v>10</v>
+      </c>
+      <c r="J31" s="3">
+        <v>11</v>
+      </c>
+      <c r="K31" s="3">
+        <v>17</v>
+      </c>
+      <c r="L31" s="3">
+        <v>7</v>
+      </c>
+      <c r="M31" s="3">
+        <v>13</v>
+      </c>
+      <c r="N31" s="3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32">
+        <v>55</v>
+      </c>
+      <c r="C32">
+        <v>54</v>
+      </c>
+      <c r="D32">
+        <v>69</v>
+      </c>
+      <c r="E32">
+        <v>49</v>
+      </c>
+      <c r="F32">
+        <v>34</v>
+      </c>
+      <c r="G32">
+        <v>42</v>
+      </c>
+      <c r="H32">
+        <v>38</v>
+      </c>
+      <c r="I32">
+        <v>31</v>
+      </c>
+      <c r="J32">
+        <v>38</v>
+      </c>
+      <c r="K32">
+        <v>49</v>
+      </c>
+      <c r="L32">
+        <v>43</v>
+      </c>
+      <c r="M32">
+        <v>37</v>
+      </c>
+      <c r="N32">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="3">
+        <v>297</v>
+      </c>
+      <c r="C33" s="3">
+        <v>319</v>
+      </c>
+      <c r="D33" s="3">
+        <v>344</v>
+      </c>
+      <c r="E33" s="3">
+        <v>312</v>
+      </c>
+      <c r="F33" s="3">
+        <v>287</v>
+      </c>
+      <c r="G33" s="3">
+        <v>298</v>
+      </c>
+      <c r="H33" s="3">
+        <v>272</v>
+      </c>
+      <c r="I33" s="3">
+        <v>268</v>
+      </c>
+      <c r="J33" s="3">
+        <v>272</v>
+      </c>
+      <c r="K33" s="3">
+        <v>271</v>
+      </c>
+      <c r="L33" s="3">
+        <v>298</v>
+      </c>
+      <c r="M33" s="3">
+        <v>266</v>
+      </c>
+      <c r="N33" s="3">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34">
+        <v>267</v>
+      </c>
+      <c r="C34">
+        <v>258</v>
+      </c>
+      <c r="D34">
+        <v>268</v>
+      </c>
+      <c r="E34">
+        <v>222</v>
+      </c>
+      <c r="F34">
+        <v>239</v>
+      </c>
+      <c r="G34">
+        <v>228</v>
+      </c>
+      <c r="H34">
+        <v>262</v>
+      </c>
+      <c r="I34">
+        <v>291</v>
+      </c>
+      <c r="J34">
+        <v>244</v>
+      </c>
+      <c r="K34">
+        <v>252</v>
+      </c>
+      <c r="L34">
+        <v>285</v>
+      </c>
+      <c r="M34">
+        <v>234</v>
+      </c>
+      <c r="N34">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" s="3">
+        <v>157</v>
+      </c>
+      <c r="C35" s="3">
+        <v>165</v>
+      </c>
+      <c r="D35" s="3">
+        <v>174</v>
+      </c>
+      <c r="E35" s="3">
+        <v>146</v>
+      </c>
+      <c r="F35" s="3">
+        <v>147</v>
+      </c>
+      <c r="G35" s="3">
+        <v>142</v>
+      </c>
+      <c r="H35" s="3">
+        <v>130</v>
+      </c>
+      <c r="I35" s="3">
+        <v>143</v>
+      </c>
+      <c r="J35" s="3">
+        <v>145</v>
+      </c>
+      <c r="K35" s="3">
+        <v>144</v>
+      </c>
+      <c r="L35" s="3">
+        <v>141</v>
+      </c>
+      <c r="M35" s="3">
+        <v>136</v>
+      </c>
+      <c r="N35" s="3">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36">
+        <v>900</v>
+      </c>
+      <c r="C36">
+        <v>943</v>
+      </c>
+      <c r="D36">
+        <v>984</v>
+      </c>
+      <c r="E36">
+        <v>788</v>
+      </c>
+      <c r="F36">
+        <v>665</v>
+      </c>
+      <c r="G36">
+        <v>751</v>
+      </c>
+      <c r="H36">
+        <v>647</v>
+      </c>
+      <c r="I36">
+        <v>640</v>
+      </c>
+      <c r="J36">
+        <v>615</v>
+      </c>
+      <c r="K36">
+        <v>681</v>
+      </c>
+      <c r="L36">
+        <v>690</v>
+      </c>
+      <c r="M36">
+        <v>694</v>
+      </c>
+      <c r="N36">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37" s="3">
+        <v>165</v>
+      </c>
+      <c r="C37" s="3">
+        <v>180</v>
+      </c>
+      <c r="D37" s="3">
+        <v>181</v>
+      </c>
+      <c r="E37" s="3">
+        <v>155</v>
+      </c>
+      <c r="F37" s="3">
+        <v>136</v>
+      </c>
+      <c r="G37" s="3">
+        <v>150</v>
+      </c>
+      <c r="H37" s="3">
+        <v>144</v>
+      </c>
+      <c r="I37" s="3">
+        <v>139</v>
+      </c>
+      <c r="J37" s="3">
+        <v>139</v>
+      </c>
+      <c r="K37" s="3">
+        <v>129</v>
+      </c>
+      <c r="L37" s="3">
+        <v>141</v>
+      </c>
+      <c r="M37" s="3">
+        <v>129</v>
+      </c>
+      <c r="N37" s="3">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38">
+        <v>556</v>
+      </c>
+      <c r="C38">
+        <v>609</v>
+      </c>
+      <c r="D38">
+        <v>590</v>
+      </c>
+      <c r="E38">
+        <v>483</v>
+      </c>
+      <c r="F38">
+        <v>403</v>
+      </c>
+      <c r="G38">
+        <v>415</v>
+      </c>
+      <c r="H38">
+        <v>373</v>
+      </c>
+      <c r="I38">
+        <v>383</v>
+      </c>
+      <c r="J38">
+        <v>360</v>
+      </c>
+      <c r="K38">
+        <v>413</v>
+      </c>
+      <c r="L38">
+        <v>432</v>
+      </c>
+      <c r="M38">
+        <v>385</v>
+      </c>
+      <c r="N38">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39" s="3">
+        <v>24</v>
+      </c>
+      <c r="C39" s="3">
+        <v>48</v>
+      </c>
+      <c r="D39" s="3">
+        <v>63</v>
+      </c>
+      <c r="E39" s="3">
+        <v>28</v>
+      </c>
+      <c r="F39" s="3">
+        <v>19</v>
+      </c>
+      <c r="G39" s="3">
+        <v>18</v>
+      </c>
+      <c r="H39" s="3">
+        <v>18</v>
+      </c>
+      <c r="I39" s="3">
+        <v>19</v>
+      </c>
+      <c r="J39" s="3">
+        <v>13</v>
+      </c>
+      <c r="K39" s="3">
+        <v>18</v>
+      </c>
+      <c r="L39" s="3">
+        <v>18</v>
+      </c>
+      <c r="M39" s="3">
+        <v>18</v>
+      </c>
+      <c r="N39" s="3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40">
+        <v>24</v>
+      </c>
+      <c r="C40">
+        <v>30</v>
+      </c>
+      <c r="D40">
+        <v>32</v>
+      </c>
+      <c r="E40">
+        <v>22</v>
+      </c>
+      <c r="F40">
+        <v>26</v>
+      </c>
+      <c r="G40">
+        <v>37</v>
+      </c>
+      <c r="H40">
+        <v>27</v>
+      </c>
+      <c r="I40">
+        <v>28</v>
+      </c>
+      <c r="J40">
+        <v>24</v>
+      </c>
+      <c r="K40">
+        <v>25</v>
+      </c>
+      <c r="L40">
+        <v>46</v>
+      </c>
+      <c r="M40">
+        <v>35</v>
+      </c>
+      <c r="N40">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B41" s="3">
+        <v>140</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3">
+        <v>1</v>
+      </c>
+      <c r="E41" s="3">
+        <v>51</v>
+      </c>
+      <c r="F41" s="3">
+        <v>99</v>
+      </c>
+      <c r="G41" s="3">
+        <v>96</v>
+      </c>
+      <c r="H41" s="3">
+        <v>88</v>
+      </c>
+      <c r="I41" s="3">
+        <v>132</v>
+      </c>
+      <c r="J41" s="3">
+        <v>87</v>
+      </c>
+      <c r="K41" s="3">
+        <v>104</v>
+      </c>
+      <c r="L41" s="3">
+        <v>122</v>
+      </c>
+      <c r="M41" s="3">
+        <v>128</v>
+      </c>
+      <c r="N41" s="3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>67</v>
+      </c>
+      <c r="B42">
+        <v>367</v>
+      </c>
+      <c r="E42">
+        <v>6</v>
+      </c>
+      <c r="F42">
+        <v>328</v>
+      </c>
+      <c r="G42">
+        <v>333</v>
+      </c>
+      <c r="H42">
+        <v>356</v>
+      </c>
+      <c r="I42">
+        <v>362</v>
+      </c>
+      <c r="J42">
+        <v>342</v>
+      </c>
+      <c r="K42">
+        <v>366</v>
+      </c>
+      <c r="L42">
+        <v>373</v>
+      </c>
+      <c r="M42">
+        <v>373</v>
+      </c>
+      <c r="N42">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B43" s="3">
+        <v>43</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3">
+        <v>4</v>
+      </c>
+      <c r="F43" s="3">
+        <v>14</v>
+      </c>
+      <c r="G43" s="3">
+        <v>25</v>
+      </c>
+      <c r="H43" s="3">
+        <v>71</v>
+      </c>
+      <c r="I43" s="3">
+        <v>48</v>
+      </c>
+      <c r="J43" s="3">
+        <v>10</v>
+      </c>
+      <c r="K43" s="3">
+        <v>14</v>
+      </c>
+      <c r="L43" s="3">
+        <v>40</v>
+      </c>
+      <c r="M43" s="3">
+        <v>75</v>
+      </c>
+      <c r="N43" s="3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>69</v>
+      </c>
+      <c r="B44">
+        <v>148</v>
+      </c>
+      <c r="E44">
+        <v>19</v>
+      </c>
+      <c r="F44">
+        <v>84</v>
+      </c>
+      <c r="G44">
+        <v>68</v>
+      </c>
+      <c r="H44">
+        <v>59</v>
+      </c>
+      <c r="I44">
+        <v>98</v>
+      </c>
+      <c r="J44">
+        <v>53</v>
+      </c>
+      <c r="K44">
+        <v>117</v>
+      </c>
+      <c r="L44">
+        <v>111</v>
+      </c>
+      <c r="M44">
+        <v>101</v>
+      </c>
+      <c r="N44">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45" s="3">
+        <v>67</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3">
+        <v>8</v>
+      </c>
+      <c r="F45" s="3">
+        <v>86</v>
+      </c>
+      <c r="G45" s="3">
+        <v>86</v>
+      </c>
+      <c r="H45" s="3">
+        <v>93</v>
+      </c>
+      <c r="I45" s="3">
+        <v>89</v>
+      </c>
+      <c r="J45" s="3">
+        <v>70</v>
+      </c>
+      <c r="K45" s="3">
+        <v>73</v>
+      </c>
+      <c r="L45" s="3">
+        <v>68</v>
+      </c>
+      <c r="M45" s="3">
+        <v>69</v>
+      </c>
+      <c r="N45" s="3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>71</v>
+      </c>
+      <c r="B46">
+        <v>40</v>
+      </c>
+      <c r="C46">
+        <v>41</v>
+      </c>
+      <c r="D46">
+        <v>51</v>
+      </c>
+      <c r="E46">
+        <v>40</v>
+      </c>
+      <c r="F46">
+        <v>48</v>
+      </c>
+      <c r="G46">
+        <v>43</v>
+      </c>
+      <c r="H46">
+        <v>40</v>
+      </c>
+      <c r="I46">
+        <v>37</v>
+      </c>
+      <c r="J46">
+        <v>39</v>
+      </c>
+      <c r="K46">
+        <v>33</v>
+      </c>
+      <c r="L46">
+        <v>24</v>
+      </c>
+      <c r="M46">
+        <v>36</v>
+      </c>
+      <c r="N46">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B47" s="3">
+        <v>235</v>
+      </c>
+      <c r="C47" s="3">
+        <v>229</v>
+      </c>
+      <c r="D47" s="3">
+        <v>238</v>
+      </c>
+      <c r="E47" s="3">
+        <v>234</v>
+      </c>
+      <c r="F47" s="3">
+        <v>212</v>
+      </c>
+      <c r="G47" s="3">
+        <v>207</v>
+      </c>
+      <c r="H47" s="3">
+        <v>187</v>
+      </c>
+      <c r="I47" s="3">
+        <v>193</v>
+      </c>
+      <c r="J47" s="3">
+        <v>184</v>
+      </c>
+      <c r="K47" s="3">
+        <v>196</v>
+      </c>
+      <c r="L47" s="3">
+        <v>203</v>
+      </c>
+      <c r="M47" s="3">
+        <v>201</v>
+      </c>
+      <c r="N47" s="3">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>73</v>
+      </c>
+      <c r="B48">
+        <v>329</v>
+      </c>
+      <c r="C48">
+        <v>309</v>
+      </c>
+      <c r="D48">
+        <v>340</v>
+      </c>
+      <c r="E48">
+        <v>309</v>
+      </c>
+      <c r="F48">
+        <v>274</v>
+      </c>
+      <c r="G48">
+        <v>295</v>
+      </c>
+      <c r="H48">
+        <v>279</v>
+      </c>
+      <c r="I48">
+        <v>271</v>
+      </c>
+      <c r="J48">
+        <v>255</v>
+      </c>
+      <c r="K48">
+        <v>270</v>
+      </c>
+      <c r="L48">
+        <v>284</v>
+      </c>
+      <c r="M48">
+        <v>286</v>
+      </c>
+      <c r="N48">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B49" s="3">
+        <v>313</v>
+      </c>
+      <c r="C49" s="3">
+        <v>343</v>
+      </c>
+      <c r="D49" s="3">
+        <v>368</v>
+      </c>
+      <c r="E49" s="3">
+        <v>331</v>
+      </c>
+      <c r="F49" s="3">
+        <v>253</v>
+      </c>
+      <c r="G49" s="3">
+        <v>274</v>
+      </c>
+      <c r="H49" s="3">
+        <v>250</v>
+      </c>
+      <c r="I49" s="3">
+        <v>234</v>
+      </c>
+      <c r="J49" s="3">
+        <v>216</v>
+      </c>
+      <c r="K49" s="3">
+        <v>226</v>
+      </c>
+      <c r="L49" s="3">
+        <v>239</v>
+      </c>
+      <c r="M49" s="3">
+        <v>232</v>
+      </c>
+      <c r="N49" s="3">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>75</v>
+      </c>
+      <c r="B50">
+        <v>224</v>
+      </c>
+      <c r="C50">
+        <v>209</v>
+      </c>
+      <c r="D50">
+        <v>212</v>
+      </c>
+      <c r="E50">
+        <v>201</v>
+      </c>
+      <c r="F50">
+        <v>180</v>
+      </c>
+      <c r="G50">
+        <v>181</v>
+      </c>
+      <c r="H50">
+        <v>167</v>
+      </c>
+      <c r="I50">
+        <v>174</v>
+      </c>
+      <c r="J50">
+        <v>171</v>
+      </c>
+      <c r="K50">
+        <v>171</v>
+      </c>
+      <c r="L50">
+        <v>184</v>
+      </c>
+      <c r="M50">
+        <v>174</v>
+      </c>
+      <c r="N50">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B51" s="3">
+        <v>595</v>
+      </c>
+      <c r="C51" s="3">
+        <v>628</v>
+      </c>
+      <c r="D51" s="3">
+        <v>645</v>
+      </c>
+      <c r="E51" s="3">
+        <v>556</v>
+      </c>
+      <c r="F51" s="3">
+        <v>472</v>
+      </c>
+      <c r="G51" s="3">
+        <v>486</v>
+      </c>
+      <c r="H51" s="3">
+        <v>406</v>
+      </c>
+      <c r="I51" s="3">
+        <v>409</v>
+      </c>
+      <c r="J51" s="3">
+        <v>407</v>
+      </c>
+      <c r="K51" s="3">
+        <v>419</v>
+      </c>
+      <c r="L51" s="3">
+        <v>413</v>
+      </c>
+      <c r="M51" s="3">
+        <v>380</v>
+      </c>
+      <c r="N51" s="3">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>77</v>
+      </c>
+      <c r="B52">
+        <v>82</v>
+      </c>
+      <c r="C52">
+        <v>74</v>
+      </c>
+      <c r="D52">
+        <v>79</v>
+      </c>
+      <c r="E52">
+        <v>72</v>
+      </c>
+      <c r="F52">
+        <v>70</v>
+      </c>
+      <c r="G52">
+        <v>69</v>
+      </c>
+      <c r="H52">
+        <v>56</v>
+      </c>
+      <c r="I52">
+        <v>63</v>
+      </c>
+      <c r="J52">
+        <v>67</v>
+      </c>
+      <c r="K52">
+        <v>56</v>
+      </c>
+      <c r="L52">
+        <v>64</v>
+      </c>
+      <c r="M52">
+        <v>70</v>
+      </c>
+      <c r="N52">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B53" s="3">
+        <v>200</v>
+      </c>
+      <c r="C53" s="3">
+        <v>198</v>
+      </c>
+      <c r="D53" s="3">
+        <v>217</v>
+      </c>
+      <c r="E53" s="3">
+        <v>224</v>
+      </c>
+      <c r="F53" s="3">
+        <v>150</v>
+      </c>
+      <c r="G53" s="3">
+        <v>168</v>
+      </c>
+      <c r="H53" s="3">
+        <v>150</v>
+      </c>
+      <c r="I53" s="3">
+        <v>137</v>
+      </c>
+      <c r="J53" s="3">
+        <v>143</v>
+      </c>
+      <c r="K53" s="3">
+        <v>166</v>
+      </c>
+      <c r="L53" s="3">
+        <v>145</v>
+      </c>
+      <c r="M53" s="3">
+        <v>144</v>
+      </c>
+      <c r="N53" s="3">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>79</v>
+      </c>
+      <c r="B54">
+        <v>33</v>
+      </c>
+      <c r="C54">
+        <v>30</v>
+      </c>
+      <c r="D54">
+        <v>42</v>
+      </c>
+      <c r="E54">
+        <v>50</v>
+      </c>
+      <c r="F54">
+        <v>25</v>
+      </c>
+      <c r="G54">
+        <v>31</v>
+      </c>
+      <c r="H54">
+        <v>23</v>
+      </c>
+      <c r="I54">
+        <v>22</v>
+      </c>
+      <c r="J54">
+        <v>28</v>
+      </c>
+      <c r="K54">
+        <v>25</v>
+      </c>
+      <c r="L54">
+        <v>22</v>
+      </c>
+      <c r="M54">
+        <v>32</v>
+      </c>
+      <c r="N54">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B55" s="3">
+        <v>42</v>
+      </c>
+      <c r="C55" s="3">
+        <v>43</v>
+      </c>
+      <c r="D55" s="3">
+        <v>49</v>
+      </c>
+      <c r="E55" s="3">
+        <v>33</v>
+      </c>
+      <c r="F55" s="3">
+        <v>38</v>
+      </c>
+      <c r="G55" s="3">
+        <v>38</v>
+      </c>
+      <c r="H55" s="3">
+        <v>26</v>
+      </c>
+      <c r="I55" s="3">
+        <v>30</v>
+      </c>
+      <c r="J55" s="3">
+        <v>29</v>
+      </c>
+      <c r="K55" s="3">
+        <v>31</v>
+      </c>
+      <c r="L55" s="3">
+        <v>36</v>
+      </c>
+      <c r="M55" s="3">
+        <v>40</v>
+      </c>
+      <c r="N55" s="3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>81</v>
+      </c>
+      <c r="B56">
+        <v>55</v>
+      </c>
+      <c r="C56">
+        <v>62</v>
+      </c>
+      <c r="D56">
+        <v>73</v>
+      </c>
+      <c r="E56">
+        <v>71</v>
+      </c>
+      <c r="F56">
+        <v>63</v>
+      </c>
+      <c r="G56">
+        <v>67</v>
+      </c>
+      <c r="H56">
+        <v>63</v>
+      </c>
+      <c r="I56">
+        <v>65</v>
+      </c>
+      <c r="J56">
+        <v>56</v>
+      </c>
+      <c r="K56">
+        <v>46</v>
+      </c>
+      <c r="L56">
+        <v>48</v>
+      </c>
+      <c r="M56">
+        <v>50</v>
+      </c>
+      <c r="N56">
+        <v>216</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:N56"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
@@ -12138,40 +16956,40 @@
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>27</v>
@@ -12182,43 +17000,43 @@
         <v>28</v>
       </c>
       <c r="B3" s="3">
+        <v>591</v>
+      </c>
+      <c r="C3" s="3">
+        <v>648</v>
+      </c>
+      <c r="D3" s="3">
         <v>669</v>
       </c>
-      <c r="C3" s="3">
+      <c r="E3" s="3">
         <v>749</v>
       </c>
-      <c r="D3" s="3">
+      <c r="F3" s="3">
         <v>605</v>
       </c>
-      <c r="E3" s="3">
+      <c r="G3" s="3">
         <v>568</v>
       </c>
-      <c r="F3" s="3">
+      <c r="H3" s="3">
         <v>579</v>
       </c>
-      <c r="G3" s="3">
+      <c r="I3" s="3">
         <v>509</v>
       </c>
-      <c r="H3" s="3">
+      <c r="J3" s="3">
         <v>537</v>
       </c>
-      <c r="I3" s="3">
+      <c r="K3" s="3">
         <v>535</v>
       </c>
-      <c r="J3" s="3">
+      <c r="L3" s="3">
         <v>552</v>
       </c>
-      <c r="K3" s="3">
+      <c r="M3" s="3">
         <v>522</v>
       </c>
-      <c r="L3" s="3">
-        <v>516</v>
-      </c>
-      <c r="M3" s="3">
-        <v>585</v>
-      </c>
       <c r="N3" s="3">
-        <v>1808</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -12226,43 +17044,43 @@
         <v>29</v>
       </c>
       <c r="B4">
+        <v>331</v>
+      </c>
+      <c r="C4">
+        <v>351</v>
+      </c>
+      <c r="D4">
         <v>372</v>
       </c>
-      <c r="C4">
+      <c r="E4">
         <v>409</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <v>327</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>305</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>313</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>265</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>258</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>254</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>276</v>
-      </c>
-      <c r="K4">
-        <v>277</v>
-      </c>
-      <c r="L4">
-        <v>261</v>
       </c>
       <c r="M4">
         <v>277</v>
       </c>
       <c r="N4">
-        <v>990</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -12270,43 +17088,43 @@
         <v>30</v>
       </c>
       <c r="B5" s="3">
+        <v>897</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1034</v>
+      </c>
+      <c r="D5" s="3">
         <v>1072</v>
       </c>
-      <c r="C5" s="3">
+      <c r="E5" s="3">
         <v>1119</v>
       </c>
-      <c r="D5" s="3">
+      <c r="F5" s="3">
         <v>899</v>
       </c>
-      <c r="E5" s="3">
+      <c r="G5" s="3">
         <v>831</v>
       </c>
-      <c r="F5" s="3">
+      <c r="H5" s="3">
         <v>885</v>
       </c>
-      <c r="G5" s="3">
+      <c r="I5" s="3">
         <v>806</v>
       </c>
-      <c r="H5" s="3">
+      <c r="J5" s="3">
         <v>827</v>
       </c>
-      <c r="I5" s="3">
+      <c r="K5" s="3">
         <v>750</v>
-      </c>
-      <c r="J5" s="3">
-        <v>828</v>
-      </c>
-      <c r="K5" s="3">
-        <v>857</v>
       </c>
       <c r="L5" s="3">
         <v>828</v>
       </c>
       <c r="M5" s="3">
-        <v>889</v>
+        <v>857</v>
       </c>
       <c r="N5" s="3">
-        <v>2680</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -12314,43 +17132,43 @@
         <v>31</v>
       </c>
       <c r="B6">
+        <v>24</v>
+      </c>
+      <c r="C6">
+        <v>33</v>
+      </c>
+      <c r="D6">
         <v>29</v>
       </c>
-      <c r="C6">
+      <c r="E6">
         <v>32</v>
       </c>
-      <c r="D6">
+      <c r="F6">
         <v>17</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>22</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>19</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>12</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>15</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>21</v>
-      </c>
-      <c r="J6">
-        <v>21</v>
-      </c>
-      <c r="K6">
-        <v>24</v>
       </c>
       <c r="L6">
         <v>21</v>
       </c>
       <c r="M6">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N6">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -12358,43 +17176,43 @@
         <v>32</v>
       </c>
       <c r="B7" s="3">
+        <v>641</v>
+      </c>
+      <c r="C7" s="3">
+        <v>721</v>
+      </c>
+      <c r="D7" s="3">
         <v>800</v>
       </c>
-      <c r="C7" s="3">
+      <c r="E7" s="3">
         <v>806</v>
       </c>
-      <c r="D7" s="3">
+      <c r="F7" s="3">
         <v>605</v>
-      </c>
-      <c r="E7" s="3">
-        <v>561</v>
-      </c>
-      <c r="F7" s="3">
-        <v>617</v>
       </c>
       <c r="G7" s="3">
         <v>561</v>
       </c>
       <c r="H7" s="3">
+        <v>617</v>
+      </c>
+      <c r="I7" s="3">
+        <v>561</v>
+      </c>
+      <c r="J7" s="3">
         <v>583</v>
       </c>
-      <c r="I7" s="3">
+      <c r="K7" s="3">
         <v>564</v>
       </c>
-      <c r="J7" s="3">
+      <c r="L7" s="3">
         <v>563</v>
       </c>
-      <c r="K7" s="3">
+      <c r="M7" s="3">
         <v>603</v>
       </c>
-      <c r="L7" s="3">
-        <v>581</v>
-      </c>
-      <c r="M7" s="3">
-        <v>665</v>
-      </c>
       <c r="N7" s="3">
-        <v>2214</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -12402,43 +17220,43 @@
         <v>33</v>
       </c>
       <c r="B8">
+        <v>108</v>
+      </c>
+      <c r="C8">
+        <v>105</v>
+      </c>
+      <c r="D8">
         <v>85</v>
       </c>
-      <c r="C8">
+      <c r="E8">
         <v>79</v>
       </c>
-      <c r="D8">
+      <c r="F8">
         <v>64</v>
       </c>
-      <c r="E8">
+      <c r="G8">
         <v>69</v>
       </c>
-      <c r="F8">
+      <c r="H8">
         <v>73</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <v>66</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>72</v>
       </c>
-      <c r="I8">
+      <c r="K8">
         <v>78</v>
       </c>
-      <c r="J8">
+      <c r="L8">
         <v>70</v>
       </c>
-      <c r="K8">
+      <c r="M8">
         <v>64</v>
       </c>
-      <c r="L8">
-        <v>73</v>
-      </c>
-      <c r="M8">
-        <v>72</v>
-      </c>
       <c r="N8">
-        <v>235</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -12446,43 +17264,43 @@
         <v>34</v>
       </c>
       <c r="B9" s="3">
+        <v>112</v>
+      </c>
+      <c r="C9" s="3">
+        <v>123</v>
+      </c>
+      <c r="D9" s="3">
         <v>120</v>
       </c>
-      <c r="C9" s="3">
+      <c r="E9" s="3">
         <v>126</v>
       </c>
-      <c r="D9" s="3">
+      <c r="F9" s="3">
         <v>108</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>103</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>124</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>93</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>104</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>99</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>99</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>105</v>
       </c>
-      <c r="L9" s="3">
-        <v>96</v>
-      </c>
-      <c r="M9" s="3">
-        <v>42</v>
-      </c>
       <c r="N9" s="3">
-        <v>348</v>
+        <v>381</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -12490,43 +17308,43 @@
         <v>35</v>
       </c>
       <c r="B10">
+        <v>44</v>
+      </c>
+      <c r="C10">
+        <v>45</v>
+      </c>
+      <c r="D10">
         <v>48</v>
       </c>
-      <c r="C10">
+      <c r="E10">
         <v>67</v>
       </c>
-      <c r="D10">
+      <c r="F10">
         <v>40</v>
       </c>
-      <c r="E10">
+      <c r="G10">
         <v>40</v>
       </c>
-      <c r="F10">
+      <c r="H10">
         <v>44</v>
-      </c>
-      <c r="G10">
-        <v>35</v>
-      </c>
-      <c r="H10">
-        <v>33</v>
       </c>
       <c r="I10">
         <v>35</v>
       </c>
       <c r="J10">
+        <v>33</v>
+      </c>
+      <c r="K10">
+        <v>35</v>
+      </c>
+      <c r="L10">
         <v>31</v>
       </c>
-      <c r="K10">
+      <c r="M10">
         <v>42</v>
       </c>
-      <c r="L10">
-        <v>43</v>
-      </c>
-      <c r="M10">
-        <v>39</v>
-      </c>
       <c r="N10">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -12534,50 +17352,50 @@
         <v>36</v>
       </c>
       <c r="B11" s="3">
+        <v>6</v>
+      </c>
+      <c r="C11" s="3">
+        <v>7</v>
+      </c>
+      <c r="D11" s="3">
         <v>13</v>
       </c>
-      <c r="C11" s="3">
+      <c r="E11" s="3">
         <v>42</v>
       </c>
-      <c r="D11" s="3">
+      <c r="F11" s="3">
         <v>4</v>
       </c>
-      <c r="E11" s="3">
+      <c r="G11" s="3">
         <v>9</v>
       </c>
-      <c r="F11" s="3">
+      <c r="H11" s="3">
         <v>3</v>
       </c>
-      <c r="G11" s="3">
+      <c r="I11" s="3">
         <v>1</v>
-      </c>
-      <c r="H11" s="3">
-        <v>6</v>
-      </c>
-      <c r="I11" s="3">
-        <v>4</v>
       </c>
       <c r="J11" s="3">
         <v>6</v>
       </c>
       <c r="K11" s="3">
+        <v>4</v>
+      </c>
+      <c r="L11" s="3">
+        <v>6</v>
+      </c>
+      <c r="M11" s="3">
         <v>8</v>
       </c>
-      <c r="L11" s="3">
-        <v>3</v>
-      </c>
-      <c r="M11" s="3">
-        <v>5</v>
-      </c>
       <c r="N11" s="3">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>37</v>
       </c>
-      <c r="J12">
+      <c r="L12">
         <v>1</v>
       </c>
       <c r="N12">
@@ -12589,43 +17407,43 @@
         <v>38</v>
       </c>
       <c r="B13" s="3">
+        <v>21</v>
+      </c>
+      <c r="C13" s="3">
+        <v>31</v>
+      </c>
+      <c r="D13" s="3">
         <v>26</v>
       </c>
-      <c r="C13" s="3">
+      <c r="E13" s="3">
         <v>26</v>
       </c>
-      <c r="D13" s="3">
+      <c r="F13" s="3">
         <v>27</v>
       </c>
-      <c r="E13" s="3">
+      <c r="G13" s="3">
         <v>17</v>
       </c>
-      <c r="F13" s="3">
+      <c r="H13" s="3">
         <v>26</v>
       </c>
-      <c r="G13" s="3">
+      <c r="I13" s="3">
         <v>16</v>
       </c>
-      <c r="H13" s="3">
+      <c r="J13" s="3">
         <v>20</v>
       </c>
-      <c r="I13" s="3">
+      <c r="K13" s="3">
         <v>23</v>
       </c>
-      <c r="J13" s="3">
+      <c r="L13" s="3">
         <v>25</v>
       </c>
-      <c r="K13" s="3">
+      <c r="M13" s="3">
         <v>22</v>
       </c>
-      <c r="L13" s="3">
-        <v>21</v>
-      </c>
-      <c r="M13" s="3">
-        <v>27</v>
-      </c>
       <c r="N13" s="3">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -12633,43 +17451,43 @@
         <v>39</v>
       </c>
       <c r="B14">
+        <v>48</v>
+      </c>
+      <c r="C14">
+        <v>69</v>
+      </c>
+      <c r="D14">
         <v>62</v>
       </c>
-      <c r="C14">
+      <c r="E14">
         <v>68</v>
       </c>
-      <c r="D14">
+      <c r="F14">
         <v>61</v>
       </c>
-      <c r="E14">
+      <c r="G14">
         <v>50</v>
       </c>
-      <c r="F14">
+      <c r="H14">
         <v>45</v>
       </c>
-      <c r="G14">
+      <c r="I14">
         <v>46</v>
       </c>
-      <c r="H14">
+      <c r="J14">
         <v>41</v>
       </c>
-      <c r="I14">
+      <c r="K14">
         <v>44</v>
       </c>
-      <c r="J14">
+      <c r="L14">
         <v>55</v>
       </c>
-      <c r="K14">
+      <c r="M14">
         <v>55</v>
       </c>
-      <c r="L14">
-        <v>57</v>
-      </c>
-      <c r="M14">
-        <v>61</v>
-      </c>
       <c r="N14">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -12677,43 +17495,43 @@
         <v>40</v>
       </c>
       <c r="B15" s="3">
+        <v>145</v>
+      </c>
+      <c r="C15" s="3">
+        <v>154</v>
+      </c>
+      <c r="D15" s="3">
         <v>160</v>
       </c>
-      <c r="C15" s="3">
+      <c r="E15" s="3">
         <v>146</v>
       </c>
-      <c r="D15" s="3">
+      <c r="F15" s="3">
         <v>116</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>115</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>117</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>96</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>96</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>93</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>108</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>115</v>
       </c>
-      <c r="L15" s="3">
-        <v>124</v>
-      </c>
-      <c r="M15" s="3">
-        <v>132</v>
-      </c>
       <c r="N15" s="3">
-        <v>408</v>
+        <v>418</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -12721,43 +17539,43 @@
         <v>41</v>
       </c>
       <c r="B16">
+        <v>57</v>
+      </c>
+      <c r="C16">
+        <v>63</v>
+      </c>
+      <c r="D16">
         <v>66</v>
       </c>
-      <c r="C16">
+      <c r="E16">
         <v>84</v>
       </c>
-      <c r="D16">
+      <c r="F16">
         <v>65</v>
       </c>
-      <c r="E16">
+      <c r="G16">
         <v>65</v>
       </c>
-      <c r="F16">
+      <c r="H16">
         <v>64</v>
       </c>
-      <c r="G16">
+      <c r="I16">
         <v>53</v>
       </c>
-      <c r="H16">
+      <c r="J16">
         <v>63</v>
       </c>
-      <c r="I16">
+      <c r="K16">
         <v>43</v>
       </c>
-      <c r="J16">
+      <c r="L16">
         <v>62</v>
       </c>
-      <c r="K16">
+      <c r="M16">
         <v>61</v>
       </c>
-      <c r="L16">
-        <v>60</v>
-      </c>
-      <c r="M16">
-        <v>68</v>
-      </c>
       <c r="N16">
-        <v>200</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -12765,43 +17583,43 @@
         <v>42</v>
       </c>
       <c r="B17" s="3">
+        <v>44</v>
+      </c>
+      <c r="C17" s="3">
+        <v>41</v>
+      </c>
+      <c r="D17" s="3">
         <v>46</v>
       </c>
-      <c r="C17" s="3">
+      <c r="E17" s="3">
         <v>46</v>
       </c>
-      <c r="D17" s="3">
+      <c r="F17" s="3">
         <v>28</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>28</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>27</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>23</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>29</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>30</v>
-      </c>
-      <c r="J17" s="3">
-        <v>27</v>
-      </c>
-      <c r="K17" s="3">
-        <v>26</v>
       </c>
       <c r="L17" s="3">
         <v>27</v>
       </c>
       <c r="M17" s="3">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N17" s="3">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -12809,43 +17627,43 @@
         <v>43</v>
       </c>
       <c r="B18">
+        <v>237</v>
+      </c>
+      <c r="C18">
+        <v>239</v>
+      </c>
+      <c r="D18">
         <v>257</v>
       </c>
-      <c r="C18">
+      <c r="E18">
         <v>247</v>
       </c>
-      <c r="D18">
+      <c r="F18">
         <v>237</v>
       </c>
-      <c r="E18">
+      <c r="G18">
         <v>183</v>
       </c>
-      <c r="F18">
+      <c r="H18">
         <v>189</v>
       </c>
-      <c r="G18">
+      <c r="I18">
         <v>177</v>
       </c>
-      <c r="H18">
+      <c r="J18">
         <v>186</v>
       </c>
-      <c r="I18">
+      <c r="K18">
         <v>180</v>
       </c>
-      <c r="J18">
+      <c r="L18">
         <v>175</v>
       </c>
-      <c r="K18">
+      <c r="M18">
         <v>203</v>
       </c>
-      <c r="L18">
-        <v>192</v>
-      </c>
-      <c r="M18">
-        <v>204</v>
-      </c>
       <c r="N18">
-        <v>609</v>
+        <v>634</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -12853,13 +17671,13 @@
         <v>44</v>
       </c>
       <c r="B19" s="3">
+        <v>29</v>
+      </c>
+      <c r="C19" s="3">
         <v>19</v>
       </c>
-      <c r="C19" s="3">
-        <v>22</v>
-      </c>
       <c r="D19" s="3">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E19" s="3">
         <v>22</v>
@@ -12868,28 +17686,28 @@
         <v>22</v>
       </c>
       <c r="G19" s="3">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H19" s="3">
         <v>22</v>
       </c>
       <c r="I19" s="3">
+        <v>23</v>
+      </c>
+      <c r="J19" s="3">
         <v>22</v>
       </c>
-      <c r="J19" s="3">
+      <c r="K19" s="3">
+        <v>22</v>
+      </c>
+      <c r="L19" s="3">
         <v>21</v>
       </c>
-      <c r="K19" s="3">
+      <c r="M19" s="3">
         <v>25</v>
       </c>
-      <c r="L19" s="3">
-        <v>20</v>
-      </c>
-      <c r="M19" s="3">
-        <v>20</v>
-      </c>
       <c r="N19" s="3">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -12897,43 +17715,43 @@
         <v>45</v>
       </c>
       <c r="B20">
+        <v>308</v>
+      </c>
+      <c r="C20">
+        <v>354</v>
+      </c>
+      <c r="D20">
         <v>359</v>
       </c>
-      <c r="C20">
+      <c r="E20">
         <v>363</v>
       </c>
-      <c r="D20">
+      <c r="F20">
         <v>332</v>
       </c>
-      <c r="E20">
+      <c r="G20">
         <v>297</v>
       </c>
-      <c r="F20">
+      <c r="H20">
         <v>333</v>
       </c>
-      <c r="G20">
+      <c r="I20">
         <v>279</v>
       </c>
-      <c r="H20">
+      <c r="J20">
         <v>274</v>
       </c>
-      <c r="I20">
+      <c r="K20">
         <v>281</v>
       </c>
-      <c r="J20">
+      <c r="L20">
         <v>288</v>
       </c>
-      <c r="K20">
+      <c r="M20">
         <v>342</v>
       </c>
-      <c r="L20">
-        <v>341</v>
-      </c>
-      <c r="M20">
-        <v>366</v>
-      </c>
       <c r="N20">
-        <v>971</v>
+        <v>941</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -12941,43 +17759,43 @@
         <v>46</v>
       </c>
       <c r="B21" s="3">
+        <v>50</v>
+      </c>
+      <c r="C21" s="3">
+        <v>27</v>
+      </c>
+      <c r="D21" s="3">
         <v>4</v>
       </c>
-      <c r="C21" s="3">
+      <c r="E21" s="3">
         <v>7</v>
       </c>
-      <c r="D21" s="3">
+      <c r="F21" s="3">
         <v>14</v>
-      </c>
-      <c r="E21" s="3">
-        <v>13</v>
-      </c>
-      <c r="F21" s="3">
-        <v>20</v>
       </c>
       <c r="G21" s="3">
         <v>13</v>
       </c>
       <c r="H21" s="3">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="I21" s="3">
         <v>13</v>
       </c>
       <c r="J21" s="3">
+        <v>9</v>
+      </c>
+      <c r="K21" s="3">
+        <v>13</v>
+      </c>
+      <c r="L21" s="3">
         <v>27</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>39</v>
       </c>
-      <c r="L21" s="3">
-        <v>29</v>
-      </c>
-      <c r="M21" s="3">
-        <v>16</v>
-      </c>
       <c r="N21" s="3">
-        <v>119</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -12985,43 +17803,43 @@
         <v>47</v>
       </c>
       <c r="B22">
+        <v>362</v>
+      </c>
+      <c r="C22">
+        <v>408</v>
+      </c>
+      <c r="D22">
         <v>364</v>
       </c>
-      <c r="C22">
+      <c r="E22">
         <v>419</v>
       </c>
-      <c r="D22">
+      <c r="F22">
         <v>365</v>
       </c>
-      <c r="E22">
+      <c r="G22">
         <v>354</v>
       </c>
-      <c r="F22">
+      <c r="H22">
         <v>371</v>
       </c>
-      <c r="G22">
+      <c r="I22">
         <v>338</v>
       </c>
-      <c r="H22">
+      <c r="J22">
         <v>353</v>
       </c>
-      <c r="I22">
+      <c r="K22">
         <v>330</v>
       </c>
-      <c r="J22">
+      <c r="L22">
         <v>336</v>
       </c>
-      <c r="K22">
+      <c r="M22">
         <v>326</v>
       </c>
-      <c r="L22">
-        <v>329</v>
-      </c>
-      <c r="M22">
-        <v>330</v>
-      </c>
       <c r="N22">
-        <v>1142</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -13029,43 +17847,43 @@
         <v>48</v>
       </c>
       <c r="B23" s="3">
+        <v>28</v>
+      </c>
+      <c r="C23" s="3">
+        <v>54</v>
+      </c>
+      <c r="D23" s="3">
         <v>43</v>
       </c>
-      <c r="C23" s="3">
+      <c r="E23" s="3">
         <v>39</v>
       </c>
-      <c r="D23" s="3">
+      <c r="F23" s="3">
         <v>26</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>22</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>23</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>28</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>24</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>27</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>37</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>38</v>
       </c>
-      <c r="L23" s="3">
-        <v>38</v>
-      </c>
-      <c r="M23" s="3">
-        <v>44</v>
-      </c>
       <c r="N23" s="3">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -13073,43 +17891,43 @@
         <v>49</v>
       </c>
       <c r="B24">
+        <v>370</v>
+      </c>
+      <c r="C24">
+        <v>419</v>
+      </c>
+      <c r="D24">
         <v>430</v>
       </c>
-      <c r="C24">
+      <c r="E24">
         <v>443</v>
       </c>
-      <c r="D24">
+      <c r="F24">
         <v>337</v>
       </c>
-      <c r="E24">
+      <c r="G24">
         <v>309</v>
       </c>
-      <c r="F24">
+      <c r="H24">
         <v>321</v>
       </c>
-      <c r="G24">
+      <c r="I24">
         <v>205</v>
       </c>
-      <c r="H24">
+      <c r="J24">
         <v>322</v>
       </c>
-      <c r="I24">
+      <c r="K24">
         <v>281</v>
       </c>
-      <c r="J24">
+      <c r="L24">
         <v>307</v>
       </c>
-      <c r="K24">
+      <c r="M24">
         <v>297</v>
       </c>
-      <c r="L24">
-        <v>296</v>
-      </c>
-      <c r="M24">
-        <v>360</v>
-      </c>
       <c r="N24">
-        <v>1172</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -13117,43 +17935,43 @@
         <v>50</v>
       </c>
       <c r="B25" s="3">
+        <v>978</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1181</v>
+      </c>
+      <c r="D25" s="3">
         <v>1148</v>
       </c>
-      <c r="C25" s="3">
+      <c r="E25" s="3">
         <v>1084</v>
       </c>
-      <c r="D25" s="3">
+      <c r="F25" s="3">
         <v>940</v>
       </c>
-      <c r="E25" s="3">
+      <c r="G25" s="3">
         <v>940</v>
       </c>
-      <c r="F25" s="3">
+      <c r="H25" s="3">
         <v>1015</v>
       </c>
-      <c r="G25" s="3">
+      <c r="I25" s="3">
         <v>888</v>
       </c>
-      <c r="H25" s="3">
+      <c r="J25" s="3">
         <v>842</v>
       </c>
-      <c r="I25" s="3">
+      <c r="K25" s="3">
         <v>904</v>
       </c>
-      <c r="J25" s="3">
+      <c r="L25" s="3">
         <v>930</v>
       </c>
-      <c r="K25" s="3">
+      <c r="M25" s="3">
         <v>975</v>
       </c>
-      <c r="L25" s="3">
-        <v>952</v>
-      </c>
-      <c r="M25" s="3">
-        <v>1009</v>
-      </c>
       <c r="N25" s="3">
-        <v>3385</v>
+        <v>3415</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -13161,43 +17979,43 @@
         <v>51</v>
       </c>
       <c r="B26">
+        <v>77</v>
+      </c>
+      <c r="C26">
+        <v>78</v>
+      </c>
+      <c r="D26">
         <v>93</v>
       </c>
-      <c r="C26">
+      <c r="E26">
         <v>103</v>
       </c>
-      <c r="D26">
+      <c r="F26">
         <v>97</v>
       </c>
-      <c r="E26">
+      <c r="G26">
         <v>84</v>
       </c>
-      <c r="F26">
+      <c r="H26">
         <v>81</v>
       </c>
-      <c r="G26">
+      <c r="I26">
         <v>66</v>
       </c>
-      <c r="H26">
+      <c r="J26">
         <v>62</v>
       </c>
-      <c r="I26">
+      <c r="K26">
         <v>85</v>
       </c>
-      <c r="J26">
+      <c r="L26">
         <v>95</v>
       </c>
-      <c r="K26">
+      <c r="M26">
         <v>92</v>
       </c>
-      <c r="L26">
-        <v>91</v>
-      </c>
-      <c r="M26">
-        <v>96</v>
-      </c>
       <c r="N26">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -13223,43 +18041,43 @@
         <v>53</v>
       </c>
       <c r="B28">
+        <v>97</v>
+      </c>
+      <c r="C28">
+        <v>120</v>
+      </c>
+      <c r="D28">
         <v>114</v>
       </c>
-      <c r="C28">
+      <c r="E28">
         <v>127</v>
       </c>
-      <c r="D28">
+      <c r="F28">
         <v>112</v>
       </c>
-      <c r="E28">
+      <c r="G28">
         <v>104</v>
       </c>
-      <c r="F28">
+      <c r="H28">
         <v>102</v>
       </c>
-      <c r="G28">
+      <c r="I28">
         <v>90</v>
       </c>
-      <c r="H28">
+      <c r="J28">
         <v>94</v>
       </c>
-      <c r="I28">
+      <c r="K28">
         <v>106</v>
       </c>
-      <c r="J28">
+      <c r="L28">
         <v>103</v>
       </c>
-      <c r="K28">
+      <c r="M28">
         <v>102</v>
       </c>
-      <c r="L28">
-        <v>107</v>
-      </c>
-      <c r="M28">
-        <v>108</v>
-      </c>
       <c r="N28">
-        <v>338</v>
+        <v>324</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -13267,43 +18085,43 @@
         <v>54</v>
       </c>
       <c r="B29" s="3">
+        <v>51</v>
+      </c>
+      <c r="C29" s="3">
+        <v>38</v>
+      </c>
+      <c r="D29" s="3">
         <v>42</v>
       </c>
-      <c r="C29" s="3">
+      <c r="E29" s="3">
         <v>59</v>
-      </c>
-      <c r="D29" s="3">
-        <v>43</v>
-      </c>
-      <c r="E29" s="3">
-        <v>41</v>
       </c>
       <c r="F29" s="3">
         <v>43</v>
       </c>
       <c r="G29" s="3">
+        <v>41</v>
+      </c>
+      <c r="H29" s="3">
+        <v>43</v>
+      </c>
+      <c r="I29" s="3">
         <v>40</v>
       </c>
-      <c r="H29" s="3">
+      <c r="J29" s="3">
         <v>36</v>
-      </c>
-      <c r="I29" s="3">
-        <v>46</v>
-      </c>
-      <c r="J29" s="3">
-        <v>46</v>
       </c>
       <c r="K29" s="3">
         <v>46</v>
       </c>
       <c r="L29" s="3">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M29" s="3">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="N29" s="3">
-        <v>148</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -13311,43 +18129,43 @@
         <v>55</v>
       </c>
       <c r="B30">
+        <v>192</v>
+      </c>
+      <c r="C30">
+        <v>213</v>
+      </c>
+      <c r="D30">
         <v>222</v>
       </c>
-      <c r="C30">
+      <c r="E30">
         <v>285</v>
       </c>
-      <c r="D30">
+      <c r="F30">
         <v>231</v>
       </c>
-      <c r="E30">
+      <c r="G30">
         <v>192</v>
       </c>
-      <c r="F30">
+      <c r="H30">
         <v>196</v>
       </c>
-      <c r="G30">
+      <c r="I30">
         <v>184</v>
       </c>
-      <c r="H30">
+      <c r="J30">
         <v>192</v>
-      </c>
-      <c r="I30">
-        <v>190</v>
-      </c>
-      <c r="J30">
-        <v>189</v>
       </c>
       <c r="K30">
         <v>190</v>
       </c>
       <c r="L30">
-        <v>223</v>
+        <v>189</v>
       </c>
       <c r="M30">
-        <v>243</v>
+        <v>190</v>
       </c>
       <c r="N30">
-        <v>599</v>
+        <v>562</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -13355,43 +18173,43 @@
         <v>56</v>
       </c>
       <c r="B31" s="3">
+        <v>8</v>
+      </c>
+      <c r="C31" s="3">
+        <v>21</v>
+      </c>
+      <c r="D31" s="3">
         <v>35</v>
       </c>
-      <c r="C31" s="3">
+      <c r="E31" s="3">
         <v>14</v>
       </c>
-      <c r="D31" s="3">
+      <c r="F31" s="3">
         <v>10</v>
       </c>
-      <c r="E31" s="3">
+      <c r="G31" s="3">
         <v>11</v>
       </c>
-      <c r="F31" s="3">
+      <c r="H31" s="3">
         <v>9</v>
       </c>
-      <c r="G31" s="3">
+      <c r="I31" s="3">
         <v>14</v>
       </c>
-      <c r="H31" s="3">
+      <c r="J31" s="3">
         <v>10</v>
       </c>
-      <c r="I31" s="3">
+      <c r="K31" s="3">
         <v>11</v>
       </c>
-      <c r="J31" s="3">
+      <c r="L31" s="3">
         <v>17</v>
       </c>
-      <c r="K31" s="3">
+      <c r="M31" s="3">
         <v>7</v>
       </c>
-      <c r="L31" s="3">
-        <v>13</v>
-      </c>
-      <c r="M31" s="3">
-        <v>12</v>
-      </c>
       <c r="N31" s="3">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -13399,40 +18217,40 @@
         <v>57</v>
       </c>
       <c r="B32">
+        <v>38</v>
+      </c>
+      <c r="C32">
+        <v>55</v>
+      </c>
+      <c r="D32">
         <v>54</v>
       </c>
-      <c r="C32">
+      <c r="E32">
         <v>69</v>
       </c>
-      <c r="D32">
+      <c r="F32">
         <v>49</v>
       </c>
-      <c r="E32">
+      <c r="G32">
         <v>34</v>
       </c>
-      <c r="F32">
+      <c r="H32">
         <v>42</v>
-      </c>
-      <c r="G32">
-        <v>38</v>
-      </c>
-      <c r="H32">
-        <v>31</v>
       </c>
       <c r="I32">
         <v>38</v>
       </c>
       <c r="J32">
+        <v>31</v>
+      </c>
+      <c r="K32">
+        <v>38</v>
+      </c>
+      <c r="L32">
         <v>49</v>
       </c>
-      <c r="K32">
+      <c r="M32">
         <v>43</v>
-      </c>
-      <c r="L32">
-        <v>37</v>
-      </c>
-      <c r="M32">
-        <v>51</v>
       </c>
       <c r="N32">
         <v>157</v>
@@ -13443,43 +18261,43 @@
         <v>58</v>
       </c>
       <c r="B33" s="3">
+        <v>297</v>
+      </c>
+      <c r="C33" s="3">
+        <v>297</v>
+      </c>
+      <c r="D33" s="3">
         <v>319</v>
       </c>
-      <c r="C33" s="3">
+      <c r="E33" s="3">
         <v>344</v>
       </c>
-      <c r="D33" s="3">
+      <c r="F33" s="3">
         <v>312</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>287</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>298</v>
-      </c>
-      <c r="G33" s="3">
-        <v>272</v>
-      </c>
-      <c r="H33" s="3">
-        <v>268</v>
       </c>
       <c r="I33" s="3">
         <v>272</v>
       </c>
       <c r="J33" s="3">
+        <v>268</v>
+      </c>
+      <c r="K33" s="3">
+        <v>272</v>
+      </c>
+      <c r="L33" s="3">
         <v>271</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>298</v>
       </c>
-      <c r="L33" s="3">
-        <v>266</v>
-      </c>
-      <c r="M33" s="3">
-        <v>321</v>
-      </c>
       <c r="N33" s="3">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
@@ -13487,43 +18305,43 @@
         <v>59</v>
       </c>
       <c r="B34">
+        <v>224</v>
+      </c>
+      <c r="C34">
+        <v>267</v>
+      </c>
+      <c r="D34">
         <v>258</v>
       </c>
-      <c r="C34">
+      <c r="E34">
         <v>268</v>
       </c>
-      <c r="D34">
+      <c r="F34">
         <v>222</v>
       </c>
-      <c r="E34">
+      <c r="G34">
         <v>239</v>
       </c>
-      <c r="F34">
+      <c r="H34">
         <v>228</v>
       </c>
-      <c r="G34">
+      <c r="I34">
         <v>262</v>
       </c>
-      <c r="H34">
+      <c r="J34">
         <v>291</v>
       </c>
-      <c r="I34">
+      <c r="K34">
         <v>244</v>
       </c>
-      <c r="J34">
+      <c r="L34">
         <v>252</v>
       </c>
-      <c r="K34">
+      <c r="M34">
         <v>285</v>
       </c>
-      <c r="L34">
-        <v>234</v>
-      </c>
-      <c r="M34">
-        <v>210</v>
-      </c>
       <c r="N34">
-        <v>806</v>
+        <v>816</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
@@ -13531,43 +18349,43 @@
         <v>60</v>
       </c>
       <c r="B35" s="3">
+        <v>152</v>
+      </c>
+      <c r="C35" s="3">
+        <v>157</v>
+      </c>
+      <c r="D35" s="3">
         <v>165</v>
       </c>
-      <c r="C35" s="3">
+      <c r="E35" s="3">
         <v>174</v>
       </c>
-      <c r="D35" s="3">
+      <c r="F35" s="3">
         <v>146</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>147</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>142</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>130</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>143</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>145</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>144</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>141</v>
       </c>
-      <c r="L35" s="3">
-        <v>136</v>
-      </c>
-      <c r="M35" s="3">
-        <v>142</v>
-      </c>
       <c r="N35" s="3">
-        <v>433</v>
+        <v>425</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
@@ -13575,43 +18393,43 @@
         <v>61</v>
       </c>
       <c r="B36">
+        <v>783</v>
+      </c>
+      <c r="C36">
+        <v>900</v>
+      </c>
+      <c r="D36">
         <v>943</v>
       </c>
-      <c r="C36">
+      <c r="E36">
         <v>984</v>
       </c>
-      <c r="D36">
+      <c r="F36">
         <v>788</v>
       </c>
-      <c r="E36">
+      <c r="G36">
         <v>665</v>
       </c>
-      <c r="F36">
+      <c r="H36">
         <v>751</v>
       </c>
-      <c r="G36">
+      <c r="I36">
         <v>647</v>
       </c>
-      <c r="H36">
+      <c r="J36">
         <v>640</v>
       </c>
-      <c r="I36">
+      <c r="K36">
         <v>615</v>
       </c>
-      <c r="J36">
+      <c r="L36">
         <v>681</v>
       </c>
-      <c r="K36">
+      <c r="M36">
         <v>690</v>
       </c>
-      <c r="L36">
-        <v>694</v>
-      </c>
-      <c r="M36">
-        <v>749</v>
-      </c>
       <c r="N36">
-        <v>2441</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
@@ -13619,40 +18437,40 @@
         <v>62</v>
       </c>
       <c r="B37" s="3">
+        <v>153</v>
+      </c>
+      <c r="C37" s="3">
+        <v>165</v>
+      </c>
+      <c r="D37" s="3">
         <v>180</v>
       </c>
-      <c r="C37" s="3">
+      <c r="E37" s="3">
         <v>181</v>
       </c>
-      <c r="D37" s="3">
+      <c r="F37" s="3">
         <v>155</v>
       </c>
-      <c r="E37" s="3">
+      <c r="G37" s="3">
         <v>136</v>
       </c>
-      <c r="F37" s="3">
+      <c r="H37" s="3">
         <v>150</v>
       </c>
-      <c r="G37" s="3">
+      <c r="I37" s="3">
         <v>144</v>
       </c>
-      <c r="H37" s="3">
+      <c r="J37" s="3">
         <v>139</v>
       </c>
-      <c r="I37" s="3">
+      <c r="K37" s="3">
         <v>139</v>
-      </c>
-      <c r="J37" s="3">
-        <v>129</v>
-      </c>
-      <c r="K37" s="3">
-        <v>141</v>
       </c>
       <c r="L37" s="3">
         <v>129</v>
       </c>
       <c r="M37" s="3">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="N37" s="3">
         <v>432</v>
@@ -13663,43 +18481,43 @@
         <v>63</v>
       </c>
       <c r="B38">
+        <v>522</v>
+      </c>
+      <c r="C38">
+        <v>556</v>
+      </c>
+      <c r="D38">
         <v>609</v>
       </c>
-      <c r="C38">
+      <c r="E38">
         <v>590</v>
       </c>
-      <c r="D38">
+      <c r="F38">
         <v>483</v>
       </c>
-      <c r="E38">
+      <c r="G38">
         <v>403</v>
       </c>
-      <c r="F38">
+      <c r="H38">
         <v>415</v>
       </c>
-      <c r="G38">
+      <c r="I38">
         <v>373</v>
       </c>
-      <c r="H38">
+      <c r="J38">
         <v>383</v>
       </c>
-      <c r="I38">
+      <c r="K38">
         <v>360</v>
       </c>
-      <c r="J38">
+      <c r="L38">
         <v>413</v>
       </c>
-      <c r="K38">
+      <c r="M38">
         <v>432</v>
       </c>
-      <c r="L38">
-        <v>385</v>
-      </c>
-      <c r="M38">
-        <v>430</v>
-      </c>
       <c r="N38">
-        <v>1586</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
@@ -13707,40 +18525,40 @@
         <v>64</v>
       </c>
       <c r="B39" s="3">
+        <v>21</v>
+      </c>
+      <c r="C39" s="3">
+        <v>24</v>
+      </c>
+      <c r="D39" s="3">
         <v>48</v>
       </c>
-      <c r="C39" s="3">
+      <c r="E39" s="3">
         <v>63</v>
       </c>
-      <c r="D39" s="3">
+      <c r="F39" s="3">
         <v>28</v>
       </c>
-      <c r="E39" s="3">
+      <c r="G39" s="3">
         <v>19</v>
       </c>
-      <c r="F39" s="3">
+      <c r="H39" s="3">
         <v>18</v>
       </c>
-      <c r="G39" s="3">
+      <c r="I39" s="3">
         <v>18</v>
       </c>
-      <c r="H39" s="3">
+      <c r="J39" s="3">
         <v>19</v>
       </c>
-      <c r="I39" s="3">
+      <c r="K39" s="3">
         <v>13</v>
-      </c>
-      <c r="J39" s="3">
-        <v>18</v>
-      </c>
-      <c r="K39" s="3">
-        <v>18</v>
       </c>
       <c r="L39" s="3">
         <v>18</v>
       </c>
       <c r="M39" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N39" s="3">
         <v>100</v>
@@ -13751,241 +18569,241 @@
         <v>65</v>
       </c>
       <c r="B40">
+        <v>26</v>
+      </c>
+      <c r="C40">
+        <v>24</v>
+      </c>
+      <c r="D40">
         <v>30</v>
       </c>
-      <c r="C40">
+      <c r="E40">
         <v>32</v>
       </c>
-      <c r="D40">
+      <c r="F40">
         <v>22</v>
       </c>
-      <c r="E40">
+      <c r="G40">
         <v>26</v>
       </c>
-      <c r="F40">
+      <c r="H40">
         <v>37</v>
       </c>
-      <c r="G40">
+      <c r="I40">
         <v>27</v>
       </c>
-      <c r="H40">
+      <c r="J40">
         <v>28</v>
       </c>
-      <c r="I40">
+      <c r="K40">
         <v>24</v>
       </c>
-      <c r="J40">
+      <c r="L40">
         <v>25</v>
       </c>
-      <c r="K40">
+      <c r="M40">
         <v>46</v>
       </c>
-      <c r="L40">
-        <v>35</v>
-      </c>
-      <c r="M40">
-        <v>23</v>
-      </c>
       <c r="N40">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B41" s="3"/>
+      <c r="B41" s="3">
+        <v>114</v>
+      </c>
       <c r="C41" s="3">
+        <v>140</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3">
         <v>1</v>
       </c>
-      <c r="D41" s="3">
+      <c r="F41" s="3">
         <v>51</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>99</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>96</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>88</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>132</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>87</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>104</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>122</v>
       </c>
-      <c r="L41" s="3">
-        <v>128</v>
-      </c>
-      <c r="M41" s="3">
-        <v>143</v>
-      </c>
       <c r="N41" s="3">
-        <v>185</v>
+        <v>206</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>67</v>
       </c>
-      <c r="D42">
+      <c r="B42">
+        <v>381</v>
+      </c>
+      <c r="C42">
+        <v>367</v>
+      </c>
+      <c r="F42">
         <v>6</v>
       </c>
-      <c r="E42">
+      <c r="G42">
         <v>328</v>
       </c>
-      <c r="F42">
+      <c r="H42">
         <v>333</v>
       </c>
-      <c r="G42">
+      <c r="I42">
         <v>356</v>
       </c>
-      <c r="H42">
+      <c r="J42">
         <v>362</v>
       </c>
-      <c r="I42">
+      <c r="K42">
         <v>342</v>
       </c>
-      <c r="J42">
+      <c r="L42">
         <v>366</v>
       </c>
-      <c r="K42">
+      <c r="M42">
         <v>373</v>
       </c>
-      <c r="L42">
-        <v>373</v>
-      </c>
-      <c r="M42">
-        <v>359</v>
-      </c>
       <c r="N42">
-        <v>418</v>
+        <v>507</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3">
+      <c r="B43" s="3">
+        <v>41</v>
+      </c>
+      <c r="C43" s="3">
+        <v>43</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3">
         <v>4</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>14</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>25</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>71</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>48</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>10</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>14</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>40</v>
       </c>
-      <c r="L43" s="3">
-        <v>75</v>
-      </c>
-      <c r="M43" s="3">
-        <v>11</v>
-      </c>
       <c r="N43" s="3">
-        <v>160</v>
+        <v>209</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>69</v>
       </c>
-      <c r="D44">
+      <c r="B44">
+        <v>115</v>
+      </c>
+      <c r="C44">
+        <v>148</v>
+      </c>
+      <c r="F44">
         <v>19</v>
       </c>
-      <c r="E44">
+      <c r="G44">
         <v>84</v>
       </c>
-      <c r="F44">
+      <c r="H44">
         <v>68</v>
       </c>
-      <c r="G44">
+      <c r="I44">
         <v>59</v>
       </c>
-      <c r="H44">
+      <c r="J44">
         <v>98</v>
       </c>
-      <c r="I44">
+      <c r="K44">
         <v>53</v>
       </c>
-      <c r="J44">
+      <c r="L44">
         <v>117</v>
       </c>
-      <c r="K44">
+      <c r="M44">
         <v>111</v>
       </c>
-      <c r="L44">
-        <v>101</v>
-      </c>
-      <c r="M44">
-        <v>136</v>
-      </c>
       <c r="N44">
-        <v>166</v>
+        <v>227</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3">
+      <c r="B45" s="3">
+        <v>72</v>
+      </c>
+      <c r="C45" s="3">
+        <v>67</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3">
         <v>8</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>86</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>86</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>93</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>89</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>70</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>73</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>68</v>
       </c>
-      <c r="L45" s="3">
-        <v>69</v>
-      </c>
-      <c r="M45" s="3">
-        <v>73</v>
-      </c>
       <c r="N45" s="3">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
@@ -13993,43 +18811,43 @@
         <v>71</v>
       </c>
       <c r="B46">
+        <v>38</v>
+      </c>
+      <c r="C46">
+        <v>40</v>
+      </c>
+      <c r="D46">
         <v>41</v>
       </c>
-      <c r="C46">
+      <c r="E46">
         <v>51</v>
       </c>
-      <c r="D46">
+      <c r="F46">
         <v>40</v>
       </c>
-      <c r="E46">
+      <c r="G46">
         <v>48</v>
       </c>
-      <c r="F46">
+      <c r="H46">
         <v>43</v>
       </c>
-      <c r="G46">
+      <c r="I46">
         <v>40</v>
       </c>
-      <c r="H46">
+      <c r="J46">
         <v>37</v>
       </c>
-      <c r="I46">
+      <c r="K46">
         <v>39</v>
       </c>
-      <c r="J46">
+      <c r="L46">
         <v>33</v>
       </c>
-      <c r="K46">
+      <c r="M46">
         <v>24</v>
       </c>
-      <c r="L46">
-        <v>36</v>
-      </c>
-      <c r="M46">
-        <v>31</v>
-      </c>
       <c r="N46">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
@@ -14037,43 +18855,43 @@
         <v>72</v>
       </c>
       <c r="B47" s="3">
+        <v>206</v>
+      </c>
+      <c r="C47" s="3">
+        <v>235</v>
+      </c>
+      <c r="D47" s="3">
         <v>229</v>
       </c>
-      <c r="C47" s="3">
+      <c r="E47" s="3">
         <v>238</v>
       </c>
-      <c r="D47" s="3">
+      <c r="F47" s="3">
         <v>234</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>212</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>207</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>187</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>193</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>184</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>196</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>203</v>
       </c>
-      <c r="L47" s="3">
-        <v>201</v>
-      </c>
-      <c r="M47" s="3">
-        <v>227</v>
-      </c>
       <c r="N47" s="3">
-        <v>559</v>
+        <v>565</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
@@ -14081,43 +18899,43 @@
         <v>73</v>
       </c>
       <c r="B48">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="C48">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="D48">
         <v>309</v>
       </c>
       <c r="E48">
+        <v>340</v>
+      </c>
+      <c r="F48">
+        <v>309</v>
+      </c>
+      <c r="G48">
         <v>274</v>
       </c>
-      <c r="F48">
+      <c r="H48">
         <v>295</v>
       </c>
-      <c r="G48">
+      <c r="I48">
         <v>279</v>
       </c>
-      <c r="H48">
+      <c r="J48">
         <v>271</v>
       </c>
-      <c r="I48">
+      <c r="K48">
         <v>255</v>
       </c>
-      <c r="J48">
+      <c r="L48">
         <v>270</v>
       </c>
-      <c r="K48">
+      <c r="M48">
         <v>284</v>
       </c>
-      <c r="L48">
-        <v>286</v>
-      </c>
-      <c r="M48">
-        <v>300</v>
-      </c>
       <c r="N48">
-        <v>771</v>
+        <v>789</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
@@ -14125,43 +18943,43 @@
         <v>74</v>
       </c>
       <c r="B49" s="3">
+        <v>243</v>
+      </c>
+      <c r="C49" s="3">
+        <v>313</v>
+      </c>
+      <c r="D49" s="3">
         <v>343</v>
       </c>
-      <c r="C49" s="3">
+      <c r="E49" s="3">
         <v>368</v>
       </c>
-      <c r="D49" s="3">
+      <c r="F49" s="3">
         <v>331</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>253</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>274</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>250</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>234</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>216</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>226</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>239</v>
       </c>
-      <c r="L49" s="3">
-        <v>232</v>
-      </c>
-      <c r="M49" s="3">
-        <v>285</v>
-      </c>
       <c r="N49" s="3">
-        <v>790</v>
+        <v>799</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
@@ -14169,43 +18987,43 @@
         <v>75</v>
       </c>
       <c r="B50">
+        <v>212</v>
+      </c>
+      <c r="C50">
+        <v>224</v>
+      </c>
+      <c r="D50">
         <v>209</v>
       </c>
-      <c r="C50">
+      <c r="E50">
         <v>212</v>
       </c>
-      <c r="D50">
+      <c r="F50">
         <v>201</v>
       </c>
-      <c r="E50">
+      <c r="G50">
         <v>180</v>
       </c>
-      <c r="F50">
+      <c r="H50">
         <v>181</v>
       </c>
-      <c r="G50">
+      <c r="I50">
         <v>167</v>
       </c>
-      <c r="H50">
+      <c r="J50">
         <v>174</v>
       </c>
-      <c r="I50">
+      <c r="K50">
         <v>171</v>
       </c>
-      <c r="J50">
+      <c r="L50">
         <v>171</v>
       </c>
-      <c r="K50">
+      <c r="M50">
         <v>184</v>
       </c>
-      <c r="L50">
-        <v>174</v>
-      </c>
-      <c r="M50">
-        <v>175</v>
-      </c>
       <c r="N50">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
@@ -14213,43 +19031,43 @@
         <v>76</v>
       </c>
       <c r="B51" s="3">
+        <v>499</v>
+      </c>
+      <c r="C51" s="3">
+        <v>595</v>
+      </c>
+      <c r="D51" s="3">
         <v>628</v>
       </c>
-      <c r="C51" s="3">
+      <c r="E51" s="3">
         <v>645</v>
       </c>
-      <c r="D51" s="3">
+      <c r="F51" s="3">
         <v>556</v>
       </c>
-      <c r="E51" s="3">
+      <c r="G51" s="3">
         <v>472</v>
       </c>
-      <c r="F51" s="3">
+      <c r="H51" s="3">
         <v>486</v>
       </c>
-      <c r="G51" s="3">
+      <c r="I51" s="3">
         <v>406</v>
       </c>
-      <c r="H51" s="3">
+      <c r="J51" s="3">
         <v>409</v>
       </c>
-      <c r="I51" s="3">
+      <c r="K51" s="3">
         <v>407</v>
       </c>
-      <c r="J51" s="3">
+      <c r="L51" s="3">
         <v>419</v>
       </c>
-      <c r="K51" s="3">
+      <c r="M51" s="3">
         <v>413</v>
       </c>
-      <c r="L51" s="3">
-        <v>380</v>
-      </c>
-      <c r="M51" s="3">
-        <v>395</v>
-      </c>
       <c r="N51" s="3">
-        <v>1682</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
@@ -14257,43 +19075,43 @@
         <v>77</v>
       </c>
       <c r="B52">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>82</v>
+      </c>
+      <c r="D52">
         <v>74</v>
       </c>
-      <c r="C52">
+      <c r="E52">
         <v>79</v>
       </c>
-      <c r="D52">
+      <c r="F52">
         <v>72</v>
       </c>
-      <c r="E52">
+      <c r="G52">
         <v>70</v>
       </c>
-      <c r="F52">
+      <c r="H52">
         <v>69</v>
       </c>
-      <c r="G52">
+      <c r="I52">
         <v>56</v>
       </c>
-      <c r="H52">
+      <c r="J52">
         <v>63</v>
       </c>
-      <c r="I52">
+      <c r="K52">
         <v>67</v>
       </c>
-      <c r="J52">
+      <c r="L52">
         <v>56</v>
       </c>
-      <c r="K52">
+      <c r="M52">
         <v>64</v>
       </c>
-      <c r="L52">
-        <v>70</v>
-      </c>
-      <c r="M52">
-        <v>65</v>
-      </c>
       <c r="N52">
-        <v>220</v>
+        <v>227</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
@@ -14301,43 +19119,43 @@
         <v>78</v>
       </c>
       <c r="B53" s="3">
+        <v>183</v>
+      </c>
+      <c r="C53" s="3">
+        <v>200</v>
+      </c>
+      <c r="D53" s="3">
         <v>198</v>
       </c>
-      <c r="C53" s="3">
+      <c r="E53" s="3">
         <v>217</v>
       </c>
-      <c r="D53" s="3">
+      <c r="F53" s="3">
         <v>224</v>
-      </c>
-      <c r="E53" s="3">
-        <v>150</v>
-      </c>
-      <c r="F53" s="3">
-        <v>168</v>
       </c>
       <c r="G53" s="3">
         <v>150</v>
       </c>
       <c r="H53" s="3">
+        <v>168</v>
+      </c>
+      <c r="I53" s="3">
+        <v>150</v>
+      </c>
+      <c r="J53" s="3">
         <v>137</v>
       </c>
-      <c r="I53" s="3">
+      <c r="K53" s="3">
         <v>143</v>
       </c>
-      <c r="J53" s="3">
+      <c r="L53" s="3">
         <v>166</v>
       </c>
-      <c r="K53" s="3">
+      <c r="M53" s="3">
         <v>145</v>
       </c>
-      <c r="L53" s="3">
-        <v>144</v>
-      </c>
-      <c r="M53" s="3">
-        <v>162</v>
-      </c>
       <c r="N53" s="3">
-        <v>516</v>
+        <v>509</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
@@ -14345,43 +19163,43 @@
         <v>79</v>
       </c>
       <c r="B54">
+        <v>35</v>
+      </c>
+      <c r="C54">
+        <v>33</v>
+      </c>
+      <c r="D54">
         <v>30</v>
       </c>
-      <c r="C54">
+      <c r="E54">
         <v>42</v>
       </c>
-      <c r="D54">
+      <c r="F54">
         <v>50</v>
       </c>
-      <c r="E54">
+      <c r="G54">
         <v>25</v>
       </c>
-      <c r="F54">
+      <c r="H54">
         <v>31</v>
       </c>
-      <c r="G54">
+      <c r="I54">
         <v>23</v>
       </c>
-      <c r="H54">
+      <c r="J54">
         <v>22</v>
       </c>
-      <c r="I54">
+      <c r="K54">
         <v>28</v>
       </c>
-      <c r="J54">
+      <c r="L54">
         <v>25</v>
       </c>
-      <c r="K54">
+      <c r="M54">
         <v>22</v>
       </c>
-      <c r="L54">
-        <v>32</v>
-      </c>
-      <c r="M54">
-        <v>20</v>
-      </c>
       <c r="N54">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
@@ -14389,43 +19207,43 @@
         <v>80</v>
       </c>
       <c r="B55" s="3">
+        <v>37</v>
+      </c>
+      <c r="C55" s="3">
+        <v>42</v>
+      </c>
+      <c r="D55" s="3">
         <v>43</v>
       </c>
-      <c r="C55" s="3">
+      <c r="E55" s="3">
         <v>49</v>
       </c>
-      <c r="D55" s="3">
+      <c r="F55" s="3">
         <v>33</v>
       </c>
-      <c r="E55" s="3">
+      <c r="G55" s="3">
         <v>38</v>
       </c>
-      <c r="F55" s="3">
+      <c r="H55" s="3">
         <v>38</v>
       </c>
-      <c r="G55" s="3">
+      <c r="I55" s="3">
         <v>26</v>
       </c>
-      <c r="H55" s="3">
+      <c r="J55" s="3">
         <v>30</v>
       </c>
-      <c r="I55" s="3">
+      <c r="K55" s="3">
         <v>29</v>
       </c>
-      <c r="J55" s="3">
+      <c r="L55" s="3">
         <v>31</v>
-      </c>
-      <c r="K55" s="3">
-        <v>36</v>
-      </c>
-      <c r="L55" s="3">
-        <v>40</v>
       </c>
       <c r="M55" s="3">
         <v>36</v>
       </c>
       <c r="N55" s="3">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
@@ -14433,1455 +19251,43 @@
         <v>81</v>
       </c>
       <c r="B56">
+        <v>52</v>
+      </c>
+      <c r="C56">
+        <v>55</v>
+      </c>
+      <c r="D56">
         <v>62</v>
       </c>
-      <c r="C56">
+      <c r="E56">
         <v>73</v>
       </c>
-      <c r="D56">
+      <c r="F56">
         <v>71</v>
-      </c>
-      <c r="E56">
-        <v>63</v>
-      </c>
-      <c r="F56">
-        <v>67</v>
       </c>
       <c r="G56">
         <v>63</v>
       </c>
       <c r="H56">
+        <v>67</v>
+      </c>
+      <c r="I56">
+        <v>63</v>
+      </c>
+      <c r="J56">
         <v>65</v>
       </c>
-      <c r="I56">
+      <c r="K56">
         <v>56</v>
       </c>
-      <c r="J56">
+      <c r="L56">
         <v>46</v>
       </c>
-      <c r="K56">
+      <c r="M56">
         <v>48</v>
       </c>
-      <c r="L56">
-        <v>50</v>
-      </c>
-      <c r="M56">
-        <v>58</v>
-      </c>
       <c r="N56">
-        <v>223</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:N56"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="42.7109375" customWidth="1"/>
-    <col min="2" max="13" width="13.7109375" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="3"/>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3"/>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="3"/>
-      <c r="M51" s="3"/>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
-      <c r="M53" s="3"/>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
-      <c r="M55" s="3"/>
-      <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>81</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:N56"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="42.7109375" customWidth="1"/>
-    <col min="2" max="13" width="13.7109375" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="3"/>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3"/>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="3"/>
-      <c r="M51" s="3"/>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
-      <c r="M53" s="3"/>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
-      <c r="M55" s="3"/>
-      <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>81</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>

--- a/statistics_files/2022/2022.yy.unique borrowers thing.xlsx
+++ b/statistics_files/2022/2022.yy.unique borrowers thing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20390"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20391"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\GitHub\next_statistics\statistics_files\2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1704C2AD-621F-49E4-ACE9-E15419DECC40}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7461CDFF-426C-4994-903C-E621B5694136}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8670" tabRatio="668" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8670" tabRatio="668" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="January" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="91">
   <si>
     <t>branchname</t>
   </si>
@@ -306,6 +306,9 @@
   </si>
   <si>
     <t>2022-09 (September)</t>
+  </si>
+  <si>
+    <t>2022-10 (October)</t>
   </si>
 </sst>
 </file>
@@ -3042,7 +3045,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -3104,294 +3107,1067 @@
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
+      <c r="B3" s="3">
+        <v>596</v>
+      </c>
+      <c r="C3" s="3">
+        <v>591</v>
+      </c>
+      <c r="D3" s="3">
+        <v>648</v>
+      </c>
+      <c r="E3" s="3">
+        <v>669</v>
+      </c>
+      <c r="F3" s="3">
+        <v>749</v>
+      </c>
+      <c r="G3" s="3">
+        <v>605</v>
+      </c>
+      <c r="H3" s="3">
+        <v>568</v>
+      </c>
+      <c r="I3" s="3">
+        <v>579</v>
+      </c>
+      <c r="J3" s="3">
+        <v>509</v>
+      </c>
+      <c r="K3" s="3">
+        <v>537</v>
+      </c>
+      <c r="L3" s="3">
+        <v>535</v>
+      </c>
+      <c r="M3" s="3">
+        <v>552</v>
+      </c>
+      <c r="N3" s="3">
+        <v>1850</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
+      <c r="B4">
+        <v>312</v>
+      </c>
+      <c r="C4">
+        <v>331</v>
+      </c>
+      <c r="D4">
+        <v>351</v>
+      </c>
+      <c r="E4">
+        <v>372</v>
+      </c>
+      <c r="F4">
+        <v>409</v>
+      </c>
+      <c r="G4">
+        <v>327</v>
+      </c>
+      <c r="H4">
+        <v>305</v>
+      </c>
+      <c r="I4">
+        <v>313</v>
+      </c>
+      <c r="J4">
+        <v>265</v>
+      </c>
+      <c r="K4">
+        <v>258</v>
+      </c>
+      <c r="L4">
+        <v>254</v>
+      </c>
+      <c r="M4">
+        <v>276</v>
+      </c>
+      <c r="N4">
+        <v>1010</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
+      <c r="B5" s="3">
+        <v>925</v>
+      </c>
+      <c r="C5" s="3">
+        <v>897</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1034</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1072</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1119</v>
+      </c>
+      <c r="G5" s="3">
+        <v>899</v>
+      </c>
+      <c r="H5" s="3">
+        <v>831</v>
+      </c>
+      <c r="I5" s="3">
+        <v>885</v>
+      </c>
+      <c r="J5" s="3">
+        <v>806</v>
+      </c>
+      <c r="K5" s="3">
+        <v>827</v>
+      </c>
+      <c r="L5" s="3">
+        <v>750</v>
+      </c>
+      <c r="M5" s="3">
+        <v>828</v>
+      </c>
+      <c r="N5" s="3">
+        <v>2734</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>31</v>
       </c>
+      <c r="B6">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <v>24</v>
+      </c>
+      <c r="D6">
+        <v>33</v>
+      </c>
+      <c r="E6">
+        <v>29</v>
+      </c>
+      <c r="F6">
+        <v>32</v>
+      </c>
+      <c r="G6">
+        <v>17</v>
+      </c>
+      <c r="H6">
+        <v>22</v>
+      </c>
+      <c r="I6">
+        <v>19</v>
+      </c>
+      <c r="J6">
+        <v>12</v>
+      </c>
+      <c r="K6">
+        <v>15</v>
+      </c>
+      <c r="L6">
+        <v>21</v>
+      </c>
+      <c r="M6">
+        <v>21</v>
+      </c>
+      <c r="N6">
+        <v>63</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
+      <c r="B7" s="3">
+        <v>660</v>
+      </c>
+      <c r="C7" s="3">
+        <v>641</v>
+      </c>
+      <c r="D7" s="3">
+        <v>721</v>
+      </c>
+      <c r="E7" s="3">
+        <v>800</v>
+      </c>
+      <c r="F7" s="3">
+        <v>806</v>
+      </c>
+      <c r="G7" s="3">
+        <v>605</v>
+      </c>
+      <c r="H7" s="3">
+        <v>561</v>
+      </c>
+      <c r="I7" s="3">
+        <v>617</v>
+      </c>
+      <c r="J7" s="3">
+        <v>561</v>
+      </c>
+      <c r="K7" s="3">
+        <v>583</v>
+      </c>
+      <c r="L7" s="3">
+        <v>564</v>
+      </c>
+      <c r="M7" s="3">
+        <v>563</v>
+      </c>
+      <c r="N7" s="3">
+        <v>2187</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>33</v>
       </c>
+      <c r="B8">
+        <v>108</v>
+      </c>
+      <c r="C8">
+        <v>108</v>
+      </c>
+      <c r="D8">
+        <v>105</v>
+      </c>
+      <c r="E8">
+        <v>85</v>
+      </c>
+      <c r="F8">
+        <v>79</v>
+      </c>
+      <c r="G8">
+        <v>64</v>
+      </c>
+      <c r="H8">
+        <v>69</v>
+      </c>
+      <c r="I8">
+        <v>73</v>
+      </c>
+      <c r="J8">
+        <v>66</v>
+      </c>
+      <c r="K8">
+        <v>72</v>
+      </c>
+      <c r="L8">
+        <v>78</v>
+      </c>
+      <c r="M8">
+        <v>70</v>
+      </c>
+      <c r="N8">
+        <v>263</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
+      <c r="B9" s="3">
+        <v>109</v>
+      </c>
+      <c r="C9" s="3">
+        <v>112</v>
+      </c>
+      <c r="D9" s="3">
+        <v>123</v>
+      </c>
+      <c r="E9" s="3">
+        <v>120</v>
+      </c>
+      <c r="F9" s="3">
+        <v>126</v>
+      </c>
+      <c r="G9" s="3">
+        <v>108</v>
+      </c>
+      <c r="H9" s="3">
+        <v>103</v>
+      </c>
+      <c r="I9" s="3">
+        <v>124</v>
+      </c>
+      <c r="J9" s="3">
+        <v>93</v>
+      </c>
+      <c r="K9" s="3">
+        <v>104</v>
+      </c>
+      <c r="L9" s="3">
+        <v>99</v>
+      </c>
+      <c r="M9" s="3">
+        <v>99</v>
+      </c>
+      <c r="N9" s="3">
+        <v>377</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>35</v>
       </c>
+      <c r="B10">
+        <v>39</v>
+      </c>
+      <c r="C10">
+        <v>44</v>
+      </c>
+      <c r="D10">
+        <v>45</v>
+      </c>
+      <c r="E10">
+        <v>48</v>
+      </c>
+      <c r="F10">
+        <v>67</v>
+      </c>
+      <c r="G10">
+        <v>40</v>
+      </c>
+      <c r="H10">
+        <v>40</v>
+      </c>
+      <c r="I10">
+        <v>44</v>
+      </c>
+      <c r="J10">
+        <v>35</v>
+      </c>
+      <c r="K10">
+        <v>33</v>
+      </c>
+      <c r="L10">
+        <v>35</v>
+      </c>
+      <c r="M10">
+        <v>31</v>
+      </c>
+      <c r="N10">
+        <v>106</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
+      <c r="B11" s="3">
+        <v>3</v>
+      </c>
+      <c r="C11" s="3">
+        <v>6</v>
+      </c>
+      <c r="D11" s="3">
+        <v>7</v>
+      </c>
+      <c r="E11" s="3">
+        <v>13</v>
+      </c>
+      <c r="F11" s="3">
+        <v>42</v>
+      </c>
+      <c r="G11" s="3">
+        <v>4</v>
+      </c>
+      <c r="H11" s="3">
+        <v>9</v>
+      </c>
+      <c r="I11" s="3">
+        <v>3</v>
+      </c>
+      <c r="J11" s="3">
+        <v>1</v>
+      </c>
+      <c r="K11" s="3">
+        <v>6</v>
+      </c>
+      <c r="L11" s="3">
+        <v>4</v>
+      </c>
+      <c r="M11" s="3">
+        <v>6</v>
+      </c>
+      <c r="N11" s="3">
+        <v>51</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>37</v>
       </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
+      <c r="B13" s="3">
+        <v>19</v>
+      </c>
+      <c r="C13" s="3">
+        <v>21</v>
+      </c>
+      <c r="D13" s="3">
+        <v>31</v>
+      </c>
+      <c r="E13" s="3">
+        <v>26</v>
+      </c>
+      <c r="F13" s="3">
+        <v>26</v>
+      </c>
+      <c r="G13" s="3">
+        <v>27</v>
+      </c>
+      <c r="H13" s="3">
+        <v>17</v>
+      </c>
+      <c r="I13" s="3">
+        <v>26</v>
+      </c>
+      <c r="J13" s="3">
+        <v>16</v>
+      </c>
+      <c r="K13" s="3">
+        <v>20</v>
+      </c>
+      <c r="L13" s="3">
+        <v>23</v>
+      </c>
+      <c r="M13" s="3">
+        <v>25</v>
+      </c>
+      <c r="N13" s="3">
+        <v>105</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>39</v>
       </c>
+      <c r="B14">
+        <v>54</v>
+      </c>
+      <c r="C14">
+        <v>48</v>
+      </c>
+      <c r="D14">
+        <v>69</v>
+      </c>
+      <c r="E14">
+        <v>62</v>
+      </c>
+      <c r="F14">
+        <v>68</v>
+      </c>
+      <c r="G14">
+        <v>61</v>
+      </c>
+      <c r="H14">
+        <v>50</v>
+      </c>
+      <c r="I14">
+        <v>45</v>
+      </c>
+      <c r="J14">
+        <v>46</v>
+      </c>
+      <c r="K14">
+        <v>41</v>
+      </c>
+      <c r="L14">
+        <v>44</v>
+      </c>
+      <c r="M14">
+        <v>55</v>
+      </c>
+      <c r="N14">
+        <v>180</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
+      <c r="B15" s="3">
+        <v>162</v>
+      </c>
+      <c r="C15" s="3">
+        <v>145</v>
+      </c>
+      <c r="D15" s="3">
+        <v>154</v>
+      </c>
+      <c r="E15" s="3">
+        <v>160</v>
+      </c>
+      <c r="F15" s="3">
+        <v>146</v>
+      </c>
+      <c r="G15" s="3">
+        <v>116</v>
+      </c>
+      <c r="H15" s="3">
+        <v>115</v>
+      </c>
+      <c r="I15" s="3">
+        <v>117</v>
+      </c>
+      <c r="J15" s="3">
+        <v>96</v>
+      </c>
+      <c r="K15" s="3">
+        <v>96</v>
+      </c>
+      <c r="L15" s="3">
+        <v>93</v>
+      </c>
+      <c r="M15" s="3">
+        <v>108</v>
+      </c>
+      <c r="N15" s="3">
+        <v>435</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>41</v>
       </c>
+      <c r="B16">
+        <v>62</v>
+      </c>
+      <c r="C16">
+        <v>57</v>
+      </c>
+      <c r="D16">
+        <v>63</v>
+      </c>
+      <c r="E16">
+        <v>66</v>
+      </c>
+      <c r="F16">
+        <v>84</v>
+      </c>
+      <c r="G16">
+        <v>65</v>
+      </c>
+      <c r="H16">
+        <v>65</v>
+      </c>
+      <c r="I16">
+        <v>64</v>
+      </c>
+      <c r="J16">
+        <v>53</v>
+      </c>
+      <c r="K16">
+        <v>63</v>
+      </c>
+      <c r="L16">
+        <v>43</v>
+      </c>
+      <c r="M16">
+        <v>62</v>
+      </c>
+      <c r="N16">
+        <v>211</v>
+      </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
+      <c r="B17" s="3">
+        <v>40</v>
+      </c>
+      <c r="C17" s="3">
+        <v>44</v>
+      </c>
+      <c r="D17" s="3">
+        <v>41</v>
+      </c>
+      <c r="E17" s="3">
+        <v>46</v>
+      </c>
+      <c r="F17" s="3">
+        <v>46</v>
+      </c>
+      <c r="G17" s="3">
+        <v>28</v>
+      </c>
+      <c r="H17" s="3">
+        <v>28</v>
+      </c>
+      <c r="I17" s="3">
+        <v>27</v>
+      </c>
+      <c r="J17" s="3">
+        <v>23</v>
+      </c>
+      <c r="K17" s="3">
+        <v>29</v>
+      </c>
+      <c r="L17" s="3">
+        <v>30</v>
+      </c>
+      <c r="M17" s="3">
+        <v>27</v>
+      </c>
+      <c r="N17" s="3">
+        <v>95</v>
+      </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>43</v>
       </c>
+      <c r="B18">
+        <v>215</v>
+      </c>
+      <c r="C18">
+        <v>237</v>
+      </c>
+      <c r="D18">
+        <v>239</v>
+      </c>
+      <c r="E18">
+        <v>257</v>
+      </c>
+      <c r="F18">
+        <v>247</v>
+      </c>
+      <c r="G18">
+        <v>237</v>
+      </c>
+      <c r="H18">
+        <v>183</v>
+      </c>
+      <c r="I18">
+        <v>189</v>
+      </c>
+      <c r="J18">
+        <v>177</v>
+      </c>
+      <c r="K18">
+        <v>186</v>
+      </c>
+      <c r="L18">
+        <v>180</v>
+      </c>
+      <c r="M18">
+        <v>175</v>
+      </c>
+      <c r="N18">
+        <v>644</v>
+      </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
+      <c r="B19" s="3">
+        <v>27</v>
+      </c>
+      <c r="C19" s="3">
+        <v>29</v>
+      </c>
+      <c r="D19" s="3">
+        <v>19</v>
+      </c>
+      <c r="E19" s="3">
+        <v>19</v>
+      </c>
+      <c r="F19" s="3">
+        <v>22</v>
+      </c>
+      <c r="G19" s="3">
+        <v>22</v>
+      </c>
+      <c r="H19" s="3">
+        <v>22</v>
+      </c>
+      <c r="I19" s="3">
+        <v>22</v>
+      </c>
+      <c r="J19" s="3">
+        <v>23</v>
+      </c>
+      <c r="K19" s="3">
+        <v>22</v>
+      </c>
+      <c r="L19" s="3">
+        <v>22</v>
+      </c>
+      <c r="M19" s="3">
+        <v>21</v>
+      </c>
+      <c r="N19" s="3">
+        <v>72</v>
+      </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>45</v>
       </c>
+      <c r="B20">
+        <v>310</v>
+      </c>
+      <c r="C20">
+        <v>308</v>
+      </c>
+      <c r="D20">
+        <v>354</v>
+      </c>
+      <c r="E20">
+        <v>359</v>
+      </c>
+      <c r="F20">
+        <v>363</v>
+      </c>
+      <c r="G20">
+        <v>332</v>
+      </c>
+      <c r="H20">
+        <v>297</v>
+      </c>
+      <c r="I20">
+        <v>333</v>
+      </c>
+      <c r="J20">
+        <v>279</v>
+      </c>
+      <c r="K20">
+        <v>274</v>
+      </c>
+      <c r="L20">
+        <v>281</v>
+      </c>
+      <c r="M20">
+        <v>288</v>
+      </c>
+      <c r="N20">
+        <v>950</v>
+      </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
+      <c r="B21" s="3">
+        <v>39</v>
+      </c>
+      <c r="C21" s="3">
+        <v>50</v>
+      </c>
+      <c r="D21" s="3">
+        <v>27</v>
+      </c>
+      <c r="E21" s="3">
+        <v>4</v>
+      </c>
+      <c r="F21" s="3">
+        <v>7</v>
+      </c>
+      <c r="G21" s="3">
+        <v>14</v>
+      </c>
+      <c r="H21" s="3">
+        <v>13</v>
+      </c>
+      <c r="I21" s="3">
+        <v>20</v>
+      </c>
+      <c r="J21" s="3">
+        <v>13</v>
+      </c>
+      <c r="K21" s="3">
+        <v>9</v>
+      </c>
+      <c r="L21" s="3">
+        <v>13</v>
+      </c>
+      <c r="M21" s="3">
+        <v>27</v>
+      </c>
+      <c r="N21" s="3">
+        <v>161</v>
+      </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>47</v>
       </c>
+      <c r="B22">
+        <v>366</v>
+      </c>
+      <c r="C22">
+        <v>362</v>
+      </c>
+      <c r="D22">
+        <v>408</v>
+      </c>
+      <c r="E22">
+        <v>364</v>
+      </c>
+      <c r="F22">
+        <v>419</v>
+      </c>
+      <c r="G22">
+        <v>365</v>
+      </c>
+      <c r="H22">
+        <v>354</v>
+      </c>
+      <c r="I22">
+        <v>371</v>
+      </c>
+      <c r="J22">
+        <v>338</v>
+      </c>
+      <c r="K22">
+        <v>353</v>
+      </c>
+      <c r="L22">
+        <v>330</v>
+      </c>
+      <c r="M22">
+        <v>336</v>
+      </c>
+      <c r="N22">
+        <v>1185</v>
+      </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
+      <c r="B23" s="3">
+        <v>32</v>
+      </c>
+      <c r="C23" s="3">
+        <v>28</v>
+      </c>
+      <c r="D23" s="3">
+        <v>54</v>
+      </c>
+      <c r="E23" s="3">
+        <v>43</v>
+      </c>
+      <c r="F23" s="3">
+        <v>39</v>
+      </c>
+      <c r="G23" s="3">
+        <v>26</v>
+      </c>
+      <c r="H23" s="3">
+        <v>22</v>
+      </c>
+      <c r="I23" s="3">
+        <v>23</v>
+      </c>
+      <c r="J23" s="3">
+        <v>28</v>
+      </c>
+      <c r="K23" s="3">
+        <v>24</v>
+      </c>
+      <c r="L23" s="3">
+        <v>27</v>
+      </c>
+      <c r="M23" s="3">
+        <v>37</v>
+      </c>
+      <c r="N23" s="3">
+        <v>177</v>
+      </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>49</v>
       </c>
+      <c r="B24">
+        <v>311</v>
+      </c>
+      <c r="C24">
+        <v>370</v>
+      </c>
+      <c r="D24">
+        <v>419</v>
+      </c>
+      <c r="E24">
+        <v>430</v>
+      </c>
+      <c r="F24">
+        <v>443</v>
+      </c>
+      <c r="G24">
+        <v>337</v>
+      </c>
+      <c r="H24">
+        <v>309</v>
+      </c>
+      <c r="I24">
+        <v>321</v>
+      </c>
+      <c r="J24">
+        <v>205</v>
+      </c>
+      <c r="K24">
+        <v>322</v>
+      </c>
+      <c r="L24">
+        <v>281</v>
+      </c>
+      <c r="M24">
+        <v>307</v>
+      </c>
+      <c r="N24">
+        <v>1177</v>
+      </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
+      <c r="B25" s="3">
+        <v>1043</v>
+      </c>
+      <c r="C25" s="3">
+        <v>978</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1181</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1148</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1084</v>
+      </c>
+      <c r="G25" s="3">
+        <v>940</v>
+      </c>
+      <c r="H25" s="3">
+        <v>940</v>
+      </c>
+      <c r="I25" s="3">
+        <v>1015</v>
+      </c>
+      <c r="J25" s="3">
+        <v>888</v>
+      </c>
+      <c r="K25" s="3">
+        <v>842</v>
+      </c>
+      <c r="L25" s="3">
+        <v>904</v>
+      </c>
+      <c r="M25" s="3">
+        <v>930</v>
+      </c>
+      <c r="N25" s="3">
+        <v>3443</v>
+      </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>51</v>
+      </c>
+      <c r="B26">
+        <v>73</v>
+      </c>
+      <c r="C26">
+        <v>77</v>
+      </c>
+      <c r="D26">
+        <v>78</v>
+      </c>
+      <c r="E26">
+        <v>93</v>
+      </c>
+      <c r="F26">
+        <v>103</v>
+      </c>
+      <c r="G26">
+        <v>97</v>
+      </c>
+      <c r="H26">
+        <v>84</v>
+      </c>
+      <c r="I26">
+        <v>81</v>
+      </c>
+      <c r="J26">
+        <v>66</v>
+      </c>
+      <c r="K26">
+        <v>62</v>
+      </c>
+      <c r="L26">
+        <v>85</v>
+      </c>
+      <c r="M26">
+        <v>95</v>
+      </c>
+      <c r="N26">
+        <v>301</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -3416,327 +4192,1254 @@
       <c r="A28" t="s">
         <v>53</v>
       </c>
+      <c r="B28">
+        <v>111</v>
+      </c>
+      <c r="C28">
+        <v>97</v>
+      </c>
+      <c r="D28">
+        <v>120</v>
+      </c>
+      <c r="E28">
+        <v>114</v>
+      </c>
+      <c r="F28">
+        <v>127</v>
+      </c>
+      <c r="G28">
+        <v>112</v>
+      </c>
+      <c r="H28">
+        <v>104</v>
+      </c>
+      <c r="I28">
+        <v>102</v>
+      </c>
+      <c r="J28">
+        <v>90</v>
+      </c>
+      <c r="K28">
+        <v>94</v>
+      </c>
+      <c r="L28">
+        <v>106</v>
+      </c>
+      <c r="M28">
+        <v>103</v>
+      </c>
+      <c r="N28">
+        <v>322</v>
+      </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
+      <c r="B29" s="3">
+        <v>41</v>
+      </c>
+      <c r="C29" s="3">
+        <v>51</v>
+      </c>
+      <c r="D29" s="3">
+        <v>38</v>
+      </c>
+      <c r="E29" s="3">
+        <v>42</v>
+      </c>
+      <c r="F29" s="3">
+        <v>59</v>
+      </c>
+      <c r="G29" s="3">
+        <v>43</v>
+      </c>
+      <c r="H29" s="3">
+        <v>41</v>
+      </c>
+      <c r="I29" s="3">
+        <v>43</v>
+      </c>
+      <c r="J29" s="3">
+        <v>40</v>
+      </c>
+      <c r="K29" s="3">
+        <v>36</v>
+      </c>
+      <c r="L29" s="3">
+        <v>46</v>
+      </c>
+      <c r="M29" s="3">
+        <v>46</v>
+      </c>
+      <c r="N29" s="3">
+        <v>171</v>
+      </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>55</v>
       </c>
+      <c r="B30">
+        <v>182</v>
+      </c>
+      <c r="C30">
+        <v>192</v>
+      </c>
+      <c r="D30">
+        <v>213</v>
+      </c>
+      <c r="E30">
+        <v>222</v>
+      </c>
+      <c r="F30">
+        <v>285</v>
+      </c>
+      <c r="G30">
+        <v>231</v>
+      </c>
+      <c r="H30">
+        <v>192</v>
+      </c>
+      <c r="I30">
+        <v>196</v>
+      </c>
+      <c r="J30">
+        <v>184</v>
+      </c>
+      <c r="K30">
+        <v>192</v>
+      </c>
+      <c r="L30">
+        <v>190</v>
+      </c>
+      <c r="M30">
+        <v>189</v>
+      </c>
+      <c r="N30">
+        <v>559</v>
+      </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
+      <c r="B31" s="3">
+        <v>9</v>
+      </c>
+      <c r="C31" s="3">
+        <v>8</v>
+      </c>
+      <c r="D31" s="3">
+        <v>21</v>
+      </c>
+      <c r="E31" s="3">
+        <v>35</v>
+      </c>
+      <c r="F31" s="3">
+        <v>14</v>
+      </c>
+      <c r="G31" s="3">
+        <v>10</v>
+      </c>
+      <c r="H31" s="3">
+        <v>11</v>
+      </c>
+      <c r="I31" s="3">
+        <v>9</v>
+      </c>
+      <c r="J31" s="3">
+        <v>14</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>17</v>
+      </c>
+      <c r="N31" s="3">
+        <v>86</v>
+      </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>57</v>
       </c>
+      <c r="B32">
+        <v>33</v>
+      </c>
+      <c r="C32">
+        <v>38</v>
+      </c>
+      <c r="D32">
+        <v>55</v>
+      </c>
+      <c r="E32">
+        <v>54</v>
+      </c>
+      <c r="F32">
+        <v>69</v>
+      </c>
+      <c r="G32">
+        <v>49</v>
+      </c>
+      <c r="H32">
+        <v>34</v>
+      </c>
+      <c r="I32">
+        <v>42</v>
+      </c>
+      <c r="J32">
+        <v>38</v>
+      </c>
+      <c r="K32">
+        <v>31</v>
+      </c>
+      <c r="L32">
+        <v>38</v>
+      </c>
+      <c r="M32">
+        <v>49</v>
+      </c>
+      <c r="N32">
+        <v>155</v>
+      </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
+      <c r="B33" s="3">
+        <v>289</v>
+      </c>
+      <c r="C33" s="3">
+        <v>297</v>
+      </c>
+      <c r="D33" s="3">
+        <v>297</v>
+      </c>
+      <c r="E33" s="3">
+        <v>319</v>
+      </c>
+      <c r="F33" s="3">
+        <v>344</v>
+      </c>
+      <c r="G33" s="3">
+        <v>312</v>
+      </c>
+      <c r="H33" s="3">
+        <v>287</v>
+      </c>
+      <c r="I33" s="3">
+        <v>298</v>
+      </c>
+      <c r="J33" s="3">
+        <v>272</v>
+      </c>
+      <c r="K33" s="3">
+        <v>268</v>
+      </c>
+      <c r="L33" s="3">
+        <v>272</v>
+      </c>
+      <c r="M33" s="3">
+        <v>271</v>
+      </c>
+      <c r="N33" s="3">
+        <v>873</v>
+      </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>59</v>
       </c>
+      <c r="B34">
+        <v>210</v>
+      </c>
+      <c r="C34">
+        <v>224</v>
+      </c>
+      <c r="D34">
+        <v>267</v>
+      </c>
+      <c r="E34">
+        <v>258</v>
+      </c>
+      <c r="F34">
+        <v>268</v>
+      </c>
+      <c r="G34">
+        <v>222</v>
+      </c>
+      <c r="H34">
+        <v>239</v>
+      </c>
+      <c r="I34">
+        <v>228</v>
+      </c>
+      <c r="J34">
+        <v>262</v>
+      </c>
+      <c r="K34">
+        <v>291</v>
+      </c>
+      <c r="L34">
+        <v>244</v>
+      </c>
+      <c r="M34">
+        <v>252</v>
+      </c>
+      <c r="N34">
+        <v>793</v>
+      </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
+      <c r="B35" s="3">
+        <v>164</v>
+      </c>
+      <c r="C35" s="3">
+        <v>152</v>
+      </c>
+      <c r="D35" s="3">
+        <v>157</v>
+      </c>
+      <c r="E35" s="3">
+        <v>165</v>
+      </c>
+      <c r="F35" s="3">
+        <v>174</v>
+      </c>
+      <c r="G35" s="3">
+        <v>146</v>
+      </c>
+      <c r="H35" s="3">
+        <v>147</v>
+      </c>
+      <c r="I35" s="3">
+        <v>142</v>
+      </c>
+      <c r="J35" s="3">
+        <v>130</v>
+      </c>
+      <c r="K35" s="3">
+        <v>143</v>
+      </c>
+      <c r="L35" s="3">
+        <v>145</v>
+      </c>
+      <c r="M35" s="3">
+        <v>144</v>
+      </c>
+      <c r="N35" s="3">
+        <v>439</v>
+      </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>61</v>
       </c>
+      <c r="B36">
+        <v>779</v>
+      </c>
+      <c r="C36">
+        <v>783</v>
+      </c>
+      <c r="D36">
+        <v>900</v>
+      </c>
+      <c r="E36">
+        <v>943</v>
+      </c>
+      <c r="F36">
+        <v>984</v>
+      </c>
+      <c r="G36">
+        <v>788</v>
+      </c>
+      <c r="H36">
+        <v>665</v>
+      </c>
+      <c r="I36">
+        <v>751</v>
+      </c>
+      <c r="J36">
+        <v>647</v>
+      </c>
+      <c r="K36">
+        <v>640</v>
+      </c>
+      <c r="L36">
+        <v>615</v>
+      </c>
+      <c r="M36">
+        <v>681</v>
+      </c>
+      <c r="N36">
+        <v>2487</v>
+      </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
+      <c r="B37" s="3">
+        <v>146</v>
+      </c>
+      <c r="C37" s="3">
+        <v>153</v>
+      </c>
+      <c r="D37" s="3">
+        <v>165</v>
+      </c>
+      <c r="E37" s="3">
+        <v>180</v>
+      </c>
+      <c r="F37" s="3">
+        <v>181</v>
+      </c>
+      <c r="G37" s="3">
+        <v>155</v>
+      </c>
+      <c r="H37" s="3">
+        <v>136</v>
+      </c>
+      <c r="I37" s="3">
+        <v>150</v>
+      </c>
+      <c r="J37" s="3">
+        <v>144</v>
+      </c>
+      <c r="K37" s="3">
+        <v>139</v>
+      </c>
+      <c r="L37" s="3">
+        <v>139</v>
+      </c>
+      <c r="M37" s="3">
+        <v>129</v>
+      </c>
+      <c r="N37" s="3">
+        <v>426</v>
+      </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>63</v>
       </c>
+      <c r="B38">
+        <v>480</v>
+      </c>
+      <c r="C38">
+        <v>522</v>
+      </c>
+      <c r="D38">
+        <v>556</v>
+      </c>
+      <c r="E38">
+        <v>609</v>
+      </c>
+      <c r="F38">
+        <v>590</v>
+      </c>
+      <c r="G38">
+        <v>483</v>
+      </c>
+      <c r="H38">
+        <v>403</v>
+      </c>
+      <c r="I38">
+        <v>415</v>
+      </c>
+      <c r="J38">
+        <v>373</v>
+      </c>
+      <c r="K38">
+        <v>383</v>
+      </c>
+      <c r="L38">
+        <v>360</v>
+      </c>
+      <c r="M38">
+        <v>413</v>
+      </c>
+      <c r="N38">
+        <v>1615</v>
+      </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
+      <c r="B39" s="3">
+        <v>20</v>
+      </c>
+      <c r="C39" s="3">
+        <v>21</v>
+      </c>
+      <c r="D39" s="3">
+        <v>24</v>
+      </c>
+      <c r="E39" s="3">
+        <v>48</v>
+      </c>
+      <c r="F39" s="3">
+        <v>63</v>
+      </c>
+      <c r="G39" s="3">
+        <v>28</v>
+      </c>
+      <c r="H39" s="3">
+        <v>19</v>
+      </c>
+      <c r="I39" s="3">
+        <v>18</v>
+      </c>
+      <c r="J39" s="3">
+        <v>18</v>
+      </c>
+      <c r="K39" s="3">
+        <v>19</v>
+      </c>
+      <c r="L39" s="3">
+        <v>13</v>
+      </c>
+      <c r="M39" s="3">
+        <v>18</v>
+      </c>
+      <c r="N39" s="3">
+        <v>101</v>
+      </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>65</v>
       </c>
+      <c r="B40">
+        <v>20</v>
+      </c>
+      <c r="C40">
+        <v>26</v>
+      </c>
+      <c r="D40">
+        <v>24</v>
+      </c>
+      <c r="E40">
+        <v>30</v>
+      </c>
+      <c r="F40">
+        <v>32</v>
+      </c>
+      <c r="G40">
+        <v>22</v>
+      </c>
+      <c r="H40">
+        <v>26</v>
+      </c>
+      <c r="I40">
+        <v>37</v>
+      </c>
+      <c r="J40">
+        <v>27</v>
+      </c>
+      <c r="K40">
+        <v>28</v>
+      </c>
+      <c r="L40">
+        <v>24</v>
+      </c>
+      <c r="M40">
+        <v>25</v>
+      </c>
+      <c r="N40">
+        <v>134</v>
+      </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
+      <c r="B41" s="3">
+        <v>122</v>
+      </c>
+      <c r="C41" s="3">
+        <v>114</v>
+      </c>
+      <c r="D41" s="3">
+        <v>140</v>
+      </c>
       <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
+      <c r="F41" s="3">
+        <v>1</v>
+      </c>
+      <c r="G41" s="3">
+        <v>51</v>
+      </c>
+      <c r="H41" s="3">
+        <v>99</v>
+      </c>
+      <c r="I41" s="3">
+        <v>96</v>
+      </c>
+      <c r="J41" s="3">
+        <v>88</v>
+      </c>
+      <c r="K41" s="3">
+        <v>132</v>
+      </c>
+      <c r="L41" s="3">
+        <v>87</v>
+      </c>
+      <c r="M41" s="3">
+        <v>104</v>
+      </c>
+      <c r="N41" s="3">
+        <v>205</v>
+      </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>67</v>
       </c>
+      <c r="B42">
+        <v>363</v>
+      </c>
+      <c r="C42">
+        <v>381</v>
+      </c>
+      <c r="D42">
+        <v>367</v>
+      </c>
+      <c r="G42">
+        <v>6</v>
+      </c>
+      <c r="H42">
+        <v>328</v>
+      </c>
+      <c r="I42">
+        <v>333</v>
+      </c>
+      <c r="J42">
+        <v>356</v>
+      </c>
+      <c r="K42">
+        <v>362</v>
+      </c>
+      <c r="L42">
+        <v>342</v>
+      </c>
+      <c r="M42">
+        <v>366</v>
+      </c>
+      <c r="N42">
+        <v>503</v>
+      </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
+      <c r="B43" s="3">
+        <v>20</v>
+      </c>
+      <c r="C43" s="3">
+        <v>41</v>
+      </c>
+      <c r="D43" s="3">
+        <v>43</v>
+      </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
+      <c r="G43" s="3">
+        <v>4</v>
+      </c>
+      <c r="H43" s="3">
+        <v>14</v>
+      </c>
+      <c r="I43" s="3">
+        <v>25</v>
+      </c>
+      <c r="J43" s="3">
+        <v>71</v>
+      </c>
+      <c r="K43" s="3">
+        <v>48</v>
+      </c>
+      <c r="L43" s="3">
+        <v>10</v>
+      </c>
+      <c r="M43" s="3">
+        <v>14</v>
+      </c>
+      <c r="N43" s="3">
+        <v>184</v>
+      </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>69</v>
       </c>
+      <c r="B44">
+        <v>99</v>
+      </c>
+      <c r="C44">
+        <v>115</v>
+      </c>
+      <c r="D44">
+        <v>148</v>
+      </c>
+      <c r="G44">
+        <v>19</v>
+      </c>
+      <c r="H44">
+        <v>84</v>
+      </c>
+      <c r="I44">
+        <v>68</v>
+      </c>
+      <c r="J44">
+        <v>59</v>
+      </c>
+      <c r="K44">
+        <v>98</v>
+      </c>
+      <c r="L44">
+        <v>53</v>
+      </c>
+      <c r="M44">
+        <v>117</v>
+      </c>
+      <c r="N44">
+        <v>230</v>
+      </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
+      <c r="B45" s="3">
+        <v>84</v>
+      </c>
+      <c r="C45" s="3">
+        <v>72</v>
+      </c>
+      <c r="D45" s="3">
+        <v>67</v>
+      </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="3"/>
-      <c r="N45" s="3"/>
+      <c r="G45" s="3">
+        <v>8</v>
+      </c>
+      <c r="H45" s="3">
+        <v>86</v>
+      </c>
+      <c r="I45" s="3">
+        <v>86</v>
+      </c>
+      <c r="J45" s="3">
+        <v>93</v>
+      </c>
+      <c r="K45" s="3">
+        <v>89</v>
+      </c>
+      <c r="L45" s="3">
+        <v>70</v>
+      </c>
+      <c r="M45" s="3">
+        <v>73</v>
+      </c>
+      <c r="N45" s="3">
+        <v>149</v>
+      </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>71</v>
       </c>
+      <c r="B46">
+        <v>40</v>
+      </c>
+      <c r="C46">
+        <v>38</v>
+      </c>
+      <c r="D46">
+        <v>40</v>
+      </c>
+      <c r="E46">
+        <v>41</v>
+      </c>
+      <c r="F46">
+        <v>51</v>
+      </c>
+      <c r="G46">
+        <v>40</v>
+      </c>
+      <c r="H46">
+        <v>48</v>
+      </c>
+      <c r="I46">
+        <v>43</v>
+      </c>
+      <c r="J46">
+        <v>40</v>
+      </c>
+      <c r="K46">
+        <v>37</v>
+      </c>
+      <c r="L46">
+        <v>39</v>
+      </c>
+      <c r="M46">
+        <v>33</v>
+      </c>
+      <c r="N46">
+        <v>98</v>
+      </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
-      <c r="N47" s="3"/>
+      <c r="B47" s="3">
+        <v>220</v>
+      </c>
+      <c r="C47" s="3">
+        <v>206</v>
+      </c>
+      <c r="D47" s="3">
+        <v>235</v>
+      </c>
+      <c r="E47" s="3">
+        <v>229</v>
+      </c>
+      <c r="F47" s="3">
+        <v>238</v>
+      </c>
+      <c r="G47" s="3">
+        <v>234</v>
+      </c>
+      <c r="H47" s="3">
+        <v>212</v>
+      </c>
+      <c r="I47" s="3">
+        <v>207</v>
+      </c>
+      <c r="J47" s="3">
+        <v>187</v>
+      </c>
+      <c r="K47" s="3">
+        <v>193</v>
+      </c>
+      <c r="L47" s="3">
+        <v>184</v>
+      </c>
+      <c r="M47" s="3">
+        <v>196</v>
+      </c>
+      <c r="N47" s="3">
+        <v>570</v>
+      </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>73</v>
       </c>
+      <c r="B48">
+        <v>280</v>
+      </c>
+      <c r="C48">
+        <v>298</v>
+      </c>
+      <c r="D48">
+        <v>329</v>
+      </c>
+      <c r="E48">
+        <v>309</v>
+      </c>
+      <c r="F48">
+        <v>340</v>
+      </c>
+      <c r="G48">
+        <v>309</v>
+      </c>
+      <c r="H48">
+        <v>274</v>
+      </c>
+      <c r="I48">
+        <v>295</v>
+      </c>
+      <c r="J48">
+        <v>279</v>
+      </c>
+      <c r="K48">
+        <v>271</v>
+      </c>
+      <c r="L48">
+        <v>255</v>
+      </c>
+      <c r="M48">
+        <v>270</v>
+      </c>
+      <c r="N48">
+        <v>782</v>
+      </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3"/>
-      <c r="N49" s="3"/>
+      <c r="B49" s="3">
+        <v>233</v>
+      </c>
+      <c r="C49" s="3">
+        <v>243</v>
+      </c>
+      <c r="D49" s="3">
+        <v>313</v>
+      </c>
+      <c r="E49" s="3">
+        <v>343</v>
+      </c>
+      <c r="F49" s="3">
+        <v>368</v>
+      </c>
+      <c r="G49" s="3">
+        <v>331</v>
+      </c>
+      <c r="H49" s="3">
+        <v>253</v>
+      </c>
+      <c r="I49" s="3">
+        <v>274</v>
+      </c>
+      <c r="J49" s="3">
+        <v>250</v>
+      </c>
+      <c r="K49" s="3">
+        <v>234</v>
+      </c>
+      <c r="L49" s="3">
+        <v>216</v>
+      </c>
+      <c r="M49" s="3">
+        <v>226</v>
+      </c>
+      <c r="N49" s="3">
+        <v>811</v>
+      </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>75</v>
       </c>
+      <c r="B50">
+        <v>198</v>
+      </c>
+      <c r="C50">
+        <v>212</v>
+      </c>
+      <c r="D50">
+        <v>224</v>
+      </c>
+      <c r="E50">
+        <v>209</v>
+      </c>
+      <c r="F50">
+        <v>212</v>
+      </c>
+      <c r="G50">
+        <v>201</v>
+      </c>
+      <c r="H50">
+        <v>180</v>
+      </c>
+      <c r="I50">
+        <v>181</v>
+      </c>
+      <c r="J50">
+        <v>167</v>
+      </c>
+      <c r="K50">
+        <v>174</v>
+      </c>
+      <c r="L50">
+        <v>171</v>
+      </c>
+      <c r="M50">
+        <v>171</v>
+      </c>
+      <c r="N50">
+        <v>443</v>
+      </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="3"/>
-      <c r="M51" s="3"/>
-      <c r="N51" s="3"/>
+      <c r="B51" s="3">
+        <v>500</v>
+      </c>
+      <c r="C51" s="3">
+        <v>499</v>
+      </c>
+      <c r="D51" s="3">
+        <v>595</v>
+      </c>
+      <c r="E51" s="3">
+        <v>628</v>
+      </c>
+      <c r="F51" s="3">
+        <v>645</v>
+      </c>
+      <c r="G51" s="3">
+        <v>556</v>
+      </c>
+      <c r="H51" s="3">
+        <v>472</v>
+      </c>
+      <c r="I51" s="3">
+        <v>486</v>
+      </c>
+      <c r="J51" s="3">
+        <v>406</v>
+      </c>
+      <c r="K51" s="3">
+        <v>409</v>
+      </c>
+      <c r="L51" s="3">
+        <v>407</v>
+      </c>
+      <c r="M51" s="3">
+        <v>419</v>
+      </c>
+      <c r="N51" s="3">
+        <v>1721</v>
+      </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>77</v>
       </c>
+      <c r="B52">
+        <v>73</v>
+      </c>
+      <c r="C52">
+        <v>77</v>
+      </c>
+      <c r="D52">
+        <v>82</v>
+      </c>
+      <c r="E52">
+        <v>74</v>
+      </c>
+      <c r="F52">
+        <v>79</v>
+      </c>
+      <c r="G52">
+        <v>72</v>
+      </c>
+      <c r="H52">
+        <v>70</v>
+      </c>
+      <c r="I52">
+        <v>69</v>
+      </c>
+      <c r="J52">
+        <v>56</v>
+      </c>
+      <c r="K52">
+        <v>63</v>
+      </c>
+      <c r="L52">
+        <v>67</v>
+      </c>
+      <c r="M52">
+        <v>56</v>
+      </c>
+      <c r="N52">
+        <v>233</v>
+      </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
-      <c r="M53" s="3"/>
-      <c r="N53" s="3"/>
+      <c r="B53" s="3">
+        <v>208</v>
+      </c>
+      <c r="C53" s="3">
+        <v>183</v>
+      </c>
+      <c r="D53" s="3">
+        <v>200</v>
+      </c>
+      <c r="E53" s="3">
+        <v>198</v>
+      </c>
+      <c r="F53" s="3">
+        <v>217</v>
+      </c>
+      <c r="G53" s="3">
+        <v>224</v>
+      </c>
+      <c r="H53" s="3">
+        <v>150</v>
+      </c>
+      <c r="I53" s="3">
+        <v>168</v>
+      </c>
+      <c r="J53" s="3">
+        <v>150</v>
+      </c>
+      <c r="K53" s="3">
+        <v>137</v>
+      </c>
+      <c r="L53" s="3">
+        <v>143</v>
+      </c>
+      <c r="M53" s="3">
+        <v>166</v>
+      </c>
+      <c r="N53" s="3">
+        <v>518</v>
+      </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>79</v>
       </c>
+      <c r="B54">
+        <v>33</v>
+      </c>
+      <c r="C54">
+        <v>35</v>
+      </c>
+      <c r="D54">
+        <v>33</v>
+      </c>
+      <c r="E54">
+        <v>30</v>
+      </c>
+      <c r="F54">
+        <v>42</v>
+      </c>
+      <c r="G54">
+        <v>50</v>
+      </c>
+      <c r="H54">
+        <v>25</v>
+      </c>
+      <c r="I54">
+        <v>31</v>
+      </c>
+      <c r="J54">
+        <v>23</v>
+      </c>
+      <c r="K54">
+        <v>22</v>
+      </c>
+      <c r="L54">
+        <v>28</v>
+      </c>
+      <c r="M54">
+        <v>25</v>
+      </c>
+      <c r="N54">
+        <v>102</v>
+      </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
-      <c r="M55" s="3"/>
-      <c r="N55" s="3"/>
+      <c r="B55" s="3">
+        <v>35</v>
+      </c>
+      <c r="C55" s="3">
+        <v>37</v>
+      </c>
+      <c r="D55" s="3">
+        <v>42</v>
+      </c>
+      <c r="E55" s="3">
+        <v>43</v>
+      </c>
+      <c r="F55" s="3">
+        <v>49</v>
+      </c>
+      <c r="G55" s="3">
+        <v>33</v>
+      </c>
+      <c r="H55" s="3">
+        <v>38</v>
+      </c>
+      <c r="I55" s="3">
+        <v>38</v>
+      </c>
+      <c r="J55" s="3">
+        <v>26</v>
+      </c>
+      <c r="K55" s="3">
+        <v>30</v>
+      </c>
+      <c r="L55" s="3">
+        <v>29</v>
+      </c>
+      <c r="M55" s="3">
+        <v>31</v>
+      </c>
+      <c r="N55" s="3">
+        <v>143</v>
+      </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>81</v>
+      </c>
+      <c r="B56">
+        <v>50</v>
+      </c>
+      <c r="C56">
+        <v>52</v>
+      </c>
+      <c r="D56">
+        <v>55</v>
+      </c>
+      <c r="E56">
+        <v>62</v>
+      </c>
+      <c r="F56">
+        <v>73</v>
+      </c>
+      <c r="G56">
+        <v>71</v>
+      </c>
+      <c r="H56">
+        <v>63</v>
+      </c>
+      <c r="I56">
+        <v>67</v>
+      </c>
+      <c r="J56">
+        <v>63</v>
+      </c>
+      <c r="K56">
+        <v>65</v>
+      </c>
+      <c r="L56">
+        <v>56</v>
+      </c>
+      <c r="M56">
+        <v>46</v>
+      </c>
+      <c r="N56">
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -16893,7 +18596,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>

--- a/statistics_files/2022/2022.yy.unique borrowers thing.xlsx
+++ b/statistics_files/2022/2022.yy.unique borrowers thing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20391"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20392"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\GitHub\next_statistics\statistics_files\2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7461CDFF-426C-4994-903C-E621B5694136}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B75AFA-7164-4544-8BD1-0639DF41C570}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8670" tabRatio="668" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8670" tabRatio="668" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="January" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="92">
   <si>
     <t>branchname</t>
   </si>
@@ -309,6 +309,9 @@
   </si>
   <si>
     <t>2022-10 (October)</t>
+  </si>
+  <si>
+    <t>2022-11 (November)</t>
   </si>
 </sst>
 </file>
@@ -3045,6 +3048,2412 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:N56"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="N19" sqref="N19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="42.7109375" customWidth="1"/>
+    <col min="2" max="13" width="13.7109375" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="3">
+        <v>596</v>
+      </c>
+      <c r="C3" s="3">
+        <v>591</v>
+      </c>
+      <c r="D3" s="3">
+        <v>648</v>
+      </c>
+      <c r="E3" s="3">
+        <v>669</v>
+      </c>
+      <c r="F3" s="3">
+        <v>749</v>
+      </c>
+      <c r="G3" s="3">
+        <v>605</v>
+      </c>
+      <c r="H3" s="3">
+        <v>568</v>
+      </c>
+      <c r="I3" s="3">
+        <v>579</v>
+      </c>
+      <c r="J3" s="3">
+        <v>509</v>
+      </c>
+      <c r="K3" s="3">
+        <v>537</v>
+      </c>
+      <c r="L3" s="3">
+        <v>535</v>
+      </c>
+      <c r="M3" s="3">
+        <v>552</v>
+      </c>
+      <c r="N3" s="3">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4">
+        <v>312</v>
+      </c>
+      <c r="C4">
+        <v>331</v>
+      </c>
+      <c r="D4">
+        <v>351</v>
+      </c>
+      <c r="E4">
+        <v>372</v>
+      </c>
+      <c r="F4">
+        <v>409</v>
+      </c>
+      <c r="G4">
+        <v>327</v>
+      </c>
+      <c r="H4">
+        <v>305</v>
+      </c>
+      <c r="I4">
+        <v>313</v>
+      </c>
+      <c r="J4">
+        <v>265</v>
+      </c>
+      <c r="K4">
+        <v>258</v>
+      </c>
+      <c r="L4">
+        <v>254</v>
+      </c>
+      <c r="M4">
+        <v>276</v>
+      </c>
+      <c r="N4">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="3">
+        <v>925</v>
+      </c>
+      <c r="C5" s="3">
+        <v>897</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1034</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1072</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1119</v>
+      </c>
+      <c r="G5" s="3">
+        <v>899</v>
+      </c>
+      <c r="H5" s="3">
+        <v>831</v>
+      </c>
+      <c r="I5" s="3">
+        <v>885</v>
+      </c>
+      <c r="J5" s="3">
+        <v>806</v>
+      </c>
+      <c r="K5" s="3">
+        <v>827</v>
+      </c>
+      <c r="L5" s="3">
+        <v>750</v>
+      </c>
+      <c r="M5" s="3">
+        <v>828</v>
+      </c>
+      <c r="N5" s="3">
+        <v>2734</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <v>24</v>
+      </c>
+      <c r="D6">
+        <v>33</v>
+      </c>
+      <c r="E6">
+        <v>29</v>
+      </c>
+      <c r="F6">
+        <v>32</v>
+      </c>
+      <c r="G6">
+        <v>17</v>
+      </c>
+      <c r="H6">
+        <v>22</v>
+      </c>
+      <c r="I6">
+        <v>19</v>
+      </c>
+      <c r="J6">
+        <v>12</v>
+      </c>
+      <c r="K6">
+        <v>15</v>
+      </c>
+      <c r="L6">
+        <v>21</v>
+      </c>
+      <c r="M6">
+        <v>21</v>
+      </c>
+      <c r="N6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="3">
+        <v>660</v>
+      </c>
+      <c r="C7" s="3">
+        <v>641</v>
+      </c>
+      <c r="D7" s="3">
+        <v>721</v>
+      </c>
+      <c r="E7" s="3">
+        <v>800</v>
+      </c>
+      <c r="F7" s="3">
+        <v>806</v>
+      </c>
+      <c r="G7" s="3">
+        <v>605</v>
+      </c>
+      <c r="H7" s="3">
+        <v>561</v>
+      </c>
+      <c r="I7" s="3">
+        <v>617</v>
+      </c>
+      <c r="J7" s="3">
+        <v>561</v>
+      </c>
+      <c r="K7" s="3">
+        <v>583</v>
+      </c>
+      <c r="L7" s="3">
+        <v>564</v>
+      </c>
+      <c r="M7" s="3">
+        <v>563</v>
+      </c>
+      <c r="N7" s="3">
+        <v>2187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8">
+        <v>108</v>
+      </c>
+      <c r="C8">
+        <v>108</v>
+      </c>
+      <c r="D8">
+        <v>105</v>
+      </c>
+      <c r="E8">
+        <v>85</v>
+      </c>
+      <c r="F8">
+        <v>79</v>
+      </c>
+      <c r="G8">
+        <v>64</v>
+      </c>
+      <c r="H8">
+        <v>69</v>
+      </c>
+      <c r="I8">
+        <v>73</v>
+      </c>
+      <c r="J8">
+        <v>66</v>
+      </c>
+      <c r="K8">
+        <v>72</v>
+      </c>
+      <c r="L8">
+        <v>78</v>
+      </c>
+      <c r="M8">
+        <v>70</v>
+      </c>
+      <c r="N8">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="3">
+        <v>109</v>
+      </c>
+      <c r="C9" s="3">
+        <v>112</v>
+      </c>
+      <c r="D9" s="3">
+        <v>123</v>
+      </c>
+      <c r="E9" s="3">
+        <v>120</v>
+      </c>
+      <c r="F9" s="3">
+        <v>126</v>
+      </c>
+      <c r="G9" s="3">
+        <v>108</v>
+      </c>
+      <c r="H9" s="3">
+        <v>103</v>
+      </c>
+      <c r="I9" s="3">
+        <v>124</v>
+      </c>
+      <c r="J9" s="3">
+        <v>93</v>
+      </c>
+      <c r="K9" s="3">
+        <v>104</v>
+      </c>
+      <c r="L9" s="3">
+        <v>99</v>
+      </c>
+      <c r="M9" s="3">
+        <v>99</v>
+      </c>
+      <c r="N9" s="3">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10">
+        <v>39</v>
+      </c>
+      <c r="C10">
+        <v>44</v>
+      </c>
+      <c r="D10">
+        <v>45</v>
+      </c>
+      <c r="E10">
+        <v>48</v>
+      </c>
+      <c r="F10">
+        <v>67</v>
+      </c>
+      <c r="G10">
+        <v>40</v>
+      </c>
+      <c r="H10">
+        <v>40</v>
+      </c>
+      <c r="I10">
+        <v>44</v>
+      </c>
+      <c r="J10">
+        <v>35</v>
+      </c>
+      <c r="K10">
+        <v>33</v>
+      </c>
+      <c r="L10">
+        <v>35</v>
+      </c>
+      <c r="M10">
+        <v>31</v>
+      </c>
+      <c r="N10">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="3">
+        <v>3</v>
+      </c>
+      <c r="C11" s="3">
+        <v>6</v>
+      </c>
+      <c r="D11" s="3">
+        <v>7</v>
+      </c>
+      <c r="E11" s="3">
+        <v>13</v>
+      </c>
+      <c r="F11" s="3">
+        <v>42</v>
+      </c>
+      <c r="G11" s="3">
+        <v>4</v>
+      </c>
+      <c r="H11" s="3">
+        <v>9</v>
+      </c>
+      <c r="I11" s="3">
+        <v>3</v>
+      </c>
+      <c r="J11" s="3">
+        <v>1</v>
+      </c>
+      <c r="K11" s="3">
+        <v>6</v>
+      </c>
+      <c r="L11" s="3">
+        <v>4</v>
+      </c>
+      <c r="M11" s="3">
+        <v>6</v>
+      </c>
+      <c r="N11" s="3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="3">
+        <v>19</v>
+      </c>
+      <c r="C13" s="3">
+        <v>21</v>
+      </c>
+      <c r="D13" s="3">
+        <v>31</v>
+      </c>
+      <c r="E13" s="3">
+        <v>26</v>
+      </c>
+      <c r="F13" s="3">
+        <v>26</v>
+      </c>
+      <c r="G13" s="3">
+        <v>27</v>
+      </c>
+      <c r="H13" s="3">
+        <v>17</v>
+      </c>
+      <c r="I13" s="3">
+        <v>26</v>
+      </c>
+      <c r="J13" s="3">
+        <v>16</v>
+      </c>
+      <c r="K13" s="3">
+        <v>20</v>
+      </c>
+      <c r="L13" s="3">
+        <v>23</v>
+      </c>
+      <c r="M13" s="3">
+        <v>25</v>
+      </c>
+      <c r="N13" s="3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14">
+        <v>54</v>
+      </c>
+      <c r="C14">
+        <v>48</v>
+      </c>
+      <c r="D14">
+        <v>69</v>
+      </c>
+      <c r="E14">
+        <v>62</v>
+      </c>
+      <c r="F14">
+        <v>68</v>
+      </c>
+      <c r="G14">
+        <v>61</v>
+      </c>
+      <c r="H14">
+        <v>50</v>
+      </c>
+      <c r="I14">
+        <v>45</v>
+      </c>
+      <c r="J14">
+        <v>46</v>
+      </c>
+      <c r="K14">
+        <v>41</v>
+      </c>
+      <c r="L14">
+        <v>44</v>
+      </c>
+      <c r="M14">
+        <v>55</v>
+      </c>
+      <c r="N14">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="3">
+        <v>162</v>
+      </c>
+      <c r="C15" s="3">
+        <v>145</v>
+      </c>
+      <c r="D15" s="3">
+        <v>154</v>
+      </c>
+      <c r="E15" s="3">
+        <v>160</v>
+      </c>
+      <c r="F15" s="3">
+        <v>146</v>
+      </c>
+      <c r="G15" s="3">
+        <v>116</v>
+      </c>
+      <c r="H15" s="3">
+        <v>115</v>
+      </c>
+      <c r="I15" s="3">
+        <v>117</v>
+      </c>
+      <c r="J15" s="3">
+        <v>96</v>
+      </c>
+      <c r="K15" s="3">
+        <v>96</v>
+      </c>
+      <c r="L15" s="3">
+        <v>93</v>
+      </c>
+      <c r="M15" s="3">
+        <v>108</v>
+      </c>
+      <c r="N15" s="3">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16">
+        <v>62</v>
+      </c>
+      <c r="C16">
+        <v>57</v>
+      </c>
+      <c r="D16">
+        <v>63</v>
+      </c>
+      <c r="E16">
+        <v>66</v>
+      </c>
+      <c r="F16">
+        <v>84</v>
+      </c>
+      <c r="G16">
+        <v>65</v>
+      </c>
+      <c r="H16">
+        <v>65</v>
+      </c>
+      <c r="I16">
+        <v>64</v>
+      </c>
+      <c r="J16">
+        <v>53</v>
+      </c>
+      <c r="K16">
+        <v>63</v>
+      </c>
+      <c r="L16">
+        <v>43</v>
+      </c>
+      <c r="M16">
+        <v>62</v>
+      </c>
+      <c r="N16">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="3">
+        <v>40</v>
+      </c>
+      <c r="C17" s="3">
+        <v>44</v>
+      </c>
+      <c r="D17" s="3">
+        <v>41</v>
+      </c>
+      <c r="E17" s="3">
+        <v>46</v>
+      </c>
+      <c r="F17" s="3">
+        <v>46</v>
+      </c>
+      <c r="G17" s="3">
+        <v>28</v>
+      </c>
+      <c r="H17" s="3">
+        <v>28</v>
+      </c>
+      <c r="I17" s="3">
+        <v>27</v>
+      </c>
+      <c r="J17" s="3">
+        <v>23</v>
+      </c>
+      <c r="K17" s="3">
+        <v>29</v>
+      </c>
+      <c r="L17" s="3">
+        <v>30</v>
+      </c>
+      <c r="M17" s="3">
+        <v>27</v>
+      </c>
+      <c r="N17" s="3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18">
+        <v>215</v>
+      </c>
+      <c r="C18">
+        <v>237</v>
+      </c>
+      <c r="D18">
+        <v>239</v>
+      </c>
+      <c r="E18">
+        <v>257</v>
+      </c>
+      <c r="F18">
+        <v>247</v>
+      </c>
+      <c r="G18">
+        <v>237</v>
+      </c>
+      <c r="H18">
+        <v>183</v>
+      </c>
+      <c r="I18">
+        <v>189</v>
+      </c>
+      <c r="J18">
+        <v>177</v>
+      </c>
+      <c r="K18">
+        <v>186</v>
+      </c>
+      <c r="L18">
+        <v>180</v>
+      </c>
+      <c r="M18">
+        <v>175</v>
+      </c>
+      <c r="N18">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="3">
+        <v>27</v>
+      </c>
+      <c r="C19" s="3">
+        <v>29</v>
+      </c>
+      <c r="D19" s="3">
+        <v>19</v>
+      </c>
+      <c r="E19" s="3">
+        <v>19</v>
+      </c>
+      <c r="F19" s="3">
+        <v>22</v>
+      </c>
+      <c r="G19" s="3">
+        <v>22</v>
+      </c>
+      <c r="H19" s="3">
+        <v>22</v>
+      </c>
+      <c r="I19" s="3">
+        <v>22</v>
+      </c>
+      <c r="J19" s="3">
+        <v>23</v>
+      </c>
+      <c r="K19" s="3">
+        <v>22</v>
+      </c>
+      <c r="L19" s="3">
+        <v>22</v>
+      </c>
+      <c r="M19" s="3">
+        <v>21</v>
+      </c>
+      <c r="N19" s="3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20">
+        <v>310</v>
+      </c>
+      <c r="C20">
+        <v>308</v>
+      </c>
+      <c r="D20">
+        <v>354</v>
+      </c>
+      <c r="E20">
+        <v>359</v>
+      </c>
+      <c r="F20">
+        <v>363</v>
+      </c>
+      <c r="G20">
+        <v>332</v>
+      </c>
+      <c r="H20">
+        <v>297</v>
+      </c>
+      <c r="I20">
+        <v>333</v>
+      </c>
+      <c r="J20">
+        <v>279</v>
+      </c>
+      <c r="K20">
+        <v>274</v>
+      </c>
+      <c r="L20">
+        <v>281</v>
+      </c>
+      <c r="M20">
+        <v>288</v>
+      </c>
+      <c r="N20">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="3">
+        <v>39</v>
+      </c>
+      <c r="C21" s="3">
+        <v>50</v>
+      </c>
+      <c r="D21" s="3">
+        <v>27</v>
+      </c>
+      <c r="E21" s="3">
+        <v>4</v>
+      </c>
+      <c r="F21" s="3">
+        <v>7</v>
+      </c>
+      <c r="G21" s="3">
+        <v>14</v>
+      </c>
+      <c r="H21" s="3">
+        <v>13</v>
+      </c>
+      <c r="I21" s="3">
+        <v>20</v>
+      </c>
+      <c r="J21" s="3">
+        <v>13</v>
+      </c>
+      <c r="K21" s="3">
+        <v>9</v>
+      </c>
+      <c r="L21" s="3">
+        <v>13</v>
+      </c>
+      <c r="M21" s="3">
+        <v>27</v>
+      </c>
+      <c r="N21" s="3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22">
+        <v>366</v>
+      </c>
+      <c r="C22">
+        <v>362</v>
+      </c>
+      <c r="D22">
+        <v>408</v>
+      </c>
+      <c r="E22">
+        <v>364</v>
+      </c>
+      <c r="F22">
+        <v>419</v>
+      </c>
+      <c r="G22">
+        <v>365</v>
+      </c>
+      <c r="H22">
+        <v>354</v>
+      </c>
+      <c r="I22">
+        <v>371</v>
+      </c>
+      <c r="J22">
+        <v>338</v>
+      </c>
+      <c r="K22">
+        <v>353</v>
+      </c>
+      <c r="L22">
+        <v>330</v>
+      </c>
+      <c r="M22">
+        <v>336</v>
+      </c>
+      <c r="N22">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="3">
+        <v>32</v>
+      </c>
+      <c r="C23" s="3">
+        <v>28</v>
+      </c>
+      <c r="D23" s="3">
+        <v>54</v>
+      </c>
+      <c r="E23" s="3">
+        <v>43</v>
+      </c>
+      <c r="F23" s="3">
+        <v>39</v>
+      </c>
+      <c r="G23" s="3">
+        <v>26</v>
+      </c>
+      <c r="H23" s="3">
+        <v>22</v>
+      </c>
+      <c r="I23" s="3">
+        <v>23</v>
+      </c>
+      <c r="J23" s="3">
+        <v>28</v>
+      </c>
+      <c r="K23" s="3">
+        <v>24</v>
+      </c>
+      <c r="L23" s="3">
+        <v>27</v>
+      </c>
+      <c r="M23" s="3">
+        <v>37</v>
+      </c>
+      <c r="N23" s="3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24">
+        <v>311</v>
+      </c>
+      <c r="C24">
+        <v>370</v>
+      </c>
+      <c r="D24">
+        <v>419</v>
+      </c>
+      <c r="E24">
+        <v>430</v>
+      </c>
+      <c r="F24">
+        <v>443</v>
+      </c>
+      <c r="G24">
+        <v>337</v>
+      </c>
+      <c r="H24">
+        <v>309</v>
+      </c>
+      <c r="I24">
+        <v>321</v>
+      </c>
+      <c r="J24">
+        <v>205</v>
+      </c>
+      <c r="K24">
+        <v>322</v>
+      </c>
+      <c r="L24">
+        <v>281</v>
+      </c>
+      <c r="M24">
+        <v>307</v>
+      </c>
+      <c r="N24">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1043</v>
+      </c>
+      <c r="C25" s="3">
+        <v>978</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1181</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1148</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1084</v>
+      </c>
+      <c r="G25" s="3">
+        <v>940</v>
+      </c>
+      <c r="H25" s="3">
+        <v>940</v>
+      </c>
+      <c r="I25" s="3">
+        <v>1015</v>
+      </c>
+      <c r="J25" s="3">
+        <v>888</v>
+      </c>
+      <c r="K25" s="3">
+        <v>842</v>
+      </c>
+      <c r="L25" s="3">
+        <v>904</v>
+      </c>
+      <c r="M25" s="3">
+        <v>930</v>
+      </c>
+      <c r="N25" s="3">
+        <v>3443</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26">
+        <v>73</v>
+      </c>
+      <c r="C26">
+        <v>77</v>
+      </c>
+      <c r="D26">
+        <v>78</v>
+      </c>
+      <c r="E26">
+        <v>93</v>
+      </c>
+      <c r="F26">
+        <v>103</v>
+      </c>
+      <c r="G26">
+        <v>97</v>
+      </c>
+      <c r="H26">
+        <v>84</v>
+      </c>
+      <c r="I26">
+        <v>81</v>
+      </c>
+      <c r="J26">
+        <v>66</v>
+      </c>
+      <c r="K26">
+        <v>62</v>
+      </c>
+      <c r="L26">
+        <v>85</v>
+      </c>
+      <c r="M26">
+        <v>95</v>
+      </c>
+      <c r="N26">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28">
+        <v>111</v>
+      </c>
+      <c r="C28">
+        <v>97</v>
+      </c>
+      <c r="D28">
+        <v>120</v>
+      </c>
+      <c r="E28">
+        <v>114</v>
+      </c>
+      <c r="F28">
+        <v>127</v>
+      </c>
+      <c r="G28">
+        <v>112</v>
+      </c>
+      <c r="H28">
+        <v>104</v>
+      </c>
+      <c r="I28">
+        <v>102</v>
+      </c>
+      <c r="J28">
+        <v>90</v>
+      </c>
+      <c r="K28">
+        <v>94</v>
+      </c>
+      <c r="L28">
+        <v>106</v>
+      </c>
+      <c r="M28">
+        <v>103</v>
+      </c>
+      <c r="N28">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="3">
+        <v>41</v>
+      </c>
+      <c r="C29" s="3">
+        <v>51</v>
+      </c>
+      <c r="D29" s="3">
+        <v>38</v>
+      </c>
+      <c r="E29" s="3">
+        <v>42</v>
+      </c>
+      <c r="F29" s="3">
+        <v>59</v>
+      </c>
+      <c r="G29" s="3">
+        <v>43</v>
+      </c>
+      <c r="H29" s="3">
+        <v>41</v>
+      </c>
+      <c r="I29" s="3">
+        <v>43</v>
+      </c>
+      <c r="J29" s="3">
+        <v>40</v>
+      </c>
+      <c r="K29" s="3">
+        <v>36</v>
+      </c>
+      <c r="L29" s="3">
+        <v>46</v>
+      </c>
+      <c r="M29" s="3">
+        <v>46</v>
+      </c>
+      <c r="N29" s="3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30">
+        <v>182</v>
+      </c>
+      <c r="C30">
+        <v>192</v>
+      </c>
+      <c r="D30">
+        <v>213</v>
+      </c>
+      <c r="E30">
+        <v>222</v>
+      </c>
+      <c r="F30">
+        <v>285</v>
+      </c>
+      <c r="G30">
+        <v>231</v>
+      </c>
+      <c r="H30">
+        <v>192</v>
+      </c>
+      <c r="I30">
+        <v>196</v>
+      </c>
+      <c r="J30">
+        <v>184</v>
+      </c>
+      <c r="K30">
+        <v>192</v>
+      </c>
+      <c r="L30">
+        <v>190</v>
+      </c>
+      <c r="M30">
+        <v>189</v>
+      </c>
+      <c r="N30">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="3">
+        <v>9</v>
+      </c>
+      <c r="C31" s="3">
+        <v>8</v>
+      </c>
+      <c r="D31" s="3">
+        <v>21</v>
+      </c>
+      <c r="E31" s="3">
+        <v>35</v>
+      </c>
+      <c r="F31" s="3">
+        <v>14</v>
+      </c>
+      <c r="G31" s="3">
+        <v>10</v>
+      </c>
+      <c r="H31" s="3">
+        <v>11</v>
+      </c>
+      <c r="I31" s="3">
+        <v>9</v>
+      </c>
+      <c r="J31" s="3">
+        <v>14</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>17</v>
+      </c>
+      <c r="N31" s="3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32">
+        <v>33</v>
+      </c>
+      <c r="C32">
+        <v>38</v>
+      </c>
+      <c r="D32">
+        <v>55</v>
+      </c>
+      <c r="E32">
+        <v>54</v>
+      </c>
+      <c r="F32">
+        <v>69</v>
+      </c>
+      <c r="G32">
+        <v>49</v>
+      </c>
+      <c r="H32">
+        <v>34</v>
+      </c>
+      <c r="I32">
+        <v>42</v>
+      </c>
+      <c r="J32">
+        <v>38</v>
+      </c>
+      <c r="K32">
+        <v>31</v>
+      </c>
+      <c r="L32">
+        <v>38</v>
+      </c>
+      <c r="M32">
+        <v>49</v>
+      </c>
+      <c r="N32">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="3">
+        <v>289</v>
+      </c>
+      <c r="C33" s="3">
+        <v>297</v>
+      </c>
+      <c r="D33" s="3">
+        <v>297</v>
+      </c>
+      <c r="E33" s="3">
+        <v>319</v>
+      </c>
+      <c r="F33" s="3">
+        <v>344</v>
+      </c>
+      <c r="G33" s="3">
+        <v>312</v>
+      </c>
+      <c r="H33" s="3">
+        <v>287</v>
+      </c>
+      <c r="I33" s="3">
+        <v>298</v>
+      </c>
+      <c r="J33" s="3">
+        <v>272</v>
+      </c>
+      <c r="K33" s="3">
+        <v>268</v>
+      </c>
+      <c r="L33" s="3">
+        <v>272</v>
+      </c>
+      <c r="M33" s="3">
+        <v>271</v>
+      </c>
+      <c r="N33" s="3">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34">
+        <v>210</v>
+      </c>
+      <c r="C34">
+        <v>224</v>
+      </c>
+      <c r="D34">
+        <v>267</v>
+      </c>
+      <c r="E34">
+        <v>258</v>
+      </c>
+      <c r="F34">
+        <v>268</v>
+      </c>
+      <c r="G34">
+        <v>222</v>
+      </c>
+      <c r="H34">
+        <v>239</v>
+      </c>
+      <c r="I34">
+        <v>228</v>
+      </c>
+      <c r="J34">
+        <v>262</v>
+      </c>
+      <c r="K34">
+        <v>291</v>
+      </c>
+      <c r="L34">
+        <v>244</v>
+      </c>
+      <c r="M34">
+        <v>252</v>
+      </c>
+      <c r="N34">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" s="3">
+        <v>164</v>
+      </c>
+      <c r="C35" s="3">
+        <v>152</v>
+      </c>
+      <c r="D35" s="3">
+        <v>157</v>
+      </c>
+      <c r="E35" s="3">
+        <v>165</v>
+      </c>
+      <c r="F35" s="3">
+        <v>174</v>
+      </c>
+      <c r="G35" s="3">
+        <v>146</v>
+      </c>
+      <c r="H35" s="3">
+        <v>147</v>
+      </c>
+      <c r="I35" s="3">
+        <v>142</v>
+      </c>
+      <c r="J35" s="3">
+        <v>130</v>
+      </c>
+      <c r="K35" s="3">
+        <v>143</v>
+      </c>
+      <c r="L35" s="3">
+        <v>145</v>
+      </c>
+      <c r="M35" s="3">
+        <v>144</v>
+      </c>
+      <c r="N35" s="3">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36">
+        <v>779</v>
+      </c>
+      <c r="C36">
+        <v>783</v>
+      </c>
+      <c r="D36">
+        <v>900</v>
+      </c>
+      <c r="E36">
+        <v>943</v>
+      </c>
+      <c r="F36">
+        <v>984</v>
+      </c>
+      <c r="G36">
+        <v>788</v>
+      </c>
+      <c r="H36">
+        <v>665</v>
+      </c>
+      <c r="I36">
+        <v>751</v>
+      </c>
+      <c r="J36">
+        <v>647</v>
+      </c>
+      <c r="K36">
+        <v>640</v>
+      </c>
+      <c r="L36">
+        <v>615</v>
+      </c>
+      <c r="M36">
+        <v>681</v>
+      </c>
+      <c r="N36">
+        <v>2487</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37" s="3">
+        <v>146</v>
+      </c>
+      <c r="C37" s="3">
+        <v>153</v>
+      </c>
+      <c r="D37" s="3">
+        <v>165</v>
+      </c>
+      <c r="E37" s="3">
+        <v>180</v>
+      </c>
+      <c r="F37" s="3">
+        <v>181</v>
+      </c>
+      <c r="G37" s="3">
+        <v>155</v>
+      </c>
+      <c r="H37" s="3">
+        <v>136</v>
+      </c>
+      <c r="I37" s="3">
+        <v>150</v>
+      </c>
+      <c r="J37" s="3">
+        <v>144</v>
+      </c>
+      <c r="K37" s="3">
+        <v>139</v>
+      </c>
+      <c r="L37" s="3">
+        <v>139</v>
+      </c>
+      <c r="M37" s="3">
+        <v>129</v>
+      </c>
+      <c r="N37" s="3">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38">
+        <v>480</v>
+      </c>
+      <c r="C38">
+        <v>522</v>
+      </c>
+      <c r="D38">
+        <v>556</v>
+      </c>
+      <c r="E38">
+        <v>609</v>
+      </c>
+      <c r="F38">
+        <v>590</v>
+      </c>
+      <c r="G38">
+        <v>483</v>
+      </c>
+      <c r="H38">
+        <v>403</v>
+      </c>
+      <c r="I38">
+        <v>415</v>
+      </c>
+      <c r="J38">
+        <v>373</v>
+      </c>
+      <c r="K38">
+        <v>383</v>
+      </c>
+      <c r="L38">
+        <v>360</v>
+      </c>
+      <c r="M38">
+        <v>413</v>
+      </c>
+      <c r="N38">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39" s="3">
+        <v>20</v>
+      </c>
+      <c r="C39" s="3">
+        <v>21</v>
+      </c>
+      <c r="D39" s="3">
+        <v>24</v>
+      </c>
+      <c r="E39" s="3">
+        <v>48</v>
+      </c>
+      <c r="F39" s="3">
+        <v>63</v>
+      </c>
+      <c r="G39" s="3">
+        <v>28</v>
+      </c>
+      <c r="H39" s="3">
+        <v>19</v>
+      </c>
+      <c r="I39" s="3">
+        <v>18</v>
+      </c>
+      <c r="J39" s="3">
+        <v>18</v>
+      </c>
+      <c r="K39" s="3">
+        <v>19</v>
+      </c>
+      <c r="L39" s="3">
+        <v>13</v>
+      </c>
+      <c r="M39" s="3">
+        <v>18</v>
+      </c>
+      <c r="N39" s="3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40">
+        <v>20</v>
+      </c>
+      <c r="C40">
+        <v>26</v>
+      </c>
+      <c r="D40">
+        <v>24</v>
+      </c>
+      <c r="E40">
+        <v>30</v>
+      </c>
+      <c r="F40">
+        <v>32</v>
+      </c>
+      <c r="G40">
+        <v>22</v>
+      </c>
+      <c r="H40">
+        <v>26</v>
+      </c>
+      <c r="I40">
+        <v>37</v>
+      </c>
+      <c r="J40">
+        <v>27</v>
+      </c>
+      <c r="K40">
+        <v>28</v>
+      </c>
+      <c r="L40">
+        <v>24</v>
+      </c>
+      <c r="M40">
+        <v>25</v>
+      </c>
+      <c r="N40">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B41" s="3">
+        <v>122</v>
+      </c>
+      <c r="C41" s="3">
+        <v>114</v>
+      </c>
+      <c r="D41" s="3">
+        <v>140</v>
+      </c>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3">
+        <v>1</v>
+      </c>
+      <c r="G41" s="3">
+        <v>51</v>
+      </c>
+      <c r="H41" s="3">
+        <v>99</v>
+      </c>
+      <c r="I41" s="3">
+        <v>96</v>
+      </c>
+      <c r="J41" s="3">
+        <v>88</v>
+      </c>
+      <c r="K41" s="3">
+        <v>132</v>
+      </c>
+      <c r="L41" s="3">
+        <v>87</v>
+      </c>
+      <c r="M41" s="3">
+        <v>104</v>
+      </c>
+      <c r="N41" s="3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>67</v>
+      </c>
+      <c r="B42">
+        <v>363</v>
+      </c>
+      <c r="C42">
+        <v>381</v>
+      </c>
+      <c r="D42">
+        <v>367</v>
+      </c>
+      <c r="G42">
+        <v>6</v>
+      </c>
+      <c r="H42">
+        <v>328</v>
+      </c>
+      <c r="I42">
+        <v>333</v>
+      </c>
+      <c r="J42">
+        <v>356</v>
+      </c>
+      <c r="K42">
+        <v>362</v>
+      </c>
+      <c r="L42">
+        <v>342</v>
+      </c>
+      <c r="M42">
+        <v>366</v>
+      </c>
+      <c r="N42">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B43" s="3">
+        <v>20</v>
+      </c>
+      <c r="C43" s="3">
+        <v>41</v>
+      </c>
+      <c r="D43" s="3">
+        <v>43</v>
+      </c>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3">
+        <v>4</v>
+      </c>
+      <c r="H43" s="3">
+        <v>14</v>
+      </c>
+      <c r="I43" s="3">
+        <v>25</v>
+      </c>
+      <c r="J43" s="3">
+        <v>71</v>
+      </c>
+      <c r="K43" s="3">
+        <v>48</v>
+      </c>
+      <c r="L43" s="3">
+        <v>10</v>
+      </c>
+      <c r="M43" s="3">
+        <v>14</v>
+      </c>
+      <c r="N43" s="3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>69</v>
+      </c>
+      <c r="B44">
+        <v>99</v>
+      </c>
+      <c r="C44">
+        <v>115</v>
+      </c>
+      <c r="D44">
+        <v>148</v>
+      </c>
+      <c r="G44">
+        <v>19</v>
+      </c>
+      <c r="H44">
+        <v>84</v>
+      </c>
+      <c r="I44">
+        <v>68</v>
+      </c>
+      <c r="J44">
+        <v>59</v>
+      </c>
+      <c r="K44">
+        <v>98</v>
+      </c>
+      <c r="L44">
+        <v>53</v>
+      </c>
+      <c r="M44">
+        <v>117</v>
+      </c>
+      <c r="N44">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45" s="3">
+        <v>84</v>
+      </c>
+      <c r="C45" s="3">
+        <v>72</v>
+      </c>
+      <c r="D45" s="3">
+        <v>67</v>
+      </c>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3">
+        <v>8</v>
+      </c>
+      <c r="H45" s="3">
+        <v>86</v>
+      </c>
+      <c r="I45" s="3">
+        <v>86</v>
+      </c>
+      <c r="J45" s="3">
+        <v>93</v>
+      </c>
+      <c r="K45" s="3">
+        <v>89</v>
+      </c>
+      <c r="L45" s="3">
+        <v>70</v>
+      </c>
+      <c r="M45" s="3">
+        <v>73</v>
+      </c>
+      <c r="N45" s="3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>71</v>
+      </c>
+      <c r="B46">
+        <v>40</v>
+      </c>
+      <c r="C46">
+        <v>38</v>
+      </c>
+      <c r="D46">
+        <v>40</v>
+      </c>
+      <c r="E46">
+        <v>41</v>
+      </c>
+      <c r="F46">
+        <v>51</v>
+      </c>
+      <c r="G46">
+        <v>40</v>
+      </c>
+      <c r="H46">
+        <v>48</v>
+      </c>
+      <c r="I46">
+        <v>43</v>
+      </c>
+      <c r="J46">
+        <v>40</v>
+      </c>
+      <c r="K46">
+        <v>37</v>
+      </c>
+      <c r="L46">
+        <v>39</v>
+      </c>
+      <c r="M46">
+        <v>33</v>
+      </c>
+      <c r="N46">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B47" s="3">
+        <v>220</v>
+      </c>
+      <c r="C47" s="3">
+        <v>206</v>
+      </c>
+      <c r="D47" s="3">
+        <v>235</v>
+      </c>
+      <c r="E47" s="3">
+        <v>229</v>
+      </c>
+      <c r="F47" s="3">
+        <v>238</v>
+      </c>
+      <c r="G47" s="3">
+        <v>234</v>
+      </c>
+      <c r="H47" s="3">
+        <v>212</v>
+      </c>
+      <c r="I47" s="3">
+        <v>207</v>
+      </c>
+      <c r="J47" s="3">
+        <v>187</v>
+      </c>
+      <c r="K47" s="3">
+        <v>193</v>
+      </c>
+      <c r="L47" s="3">
+        <v>184</v>
+      </c>
+      <c r="M47" s="3">
+        <v>196</v>
+      </c>
+      <c r="N47" s="3">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>73</v>
+      </c>
+      <c r="B48">
+        <v>280</v>
+      </c>
+      <c r="C48">
+        <v>298</v>
+      </c>
+      <c r="D48">
+        <v>329</v>
+      </c>
+      <c r="E48">
+        <v>309</v>
+      </c>
+      <c r="F48">
+        <v>340</v>
+      </c>
+      <c r="G48">
+        <v>309</v>
+      </c>
+      <c r="H48">
+        <v>274</v>
+      </c>
+      <c r="I48">
+        <v>295</v>
+      </c>
+      <c r="J48">
+        <v>279</v>
+      </c>
+      <c r="K48">
+        <v>271</v>
+      </c>
+      <c r="L48">
+        <v>255</v>
+      </c>
+      <c r="M48">
+        <v>270</v>
+      </c>
+      <c r="N48">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B49" s="3">
+        <v>233</v>
+      </c>
+      <c r="C49" s="3">
+        <v>243</v>
+      </c>
+      <c r="D49" s="3">
+        <v>313</v>
+      </c>
+      <c r="E49" s="3">
+        <v>343</v>
+      </c>
+      <c r="F49" s="3">
+        <v>368</v>
+      </c>
+      <c r="G49" s="3">
+        <v>331</v>
+      </c>
+      <c r="H49" s="3">
+        <v>253</v>
+      </c>
+      <c r="I49" s="3">
+        <v>274</v>
+      </c>
+      <c r="J49" s="3">
+        <v>250</v>
+      </c>
+      <c r="K49" s="3">
+        <v>234</v>
+      </c>
+      <c r="L49" s="3">
+        <v>216</v>
+      </c>
+      <c r="M49" s="3">
+        <v>226</v>
+      </c>
+      <c r="N49" s="3">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>75</v>
+      </c>
+      <c r="B50">
+        <v>198</v>
+      </c>
+      <c r="C50">
+        <v>212</v>
+      </c>
+      <c r="D50">
+        <v>224</v>
+      </c>
+      <c r="E50">
+        <v>209</v>
+      </c>
+      <c r="F50">
+        <v>212</v>
+      </c>
+      <c r="G50">
+        <v>201</v>
+      </c>
+      <c r="H50">
+        <v>180</v>
+      </c>
+      <c r="I50">
+        <v>181</v>
+      </c>
+      <c r="J50">
+        <v>167</v>
+      </c>
+      <c r="K50">
+        <v>174</v>
+      </c>
+      <c r="L50">
+        <v>171</v>
+      </c>
+      <c r="M50">
+        <v>171</v>
+      </c>
+      <c r="N50">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B51" s="3">
+        <v>500</v>
+      </c>
+      <c r="C51" s="3">
+        <v>499</v>
+      </c>
+      <c r="D51" s="3">
+        <v>595</v>
+      </c>
+      <c r="E51" s="3">
+        <v>628</v>
+      </c>
+      <c r="F51" s="3">
+        <v>645</v>
+      </c>
+      <c r="G51" s="3">
+        <v>556</v>
+      </c>
+      <c r="H51" s="3">
+        <v>472</v>
+      </c>
+      <c r="I51" s="3">
+        <v>486</v>
+      </c>
+      <c r="J51" s="3">
+        <v>406</v>
+      </c>
+      <c r="K51" s="3">
+        <v>409</v>
+      </c>
+      <c r="L51" s="3">
+        <v>407</v>
+      </c>
+      <c r="M51" s="3">
+        <v>419</v>
+      </c>
+      <c r="N51" s="3">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>77</v>
+      </c>
+      <c r="B52">
+        <v>73</v>
+      </c>
+      <c r="C52">
+        <v>77</v>
+      </c>
+      <c r="D52">
+        <v>82</v>
+      </c>
+      <c r="E52">
+        <v>74</v>
+      </c>
+      <c r="F52">
+        <v>79</v>
+      </c>
+      <c r="G52">
+        <v>72</v>
+      </c>
+      <c r="H52">
+        <v>70</v>
+      </c>
+      <c r="I52">
+        <v>69</v>
+      </c>
+      <c r="J52">
+        <v>56</v>
+      </c>
+      <c r="K52">
+        <v>63</v>
+      </c>
+      <c r="L52">
+        <v>67</v>
+      </c>
+      <c r="M52">
+        <v>56</v>
+      </c>
+      <c r="N52">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B53" s="3">
+        <v>208</v>
+      </c>
+      <c r="C53" s="3">
+        <v>183</v>
+      </c>
+      <c r="D53" s="3">
+        <v>200</v>
+      </c>
+      <c r="E53" s="3">
+        <v>198</v>
+      </c>
+      <c r="F53" s="3">
+        <v>217</v>
+      </c>
+      <c r="G53" s="3">
+        <v>224</v>
+      </c>
+      <c r="H53" s="3">
+        <v>150</v>
+      </c>
+      <c r="I53" s="3">
+        <v>168</v>
+      </c>
+      <c r="J53" s="3">
+        <v>150</v>
+      </c>
+      <c r="K53" s="3">
+        <v>137</v>
+      </c>
+      <c r="L53" s="3">
+        <v>143</v>
+      </c>
+      <c r="M53" s="3">
+        <v>166</v>
+      </c>
+      <c r="N53" s="3">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>79</v>
+      </c>
+      <c r="B54">
+        <v>33</v>
+      </c>
+      <c r="C54">
+        <v>35</v>
+      </c>
+      <c r="D54">
+        <v>33</v>
+      </c>
+      <c r="E54">
+        <v>30</v>
+      </c>
+      <c r="F54">
+        <v>42</v>
+      </c>
+      <c r="G54">
+        <v>50</v>
+      </c>
+      <c r="H54">
+        <v>25</v>
+      </c>
+      <c r="I54">
+        <v>31</v>
+      </c>
+      <c r="J54">
+        <v>23</v>
+      </c>
+      <c r="K54">
+        <v>22</v>
+      </c>
+      <c r="L54">
+        <v>28</v>
+      </c>
+      <c r="M54">
+        <v>25</v>
+      </c>
+      <c r="N54">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B55" s="3">
+        <v>35</v>
+      </c>
+      <c r="C55" s="3">
+        <v>37</v>
+      </c>
+      <c r="D55" s="3">
+        <v>42</v>
+      </c>
+      <c r="E55" s="3">
+        <v>43</v>
+      </c>
+      <c r="F55" s="3">
+        <v>49</v>
+      </c>
+      <c r="G55" s="3">
+        <v>33</v>
+      </c>
+      <c r="H55" s="3">
+        <v>38</v>
+      </c>
+      <c r="I55" s="3">
+        <v>38</v>
+      </c>
+      <c r="J55" s="3">
+        <v>26</v>
+      </c>
+      <c r="K55" s="3">
+        <v>30</v>
+      </c>
+      <c r="L55" s="3">
+        <v>29</v>
+      </c>
+      <c r="M55" s="3">
+        <v>31</v>
+      </c>
+      <c r="N55" s="3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>81</v>
+      </c>
+      <c r="B56">
+        <v>50</v>
+      </c>
+      <c r="C56">
+        <v>52</v>
+      </c>
+      <c r="D56">
+        <v>55</v>
+      </c>
+      <c r="E56">
+        <v>62</v>
+      </c>
+      <c r="F56">
+        <v>73</v>
+      </c>
+      <c r="G56">
+        <v>71</v>
+      </c>
+      <c r="H56">
+        <v>63</v>
+      </c>
+      <c r="I56">
+        <v>67</v>
+      </c>
+      <c r="J56">
+        <v>63</v>
+      </c>
+      <c r="K56">
+        <v>65</v>
+      </c>
+      <c r="L56">
+        <v>56</v>
+      </c>
+      <c r="M56">
+        <v>46</v>
+      </c>
+      <c r="N56">
+        <v>222</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:N56"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
@@ -3108,40 +5517,40 @@
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>27</v>
@@ -3152,40 +5561,40 @@
         <v>28</v>
       </c>
       <c r="B3" s="3">
+        <v>566</v>
+      </c>
+      <c r="C3" s="3">
         <v>596</v>
       </c>
-      <c r="C3" s="3">
+      <c r="D3" s="3">
         <v>591</v>
       </c>
-      <c r="D3" s="3">
+      <c r="E3" s="3">
         <v>648</v>
       </c>
-      <c r="E3" s="3">
+      <c r="F3" s="3">
         <v>669</v>
       </c>
-      <c r="F3" s="3">
+      <c r="G3" s="3">
         <v>749</v>
       </c>
-      <c r="G3" s="3">
+      <c r="H3" s="3">
         <v>605</v>
       </c>
-      <c r="H3" s="3">
+      <c r="I3" s="3">
         <v>568</v>
       </c>
-      <c r="I3" s="3">
+      <c r="J3" s="3">
         <v>579</v>
       </c>
-      <c r="J3" s="3">
+      <c r="K3" s="3">
         <v>509</v>
       </c>
-      <c r="K3" s="3">
+      <c r="L3" s="3">
         <v>537</v>
       </c>
-      <c r="L3" s="3">
+      <c r="M3" s="3">
         <v>535</v>
-      </c>
-      <c r="M3" s="3">
-        <v>552</v>
       </c>
       <c r="N3" s="3">
         <v>1850</v>
@@ -3196,43 +5605,43 @@
         <v>29</v>
       </c>
       <c r="B4">
+        <v>298</v>
+      </c>
+      <c r="C4">
         <v>312</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>331</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>351</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>372</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>409</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>327</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>305</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>313</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>265</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>258</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>254</v>
       </c>
-      <c r="M4">
-        <v>276</v>
-      </c>
       <c r="N4">
-        <v>1010</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -3240,43 +5649,43 @@
         <v>30</v>
       </c>
       <c r="B5" s="3">
+        <v>844</v>
+      </c>
+      <c r="C5" s="3">
         <v>925</v>
       </c>
-      <c r="C5" s="3">
+      <c r="D5" s="3">
         <v>897</v>
       </c>
-      <c r="D5" s="3">
+      <c r="E5" s="3">
         <v>1034</v>
       </c>
-      <c r="E5" s="3">
+      <c r="F5" s="3">
         <v>1072</v>
       </c>
-      <c r="F5" s="3">
+      <c r="G5" s="3">
         <v>1119</v>
       </c>
-      <c r="G5" s="3">
+      <c r="H5" s="3">
         <v>899</v>
       </c>
-      <c r="H5" s="3">
+      <c r="I5" s="3">
         <v>831</v>
       </c>
-      <c r="I5" s="3">
+      <c r="J5" s="3">
         <v>885</v>
       </c>
-      <c r="J5" s="3">
+      <c r="K5" s="3">
         <v>806</v>
       </c>
-      <c r="K5" s="3">
+      <c r="L5" s="3">
         <v>827</v>
       </c>
-      <c r="L5" s="3">
+      <c r="M5" s="3">
         <v>750</v>
       </c>
-      <c r="M5" s="3">
-        <v>828</v>
-      </c>
       <c r="N5" s="3">
-        <v>2734</v>
+        <v>2733</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -3284,43 +5693,43 @@
         <v>31</v>
       </c>
       <c r="B6">
+        <v>12</v>
+      </c>
+      <c r="C6">
         <v>19</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>24</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>33</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>29</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>32</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>17</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>22</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>19</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>12</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>15</v>
-      </c>
-      <c r="L6">
-        <v>21</v>
       </c>
       <c r="M6">
         <v>21</v>
       </c>
       <c r="N6">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -3328,43 +5737,43 @@
         <v>32</v>
       </c>
       <c r="B7" s="3">
+        <v>630</v>
+      </c>
+      <c r="C7" s="3">
         <v>660</v>
       </c>
-      <c r="C7" s="3">
+      <c r="D7" s="3">
         <v>641</v>
       </c>
-      <c r="D7" s="3">
+      <c r="E7" s="3">
         <v>721</v>
       </c>
-      <c r="E7" s="3">
+      <c r="F7" s="3">
         <v>800</v>
       </c>
-      <c r="F7" s="3">
+      <c r="G7" s="3">
         <v>806</v>
       </c>
-      <c r="G7" s="3">
+      <c r="H7" s="3">
         <v>605</v>
       </c>
-      <c r="H7" s="3">
+      <c r="I7" s="3">
         <v>561</v>
       </c>
-      <c r="I7" s="3">
+      <c r="J7" s="3">
         <v>617</v>
       </c>
-      <c r="J7" s="3">
+      <c r="K7" s="3">
         <v>561</v>
       </c>
-      <c r="K7" s="3">
+      <c r="L7" s="3">
         <v>583</v>
       </c>
-      <c r="L7" s="3">
+      <c r="M7" s="3">
         <v>564</v>
       </c>
-      <c r="M7" s="3">
-        <v>563</v>
-      </c>
       <c r="N7" s="3">
-        <v>2187</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -3372,43 +5781,43 @@
         <v>33</v>
       </c>
       <c r="B8">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C8">
         <v>108</v>
       </c>
       <c r="D8">
+        <v>108</v>
+      </c>
+      <c r="E8">
         <v>105</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>85</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>79</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>64</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>69</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>73</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>66</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>72</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>78</v>
       </c>
-      <c r="M8">
-        <v>70</v>
-      </c>
       <c r="N8">
-        <v>263</v>
+        <v>273</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -3416,43 +5825,43 @@
         <v>34</v>
       </c>
       <c r="B9" s="3">
+        <v>100</v>
+      </c>
+      <c r="C9" s="3">
         <v>109</v>
       </c>
-      <c r="C9" s="3">
+      <c r="D9" s="3">
         <v>112</v>
       </c>
-      <c r="D9" s="3">
+      <c r="E9" s="3">
         <v>123</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>120</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>126</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>108</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>103</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>124</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>93</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>104</v>
-      </c>
-      <c r="L9" s="3">
-        <v>99</v>
       </c>
       <c r="M9" s="3">
         <v>99</v>
       </c>
       <c r="N9" s="3">
-        <v>377</v>
+        <v>369</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -3460,43 +5869,43 @@
         <v>35</v>
       </c>
       <c r="B10">
+        <v>46</v>
+      </c>
+      <c r="C10">
         <v>39</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>44</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>45</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>48</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>67</v>
-      </c>
-      <c r="G10">
-        <v>40</v>
       </c>
       <c r="H10">
         <v>40</v>
       </c>
       <c r="I10">
+        <v>40</v>
+      </c>
+      <c r="J10">
         <v>44</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>35</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>33</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>35</v>
       </c>
-      <c r="M10">
-        <v>31</v>
-      </c>
       <c r="N10">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -3504,40 +5913,40 @@
         <v>36</v>
       </c>
       <c r="B11" s="3">
+        <v>7</v>
+      </c>
+      <c r="C11" s="3">
         <v>3</v>
       </c>
-      <c r="C11" s="3">
+      <c r="D11" s="3">
         <v>6</v>
       </c>
-      <c r="D11" s="3">
+      <c r="E11" s="3">
         <v>7</v>
       </c>
-      <c r="E11" s="3">
+      <c r="F11" s="3">
         <v>13</v>
       </c>
-      <c r="F11" s="3">
+      <c r="G11" s="3">
         <v>42</v>
       </c>
-      <c r="G11" s="3">
+      <c r="H11" s="3">
         <v>4</v>
       </c>
-      <c r="H11" s="3">
+      <c r="I11" s="3">
         <v>9</v>
       </c>
-      <c r="I11" s="3">
+      <c r="J11" s="3">
         <v>3</v>
       </c>
-      <c r="J11" s="3">
+      <c r="K11" s="3">
         <v>1</v>
       </c>
-      <c r="K11" s="3">
+      <c r="L11" s="3">
         <v>6</v>
       </c>
-      <c r="L11" s="3">
+      <c r="M11" s="3">
         <v>4</v>
-      </c>
-      <c r="M11" s="3">
-        <v>6</v>
       </c>
       <c r="N11" s="3">
         <v>51</v>
@@ -3547,9 +5956,6 @@
       <c r="A12" t="s">
         <v>37</v>
       </c>
-      <c r="M12">
-        <v>1</v>
-      </c>
       <c r="N12">
         <v>1</v>
       </c>
@@ -3559,43 +5965,43 @@
         <v>38</v>
       </c>
       <c r="B13" s="3">
+        <v>23</v>
+      </c>
+      <c r="C13" s="3">
         <v>19</v>
       </c>
-      <c r="C13" s="3">
+      <c r="D13" s="3">
         <v>21</v>
       </c>
-      <c r="D13" s="3">
+      <c r="E13" s="3">
         <v>31</v>
-      </c>
-      <c r="E13" s="3">
-        <v>26</v>
       </c>
       <c r="F13" s="3">
         <v>26</v>
       </c>
       <c r="G13" s="3">
+        <v>26</v>
+      </c>
+      <c r="H13" s="3">
         <v>27</v>
       </c>
-      <c r="H13" s="3">
+      <c r="I13" s="3">
         <v>17</v>
       </c>
-      <c r="I13" s="3">
+      <c r="J13" s="3">
         <v>26</v>
       </c>
-      <c r="J13" s="3">
+      <c r="K13" s="3">
         <v>16</v>
       </c>
-      <c r="K13" s="3">
+      <c r="L13" s="3">
         <v>20</v>
       </c>
-      <c r="L13" s="3">
+      <c r="M13" s="3">
         <v>23</v>
       </c>
-      <c r="M13" s="3">
-        <v>25</v>
-      </c>
       <c r="N13" s="3">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -3603,43 +6009,43 @@
         <v>39</v>
       </c>
       <c r="B14">
+        <v>52</v>
+      </c>
+      <c r="C14">
         <v>54</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>48</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>69</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>62</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>68</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>61</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>50</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>45</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>46</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>41</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>44</v>
       </c>
-      <c r="M14">
-        <v>55</v>
-      </c>
       <c r="N14">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -3647,43 +6053,43 @@
         <v>40</v>
       </c>
       <c r="B15" s="3">
+        <v>121</v>
+      </c>
+      <c r="C15" s="3">
         <v>162</v>
       </c>
-      <c r="C15" s="3">
+      <c r="D15" s="3">
         <v>145</v>
       </c>
-      <c r="D15" s="3">
+      <c r="E15" s="3">
         <v>154</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>160</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>146</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>116</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>115</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>117</v>
-      </c>
-      <c r="J15" s="3">
-        <v>96</v>
       </c>
       <c r="K15" s="3">
         <v>96</v>
       </c>
       <c r="L15" s="3">
+        <v>96</v>
+      </c>
+      <c r="M15" s="3">
         <v>93</v>
       </c>
-      <c r="M15" s="3">
-        <v>108</v>
-      </c>
       <c r="N15" s="3">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -3691,43 +6097,43 @@
         <v>41</v>
       </c>
       <c r="B16">
+        <v>57</v>
+      </c>
+      <c r="C16">
         <v>62</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>57</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>63</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>66</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>84</v>
-      </c>
-      <c r="G16">
-        <v>65</v>
       </c>
       <c r="H16">
         <v>65</v>
       </c>
       <c r="I16">
+        <v>65</v>
+      </c>
+      <c r="J16">
         <v>64</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>53</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>63</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>43</v>
       </c>
-      <c r="M16">
-        <v>62</v>
-      </c>
       <c r="N16">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -3735,43 +6141,43 @@
         <v>42</v>
       </c>
       <c r="B17" s="3">
+        <v>37</v>
+      </c>
+      <c r="C17" s="3">
         <v>40</v>
       </c>
-      <c r="C17" s="3">
+      <c r="D17" s="3">
         <v>44</v>
       </c>
-      <c r="D17" s="3">
+      <c r="E17" s="3">
         <v>41</v>
-      </c>
-      <c r="E17" s="3">
-        <v>46</v>
       </c>
       <c r="F17" s="3">
         <v>46</v>
       </c>
       <c r="G17" s="3">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="H17" s="3">
         <v>28</v>
       </c>
       <c r="I17" s="3">
+        <v>28</v>
+      </c>
+      <c r="J17" s="3">
         <v>27</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>23</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>29</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>30</v>
       </c>
-      <c r="M17" s="3">
-        <v>27</v>
-      </c>
       <c r="N17" s="3">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -3779,43 +6185,43 @@
         <v>43</v>
       </c>
       <c r="B18">
+        <v>203</v>
+      </c>
+      <c r="C18">
         <v>215</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>237</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>239</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>257</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>247</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>237</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>183</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>189</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>177</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>186</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>180</v>
       </c>
-      <c r="M18">
-        <v>175</v>
-      </c>
       <c r="N18">
-        <v>644</v>
+        <v>631</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -3823,19 +6229,19 @@
         <v>44</v>
       </c>
       <c r="B19" s="3">
+        <v>23</v>
+      </c>
+      <c r="C19" s="3">
         <v>27</v>
       </c>
-      <c r="C19" s="3">
+      <c r="D19" s="3">
         <v>29</v>
-      </c>
-      <c r="D19" s="3">
-        <v>19</v>
       </c>
       <c r="E19" s="3">
         <v>19</v>
       </c>
       <c r="F19" s="3">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G19" s="3">
         <v>22</v>
@@ -3847,19 +6253,19 @@
         <v>22</v>
       </c>
       <c r="J19" s="3">
+        <v>22</v>
+      </c>
+      <c r="K19" s="3">
         <v>23</v>
-      </c>
-      <c r="K19" s="3">
-        <v>22</v>
       </c>
       <c r="L19" s="3">
         <v>22</v>
       </c>
       <c r="M19" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N19" s="3">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -3867,43 +6273,43 @@
         <v>45</v>
       </c>
       <c r="B20">
+        <v>284</v>
+      </c>
+      <c r="C20">
         <v>310</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>308</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>354</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>359</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>363</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>332</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>297</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>333</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>279</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>274</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>281</v>
       </c>
-      <c r="M20">
-        <v>288</v>
-      </c>
       <c r="N20">
-        <v>950</v>
+        <v>942</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -3911,43 +6317,43 @@
         <v>46</v>
       </c>
       <c r="B21" s="3">
+        <v>26</v>
+      </c>
+      <c r="C21" s="3">
         <v>39</v>
       </c>
-      <c r="C21" s="3">
+      <c r="D21" s="3">
         <v>50</v>
       </c>
-      <c r="D21" s="3">
+      <c r="E21" s="3">
         <v>27</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>4</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>7</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>14</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>13</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>20</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>13</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>9</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>13</v>
       </c>
-      <c r="M21" s="3">
-        <v>27</v>
-      </c>
       <c r="N21" s="3">
-        <v>161</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -3955,43 +6361,43 @@
         <v>47</v>
       </c>
       <c r="B22">
+        <v>353</v>
+      </c>
+      <c r="C22">
         <v>366</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>362</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>408</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>364</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>419</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>365</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>354</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>371</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>338</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>353</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>330</v>
       </c>
-      <c r="M22">
-        <v>336</v>
-      </c>
       <c r="N22">
-        <v>1185</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -3999,43 +6405,43 @@
         <v>48</v>
       </c>
       <c r="B23" s="3">
+        <v>35</v>
+      </c>
+      <c r="C23" s="3">
         <v>32</v>
       </c>
-      <c r="C23" s="3">
+      <c r="D23" s="3">
         <v>28</v>
       </c>
-      <c r="D23" s="3">
+      <c r="E23" s="3">
         <v>54</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>43</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>39</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>26</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>22</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>23</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>28</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>24</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>27</v>
       </c>
-      <c r="M23" s="3">
-        <v>37</v>
-      </c>
       <c r="N23" s="3">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -4043,43 +6449,43 @@
         <v>49</v>
       </c>
       <c r="B24">
+        <v>295</v>
+      </c>
+      <c r="C24">
         <v>311</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>370</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>419</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>430</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>443</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>337</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>309</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>321</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>205</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>322</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>281</v>
       </c>
-      <c r="M24">
-        <v>307</v>
-      </c>
       <c r="N24">
-        <v>1177</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -4087,43 +6493,43 @@
         <v>50</v>
       </c>
       <c r="B25" s="3">
+        <v>966</v>
+      </c>
+      <c r="C25" s="3">
         <v>1043</v>
       </c>
-      <c r="C25" s="3">
+      <c r="D25" s="3">
         <v>978</v>
       </c>
-      <c r="D25" s="3">
+      <c r="E25" s="3">
         <v>1181</v>
       </c>
-      <c r="E25" s="3">
+      <c r="F25" s="3">
         <v>1148</v>
       </c>
-      <c r="F25" s="3">
+      <c r="G25" s="3">
         <v>1084</v>
-      </c>
-      <c r="G25" s="3">
-        <v>940</v>
       </c>
       <c r="H25" s="3">
         <v>940</v>
       </c>
       <c r="I25" s="3">
+        <v>940</v>
+      </c>
+      <c r="J25" s="3">
         <v>1015</v>
       </c>
-      <c r="J25" s="3">
+      <c r="K25" s="3">
         <v>888</v>
       </c>
-      <c r="K25" s="3">
+      <c r="L25" s="3">
         <v>842</v>
       </c>
-      <c r="L25" s="3">
+      <c r="M25" s="3">
         <v>904</v>
       </c>
-      <c r="M25" s="3">
-        <v>930</v>
-      </c>
       <c r="N25" s="3">
-        <v>3443</v>
+        <v>3403</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -4131,43 +6537,43 @@
         <v>51</v>
       </c>
       <c r="B26">
+        <v>67</v>
+      </c>
+      <c r="C26">
         <v>73</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>77</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>78</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>93</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>103</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>97</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>84</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>81</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>66</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>62</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>85</v>
       </c>
-      <c r="M26">
-        <v>95</v>
-      </c>
       <c r="N26">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -4193,43 +6599,43 @@
         <v>53</v>
       </c>
       <c r="B28">
+        <v>102</v>
+      </c>
+      <c r="C28">
         <v>111</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>97</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>120</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>114</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>127</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>112</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>104</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>102</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>90</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>94</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>106</v>
       </c>
-      <c r="M28">
-        <v>103</v>
-      </c>
       <c r="N28">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -4237,43 +6643,43 @@
         <v>54</v>
       </c>
       <c r="B29" s="3">
+        <v>38</v>
+      </c>
+      <c r="C29" s="3">
         <v>41</v>
       </c>
-      <c r="C29" s="3">
+      <c r="D29" s="3">
         <v>51</v>
       </c>
-      <c r="D29" s="3">
+      <c r="E29" s="3">
         <v>38</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>42</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>59</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>43</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>41</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>43</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>40</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>36</v>
-      </c>
-      <c r="L29" s="3">
-        <v>46</v>
       </c>
       <c r="M29" s="3">
         <v>46</v>
       </c>
       <c r="N29" s="3">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -4281,43 +6687,43 @@
         <v>55</v>
       </c>
       <c r="B30">
+        <v>191</v>
+      </c>
+      <c r="C30">
         <v>182</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>192</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>213</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>222</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>285</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>231</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>192</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>196</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>184</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>192</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>190</v>
       </c>
-      <c r="M30">
-        <v>189</v>
-      </c>
       <c r="N30">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -4325,43 +6731,43 @@
         <v>56</v>
       </c>
       <c r="B31" s="3">
+        <v>14</v>
+      </c>
+      <c r="C31" s="3">
         <v>9</v>
       </c>
-      <c r="C31" s="3">
+      <c r="D31" s="3">
         <v>8</v>
       </c>
-      <c r="D31" s="3">
+      <c r="E31" s="3">
         <v>21</v>
       </c>
-      <c r="E31" s="3">
+      <c r="F31" s="3">
         <v>35</v>
       </c>
-      <c r="F31" s="3">
+      <c r="G31" s="3">
         <v>14</v>
       </c>
-      <c r="G31" s="3">
+      <c r="H31" s="3">
         <v>10</v>
       </c>
-      <c r="H31" s="3">
+      <c r="I31" s="3">
         <v>11</v>
       </c>
-      <c r="I31" s="3">
+      <c r="J31" s="3">
         <v>9</v>
       </c>
-      <c r="J31" s="3">
+      <c r="K31" s="3">
         <v>14</v>
       </c>
-      <c r="K31" s="3">
+      <c r="L31" s="3">
         <v>10</v>
       </c>
-      <c r="L31" s="3">
+      <c r="M31" s="3">
         <v>11</v>
       </c>
-      <c r="M31" s="3">
-        <v>17</v>
-      </c>
       <c r="N31" s="3">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -4369,43 +6775,43 @@
         <v>57</v>
       </c>
       <c r="B32">
+        <v>41</v>
+      </c>
+      <c r="C32">
         <v>33</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>38</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>55</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>54</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>69</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>49</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>34</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>42</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>38</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>31</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>38</v>
       </c>
-      <c r="M32">
-        <v>49</v>
-      </c>
       <c r="N32">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
@@ -4413,43 +6819,43 @@
         <v>58</v>
       </c>
       <c r="B33" s="3">
+        <v>287</v>
+      </c>
+      <c r="C33" s="3">
         <v>289</v>
-      </c>
-      <c r="C33" s="3">
-        <v>297</v>
       </c>
       <c r="D33" s="3">
         <v>297</v>
       </c>
       <c r="E33" s="3">
+        <v>297</v>
+      </c>
+      <c r="F33" s="3">
         <v>319</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>344</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>312</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>287</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>298</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>272</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>268</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>272</v>
       </c>
-      <c r="M33" s="3">
-        <v>271</v>
-      </c>
       <c r="N33" s="3">
-        <v>873</v>
+        <v>880</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
@@ -4457,43 +6863,43 @@
         <v>59</v>
       </c>
       <c r="B34">
+        <v>218</v>
+      </c>
+      <c r="C34">
         <v>210</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>224</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>267</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>258</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>268</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>222</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>239</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>228</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>262</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>291</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>244</v>
       </c>
-      <c r="M34">
-        <v>252</v>
-      </c>
       <c r="N34">
-        <v>793</v>
+        <v>769</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
@@ -4501,43 +6907,43 @@
         <v>60</v>
       </c>
       <c r="B35" s="3">
+        <v>145</v>
+      </c>
+      <c r="C35" s="3">
         <v>164</v>
       </c>
-      <c r="C35" s="3">
+      <c r="D35" s="3">
         <v>152</v>
       </c>
-      <c r="D35" s="3">
+      <c r="E35" s="3">
         <v>157</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>165</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>174</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>146</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>147</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>142</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>130</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>143</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>145</v>
       </c>
-      <c r="M35" s="3">
-        <v>144</v>
-      </c>
       <c r="N35" s="3">
-        <v>439</v>
+        <v>444</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
@@ -4545,43 +6951,43 @@
         <v>61</v>
       </c>
       <c r="B36">
+        <v>723</v>
+      </c>
+      <c r="C36">
         <v>779</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>783</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>900</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>943</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>984</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>788</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>665</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>751</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>647</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>640</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>615</v>
       </c>
-      <c r="M36">
-        <v>681</v>
-      </c>
       <c r="N36">
-        <v>2487</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
@@ -4589,43 +6995,43 @@
         <v>62</v>
       </c>
       <c r="B37" s="3">
+        <v>131</v>
+      </c>
+      <c r="C37" s="3">
         <v>146</v>
       </c>
-      <c r="C37" s="3">
+      <c r="D37" s="3">
         <v>153</v>
       </c>
-      <c r="D37" s="3">
+      <c r="E37" s="3">
         <v>165</v>
       </c>
-      <c r="E37" s="3">
+      <c r="F37" s="3">
         <v>180</v>
       </c>
-      <c r="F37" s="3">
+      <c r="G37" s="3">
         <v>181</v>
       </c>
-      <c r="G37" s="3">
+      <c r="H37" s="3">
         <v>155</v>
       </c>
-      <c r="H37" s="3">
+      <c r="I37" s="3">
         <v>136</v>
       </c>
-      <c r="I37" s="3">
+      <c r="J37" s="3">
         <v>150</v>
       </c>
-      <c r="J37" s="3">
+      <c r="K37" s="3">
         <v>144</v>
-      </c>
-      <c r="K37" s="3">
-        <v>139</v>
       </c>
       <c r="L37" s="3">
         <v>139</v>
       </c>
       <c r="M37" s="3">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="N37" s="3">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
@@ -4633,43 +7039,43 @@
         <v>63</v>
       </c>
       <c r="B38">
+        <v>474</v>
+      </c>
+      <c r="C38">
         <v>480</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>522</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>556</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>609</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>590</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>483</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>403</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>415</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>373</v>
       </c>
-      <c r="K38">
+      <c r="L38">
         <v>383</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>360</v>
       </c>
-      <c r="M38">
-        <v>413</v>
-      </c>
       <c r="N38">
-        <v>1615</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
@@ -4677,43 +7083,43 @@
         <v>64</v>
       </c>
       <c r="B39" s="3">
+        <v>15</v>
+      </c>
+      <c r="C39" s="3">
         <v>20</v>
       </c>
-      <c r="C39" s="3">
+      <c r="D39" s="3">
         <v>21</v>
       </c>
-      <c r="D39" s="3">
+      <c r="E39" s="3">
         <v>24</v>
       </c>
-      <c r="E39" s="3">
+      <c r="F39" s="3">
         <v>48</v>
       </c>
-      <c r="F39" s="3">
+      <c r="G39" s="3">
         <v>63</v>
       </c>
-      <c r="G39" s="3">
+      <c r="H39" s="3">
         <v>28</v>
       </c>
-      <c r="H39" s="3">
+      <c r="I39" s="3">
         <v>19</v>
-      </c>
-      <c r="I39" s="3">
-        <v>18</v>
       </c>
       <c r="J39" s="3">
         <v>18</v>
       </c>
       <c r="K39" s="3">
+        <v>18</v>
+      </c>
+      <c r="L39" s="3">
         <v>19</v>
       </c>
-      <c r="L39" s="3">
+      <c r="M39" s="3">
         <v>13</v>
       </c>
-      <c r="M39" s="3">
-        <v>18</v>
-      </c>
       <c r="N39" s="3">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
@@ -4721,43 +7127,43 @@
         <v>65</v>
       </c>
       <c r="B40">
+        <v>25</v>
+      </c>
+      <c r="C40">
         <v>20</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>26</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>24</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>30</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>32</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>22</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>26</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>37</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <v>27</v>
       </c>
-      <c r="K40">
+      <c r="L40">
         <v>28</v>
       </c>
-      <c r="L40">
+      <c r="M40">
         <v>24</v>
       </c>
-      <c r="M40">
-        <v>25</v>
-      </c>
       <c r="N40">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
@@ -4765,38 +7171,38 @@
         <v>66</v>
       </c>
       <c r="B41" s="3">
+        <v>118</v>
+      </c>
+      <c r="C41" s="3">
         <v>122</v>
       </c>
-      <c r="C41" s="3">
+      <c r="D41" s="3">
         <v>114</v>
       </c>
-      <c r="D41" s="3">
+      <c r="E41" s="3">
         <v>140</v>
       </c>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3">
+      <c r="F41" s="3"/>
+      <c r="G41" s="3">
         <v>1</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>51</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>99</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>96</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>88</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>132</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>87</v>
-      </c>
-      <c r="M41" s="3">
-        <v>104</v>
       </c>
       <c r="N41" s="3">
         <v>205</v>
@@ -4807,37 +7213,37 @@
         <v>67</v>
       </c>
       <c r="B42">
+        <v>361</v>
+      </c>
+      <c r="C42">
         <v>363</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>381</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>367</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>6</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>328</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>333</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <v>356</v>
       </c>
-      <c r="K42">
+      <c r="L42">
         <v>362</v>
       </c>
-      <c r="L42">
+      <c r="M42">
         <v>342</v>
       </c>
-      <c r="M42">
-        <v>366</v>
-      </c>
       <c r="N42">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
@@ -4845,39 +7251,39 @@
         <v>68</v>
       </c>
       <c r="B43" s="3">
+        <v>11</v>
+      </c>
+      <c r="C43" s="3">
         <v>20</v>
       </c>
-      <c r="C43" s="3">
+      <c r="D43" s="3">
         <v>41</v>
       </c>
-      <c r="D43" s="3">
+      <c r="E43" s="3">
         <v>43</v>
       </c>
-      <c r="E43" s="3"/>
       <c r="F43" s="3"/>
-      <c r="G43" s="3">
+      <c r="G43" s="3"/>
+      <c r="H43" s="3">
         <v>4</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>14</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>25</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>71</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>48</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>10</v>
       </c>
-      <c r="M43" s="3">
-        <v>14</v>
-      </c>
       <c r="N43" s="3">
-        <v>184</v>
+        <v>168</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
@@ -4885,37 +7291,37 @@
         <v>69</v>
       </c>
       <c r="B44">
+        <v>113</v>
+      </c>
+      <c r="C44">
         <v>99</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <v>115</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>148</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>19</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>84</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>68</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <v>59</v>
       </c>
-      <c r="K44">
+      <c r="L44">
         <v>98</v>
       </c>
-      <c r="L44">
+      <c r="M44">
         <v>53</v>
       </c>
-      <c r="M44">
-        <v>117</v>
-      </c>
       <c r="N44">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
@@ -4923,39 +7329,39 @@
         <v>70</v>
       </c>
       <c r="B45" s="3">
+        <v>81</v>
+      </c>
+      <c r="C45" s="3">
         <v>84</v>
       </c>
-      <c r="C45" s="3">
+      <c r="D45" s="3">
         <v>72</v>
       </c>
-      <c r="D45" s="3">
+      <c r="E45" s="3">
         <v>67</v>
       </c>
-      <c r="E45" s="3"/>
       <c r="F45" s="3"/>
-      <c r="G45" s="3">
+      <c r="G45" s="3"/>
+      <c r="H45" s="3">
         <v>8</v>
-      </c>
-      <c r="H45" s="3">
-        <v>86</v>
       </c>
       <c r="I45" s="3">
         <v>86</v>
       </c>
       <c r="J45" s="3">
+        <v>86</v>
+      </c>
+      <c r="K45" s="3">
         <v>93</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>89</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>70</v>
       </c>
-      <c r="M45" s="3">
-        <v>73</v>
-      </c>
       <c r="N45" s="3">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
@@ -4963,43 +7369,43 @@
         <v>71</v>
       </c>
       <c r="B46">
+        <v>37</v>
+      </c>
+      <c r="C46">
         <v>40</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <v>38</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>40</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>41</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>51</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>40</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>48</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>43</v>
       </c>
-      <c r="J46">
+      <c r="K46">
         <v>40</v>
       </c>
-      <c r="K46">
+      <c r="L46">
         <v>37</v>
       </c>
-      <c r="L46">
+      <c r="M46">
         <v>39</v>
       </c>
-      <c r="M46">
-        <v>33</v>
-      </c>
       <c r="N46">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
@@ -5007,43 +7413,43 @@
         <v>72</v>
       </c>
       <c r="B47" s="3">
+        <v>214</v>
+      </c>
+      <c r="C47" s="3">
         <v>220</v>
       </c>
-      <c r="C47" s="3">
+      <c r="D47" s="3">
         <v>206</v>
       </c>
-      <c r="D47" s="3">
+      <c r="E47" s="3">
         <v>235</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>229</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>238</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>234</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>212</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>207</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>187</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>193</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>184</v>
       </c>
-      <c r="M47" s="3">
-        <v>196</v>
-      </c>
       <c r="N47" s="3">
-        <v>570</v>
+        <v>581</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
@@ -5051,43 +7457,43 @@
         <v>73</v>
       </c>
       <c r="B48">
+        <v>284</v>
+      </c>
+      <c r="C48">
         <v>280</v>
       </c>
-      <c r="C48">
+      <c r="D48">
         <v>298</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>329</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>309</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>340</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>309</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>274</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <v>295</v>
       </c>
-      <c r="J48">
+      <c r="K48">
         <v>279</v>
       </c>
-      <c r="K48">
+      <c r="L48">
         <v>271</v>
       </c>
-      <c r="L48">
+      <c r="M48">
         <v>255</v>
       </c>
-      <c r="M48">
-        <v>270</v>
-      </c>
       <c r="N48">
-        <v>782</v>
+        <v>785</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
@@ -5095,43 +7501,43 @@
         <v>74</v>
       </c>
       <c r="B49" s="3">
+        <v>229</v>
+      </c>
+      <c r="C49" s="3">
         <v>233</v>
       </c>
-      <c r="C49" s="3">
+      <c r="D49" s="3">
         <v>243</v>
       </c>
-      <c r="D49" s="3">
+      <c r="E49" s="3">
         <v>313</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>343</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>368</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>331</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>253</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>274</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>250</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>234</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>216</v>
       </c>
-      <c r="M49" s="3">
-        <v>226</v>
-      </c>
       <c r="N49" s="3">
-        <v>811</v>
+        <v>808</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
@@ -5139,43 +7545,43 @@
         <v>75</v>
       </c>
       <c r="B50">
+        <v>191</v>
+      </c>
+      <c r="C50">
         <v>198</v>
       </c>
-      <c r="C50">
+      <c r="D50">
         <v>212</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>224</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>209</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>212</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>201</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>180</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <v>181</v>
       </c>
-      <c r="J50">
+      <c r="K50">
         <v>167</v>
       </c>
-      <c r="K50">
+      <c r="L50">
         <v>174</v>
-      </c>
-      <c r="L50">
-        <v>171</v>
       </c>
       <c r="M50">
         <v>171</v>
       </c>
       <c r="N50">
-        <v>443</v>
+        <v>437</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
@@ -5183,43 +7589,43 @@
         <v>76</v>
       </c>
       <c r="B51" s="3">
+        <v>473</v>
+      </c>
+      <c r="C51" s="3">
         <v>500</v>
       </c>
-      <c r="C51" s="3">
+      <c r="D51" s="3">
         <v>499</v>
       </c>
-      <c r="D51" s="3">
+      <c r="E51" s="3">
         <v>595</v>
       </c>
-      <c r="E51" s="3">
+      <c r="F51" s="3">
         <v>628</v>
       </c>
-      <c r="F51" s="3">
+      <c r="G51" s="3">
         <v>645</v>
       </c>
-      <c r="G51" s="3">
+      <c r="H51" s="3">
         <v>556</v>
       </c>
-      <c r="H51" s="3">
+      <c r="I51" s="3">
         <v>472</v>
       </c>
-      <c r="I51" s="3">
+      <c r="J51" s="3">
         <v>486</v>
       </c>
-      <c r="J51" s="3">
+      <c r="K51" s="3">
         <v>406</v>
       </c>
-      <c r="K51" s="3">
+      <c r="L51" s="3">
         <v>409</v>
       </c>
-      <c r="L51" s="3">
+      <c r="M51" s="3">
         <v>407</v>
       </c>
-      <c r="M51" s="3">
-        <v>419</v>
-      </c>
       <c r="N51" s="3">
-        <v>1721</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
@@ -5227,40 +7633,40 @@
         <v>77</v>
       </c>
       <c r="B52">
+        <v>67</v>
+      </c>
+      <c r="C52">
         <v>73</v>
       </c>
-      <c r="C52">
+      <c r="D52">
         <v>77</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <v>82</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>74</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>79</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <v>72</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>70</v>
       </c>
-      <c r="I52">
+      <c r="J52">
         <v>69</v>
       </c>
-      <c r="J52">
+      <c r="K52">
         <v>56</v>
       </c>
-      <c r="K52">
+      <c r="L52">
         <v>63</v>
       </c>
-      <c r="L52">
+      <c r="M52">
         <v>67</v>
-      </c>
-      <c r="M52">
-        <v>56</v>
       </c>
       <c r="N52">
         <v>233</v>
@@ -5271,43 +7677,43 @@
         <v>78</v>
       </c>
       <c r="B53" s="3">
+        <v>169</v>
+      </c>
+      <c r="C53" s="3">
         <v>208</v>
       </c>
-      <c r="C53" s="3">
+      <c r="D53" s="3">
         <v>183</v>
       </c>
-      <c r="D53" s="3">
+      <c r="E53" s="3">
         <v>200</v>
       </c>
-      <c r="E53" s="3">
+      <c r="F53" s="3">
         <v>198</v>
       </c>
-      <c r="F53" s="3">
+      <c r="G53" s="3">
         <v>217</v>
       </c>
-      <c r="G53" s="3">
+      <c r="H53" s="3">
         <v>224</v>
       </c>
-      <c r="H53" s="3">
+      <c r="I53" s="3">
         <v>150</v>
       </c>
-      <c r="I53" s="3">
+      <c r="J53" s="3">
         <v>168</v>
       </c>
-      <c r="J53" s="3">
+      <c r="K53" s="3">
         <v>150</v>
       </c>
-      <c r="K53" s="3">
+      <c r="L53" s="3">
         <v>137</v>
       </c>
-      <c r="L53" s="3">
+      <c r="M53" s="3">
         <v>143</v>
       </c>
-      <c r="M53" s="3">
-        <v>166</v>
-      </c>
       <c r="N53" s="3">
-        <v>518</v>
+        <v>526</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
@@ -5315,43 +7721,43 @@
         <v>79</v>
       </c>
       <c r="B54">
+        <v>23</v>
+      </c>
+      <c r="C54">
         <v>33</v>
       </c>
-      <c r="C54">
+      <c r="D54">
         <v>35</v>
       </c>
-      <c r="D54">
+      <c r="E54">
         <v>33</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>30</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>42</v>
       </c>
-      <c r="G54">
+      <c r="H54">
         <v>50</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <v>25</v>
       </c>
-      <c r="I54">
+      <c r="J54">
         <v>31</v>
       </c>
-      <c r="J54">
+      <c r="K54">
         <v>23</v>
       </c>
-      <c r="K54">
+      <c r="L54">
         <v>22</v>
       </c>
-      <c r="L54">
+      <c r="M54">
         <v>28</v>
       </c>
-      <c r="M54">
-        <v>25</v>
-      </c>
       <c r="N54">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
@@ -5359,43 +7765,43 @@
         <v>80</v>
       </c>
       <c r="B55" s="3">
+        <v>50</v>
+      </c>
+      <c r="C55" s="3">
         <v>35</v>
       </c>
-      <c r="C55" s="3">
+      <c r="D55" s="3">
         <v>37</v>
       </c>
-      <c r="D55" s="3">
+      <c r="E55" s="3">
         <v>42</v>
       </c>
-      <c r="E55" s="3">
+      <c r="F55" s="3">
         <v>43</v>
       </c>
-      <c r="F55" s="3">
+      <c r="G55" s="3">
         <v>49</v>
       </c>
-      <c r="G55" s="3">
+      <c r="H55" s="3">
         <v>33</v>
-      </c>
-      <c r="H55" s="3">
-        <v>38</v>
       </c>
       <c r="I55" s="3">
         <v>38</v>
       </c>
       <c r="J55" s="3">
+        <v>38</v>
+      </c>
+      <c r="K55" s="3">
         <v>26</v>
       </c>
-      <c r="K55" s="3">
+      <c r="L55" s="3">
         <v>30</v>
       </c>
-      <c r="L55" s="3">
+      <c r="M55" s="3">
         <v>29</v>
       </c>
-      <c r="M55" s="3">
-        <v>31</v>
-      </c>
       <c r="N55" s="3">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
@@ -5403,749 +7809,43 @@
         <v>81</v>
       </c>
       <c r="B56">
+        <v>46</v>
+      </c>
+      <c r="C56">
         <v>50</v>
       </c>
-      <c r="C56">
+      <c r="D56">
         <v>52</v>
       </c>
-      <c r="D56">
+      <c r="E56">
         <v>55</v>
       </c>
-      <c r="E56">
+      <c r="F56">
         <v>62</v>
       </c>
-      <c r="F56">
+      <c r="G56">
         <v>73</v>
       </c>
-      <c r="G56">
+      <c r="H56">
         <v>71</v>
       </c>
-      <c r="H56">
+      <c r="I56">
         <v>63</v>
       </c>
-      <c r="I56">
+      <c r="J56">
         <v>67</v>
       </c>
-      <c r="J56">
+      <c r="K56">
         <v>63</v>
       </c>
-      <c r="K56">
+      <c r="L56">
         <v>65</v>
       </c>
-      <c r="L56">
+      <c r="M56">
         <v>56</v>
       </c>
-      <c r="M56">
-        <v>46</v>
-      </c>
       <c r="N56">
-        <v>222</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:N56"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="42.7109375" customWidth="1"/>
-    <col min="2" max="13" width="13.7109375" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="3"/>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3"/>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="3"/>
-      <c r="M51" s="3"/>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
-      <c r="M53" s="3"/>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
-      <c r="M55" s="3"/>
-      <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>81</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -16194,7 +17894,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18600,7 +20300,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
